--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t>Surname</t>
   </si>
@@ -106,12 +106,6 @@
     <t>H200244C</t>
   </si>
   <si>
-    <t>Chirimhanzi</t>
-  </si>
-  <si>
-    <t>H200699W</t>
-  </si>
-  <si>
     <t>Chiromo</t>
   </si>
   <si>
@@ -208,7 +202,7 @@
     <t>H200095F</t>
   </si>
   <si>
-    <t>JANHI</t>
+    <t>Janhi</t>
   </si>
   <si>
     <t>H200448X</t>
@@ -292,9 +286,6 @@
     <t>H200234V</t>
   </si>
   <si>
-    <t>Makoso</t>
-  </si>
-  <si>
     <t>Makowa</t>
   </si>
   <si>
@@ -712,10 +703,10 @@
     <t>H200071N</t>
   </si>
   <si>
-    <t>SHAMBARE</t>
-  </si>
-  <si>
-    <t>H2OO987Z</t>
+    <t>Shambare</t>
+  </si>
+  <si>
+    <t>H200987Z</t>
   </si>
   <si>
     <t>SHANA</t>
@@ -838,7 +829,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -858,6 +849,9 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1955,7 +1949,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2160,7 +2154,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s" s="5">
         <v>32</v>
@@ -2181,7 +2175,9 @@
       <c r="C13" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2192,7 +2188,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s" s="5">
         <v>36</v>
@@ -2224,7 +2220,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s" s="5">
         <v>40</v>
@@ -2240,7 +2236,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s" s="5">
         <v>42</v>
@@ -2256,7 +2252,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s" s="5">
         <v>44</v>
@@ -2272,7 +2268,7 @@
         <v>45</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s" s="5">
         <v>46</v>
@@ -2288,7 +2284,7 @@
         <v>47</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s" s="5">
         <v>48</v>
@@ -2304,7 +2300,7 @@
         <v>49</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s" s="5">
         <v>50</v>
@@ -2320,7 +2316,7 @@
         <v>51</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s" s="5">
         <v>52</v>
@@ -2336,7 +2332,7 @@
         <v>53</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s" s="5">
         <v>54</v>
@@ -2352,7 +2348,7 @@
         <v>55</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s" s="5">
         <v>56</v>
@@ -2368,7 +2364,7 @@
         <v>57</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s" s="5">
         <v>58</v>
@@ -2384,7 +2380,7 @@
         <v>59</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s" s="5">
         <v>60</v>
@@ -2416,12 +2412,14 @@
         <v>63</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="7">
+        <v>0.59</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2432,7 +2430,7 @@
         <v>65</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s" s="5">
         <v>66</v>
@@ -2448,7 +2446,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s" s="5">
         <v>68</v>
@@ -2469,7 +2467,9 @@
       <c r="C31" t="s" s="5">
         <v>70</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2480,7 +2480,7 @@
         <v>71</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s" s="5">
         <v>72</v>
@@ -2528,12 +2528,14 @@
         <v>77</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="7">
+        <v>0.64</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2576,7 +2578,7 @@
         <v>83</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s" s="5">
         <v>84</v>
@@ -2608,7 +2610,7 @@
         <v>87</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s" s="5">
         <v>88</v>
@@ -2640,7 +2642,7 @@
         <v>91</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s" s="5">
         <v>92</v>
@@ -2656,10 +2658,10 @@
         <v>93</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2669,13 +2671,13 @@
     </row>
     <row r="44" ht="17" customHeight="1">
       <c r="A44" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2685,13 +2687,13 @@
     </row>
     <row r="45" ht="17" customHeight="1">
       <c r="A45" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -2701,13 +2703,13 @@
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -2717,13 +2719,13 @@
     </row>
     <row r="47" ht="17" customHeight="1">
       <c r="A47" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -2733,13 +2735,13 @@
     </row>
     <row r="48" ht="17" customHeight="1">
       <c r="A48" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -2749,15 +2751,17 @@
     </row>
     <row r="49" ht="17" customHeight="1">
       <c r="A49" t="s" s="4">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>103</v>
-      </c>
-      <c r="D49" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.57</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -2765,15 +2769,17 @@
     </row>
     <row r="50" ht="17" customHeight="1">
       <c r="A50" t="s" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s" s="5">
         <v>19</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>105</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.72</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2781,13 +2787,13 @@
     </row>
     <row r="51" ht="17" customHeight="1">
       <c r="A51" t="s" s="4">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s" s="5">
         <v>16</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -2797,13 +2803,13 @@
     </row>
     <row r="52" ht="17" customHeight="1">
       <c r="A52" t="s" s="4">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -2813,13 +2819,13 @@
     </row>
     <row r="53" ht="17" customHeight="1">
       <c r="A53" t="s" s="4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -2829,13 +2835,13 @@
     </row>
     <row r="54" ht="17" customHeight="1">
       <c r="A54" t="s" s="4">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -2845,13 +2851,13 @@
     </row>
     <row r="55" ht="17" customHeight="1">
       <c r="A55" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -2861,13 +2867,13 @@
     </row>
     <row r="56" ht="17" customHeight="1">
       <c r="A56" t="s" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s" s="5">
         <v>16</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -2877,13 +2883,13 @@
     </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" t="s" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -2893,13 +2899,13 @@
     </row>
     <row r="58" ht="17" customHeight="1">
       <c r="A58" t="s" s="4">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -2909,13 +2915,13 @@
     </row>
     <row r="59" ht="17" customHeight="1">
       <c r="A59" t="s" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -2925,13 +2931,13 @@
     </row>
     <row r="60" ht="17" customHeight="1">
       <c r="A60" t="s" s="4">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -2941,13 +2947,13 @@
     </row>
     <row r="61" ht="17" customHeight="1">
       <c r="A61" t="s" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -2957,13 +2963,13 @@
     </row>
     <row r="62" ht="17" customHeight="1">
       <c r="A62" t="s" s="4">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -2973,13 +2979,13 @@
     </row>
     <row r="63" ht="17" customHeight="1">
       <c r="A63" t="s" s="4">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -2989,13 +2995,13 @@
     </row>
     <row r="64" ht="17" customHeight="1">
       <c r="A64" t="s" s="4">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3005,13 +3011,13 @@
     </row>
     <row r="65" ht="17" customHeight="1">
       <c r="A65" t="s" s="4">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -3021,15 +3027,17 @@
     </row>
     <row r="66" ht="17" customHeight="1">
       <c r="A66" t="s" s="4">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>136</v>
-      </c>
-      <c r="D66" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.71</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -3037,13 +3045,13 @@
     </row>
     <row r="67" ht="17" customHeight="1">
       <c r="A67" t="s" s="4">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3053,13 +3061,13 @@
     </row>
     <row r="68" ht="17" customHeight="1">
       <c r="A68" t="s" s="4">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3069,13 +3077,13 @@
     </row>
     <row r="69" ht="17" customHeight="1">
       <c r="A69" t="s" s="4">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -3085,13 +3093,13 @@
     </row>
     <row r="70" ht="17" customHeight="1">
       <c r="A70" t="s" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -3101,13 +3109,13 @@
     </row>
     <row r="71" ht="17" customHeight="1">
       <c r="A71" t="s" s="4">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -3117,13 +3125,13 @@
     </row>
     <row r="72" ht="17" customHeight="1">
       <c r="A72" t="s" s="4">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -3133,13 +3141,13 @@
     </row>
     <row r="73" ht="17" customHeight="1">
       <c r="A73" t="s" s="4">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -3149,13 +3157,13 @@
     </row>
     <row r="74" ht="17" customHeight="1">
       <c r="A74" t="s" s="4">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -3165,13 +3173,13 @@
     </row>
     <row r="75" ht="17" customHeight="1">
       <c r="A75" t="s" s="4">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s" s="5">
         <v>19</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -3181,13 +3189,13 @@
     </row>
     <row r="76" ht="17" customHeight="1">
       <c r="A76" t="s" s="4">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -3197,13 +3205,13 @@
     </row>
     <row r="77" ht="17" customHeight="1">
       <c r="A77" t="s" s="4">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -3213,13 +3221,13 @@
     </row>
     <row r="78" ht="17" customHeight="1">
       <c r="A78" t="s" s="4">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -3229,13 +3237,13 @@
     </row>
     <row r="79" ht="17" customHeight="1">
       <c r="A79" t="s" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -3245,13 +3253,13 @@
     </row>
     <row r="80" ht="17" customHeight="1">
       <c r="A80" t="s" s="4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -3261,13 +3269,13 @@
     </row>
     <row r="81" ht="17" customHeight="1">
       <c r="A81" t="s" s="4">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -3277,13 +3285,13 @@
     </row>
     <row r="82" ht="17" customHeight="1">
       <c r="A82" t="s" s="4">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -3293,13 +3301,13 @@
     </row>
     <row r="83" ht="17" customHeight="1">
       <c r="A83" t="s" s="4">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -3309,13 +3317,13 @@
     </row>
     <row r="84" ht="17" customHeight="1">
       <c r="A84" t="s" s="4">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -3325,13 +3333,13 @@
     </row>
     <row r="85" ht="17" customHeight="1">
       <c r="A85" t="s" s="4">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -3341,15 +3349,17 @@
     </row>
     <row r="86" ht="17" customHeight="1">
       <c r="A86" t="s" s="4">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B86" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>176</v>
-      </c>
-      <c r="D86" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -3357,13 +3367,13 @@
     </row>
     <row r="87" ht="17" customHeight="1">
       <c r="A87" t="s" s="4">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -3373,13 +3383,13 @@
     </row>
     <row r="88" ht="17" customHeight="1">
       <c r="A88" t="s" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s" s="5">
         <v>16</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -3389,13 +3399,13 @@
     </row>
     <row r="89" ht="17" customHeight="1">
       <c r="A89" t="s" s="4">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -3405,13 +3415,13 @@
     </row>
     <row r="90" ht="17" customHeight="1">
       <c r="A90" t="s" s="4">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -3421,13 +3431,13 @@
     </row>
     <row r="91" ht="17" customHeight="1">
       <c r="A91" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s" s="5">
         <v>16</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -3437,13 +3447,13 @@
     </row>
     <row r="92" ht="17" customHeight="1">
       <c r="A92" t="s" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -3453,13 +3463,13 @@
     </row>
     <row r="93" ht="17" customHeight="1">
       <c r="A93" t="s" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -3469,13 +3479,13 @@
     </row>
     <row r="94" ht="17" customHeight="1">
       <c r="A94" t="s" s="4">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -3485,13 +3495,13 @@
     </row>
     <row r="95" ht="17" customHeight="1">
       <c r="A95" t="s" s="4">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -3501,13 +3511,13 @@
     </row>
     <row r="96" ht="17" customHeight="1">
       <c r="A96" t="s" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -3517,13 +3527,13 @@
     </row>
     <row r="97" ht="17" customHeight="1">
       <c r="A97" t="s" s="4">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -3533,13 +3543,13 @@
     </row>
     <row r="98" ht="17" customHeight="1">
       <c r="A98" t="s" s="4">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s" s="5">
         <v>16</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
@@ -3549,13 +3559,13 @@
     </row>
     <row r="99" ht="17" customHeight="1">
       <c r="A99" t="s" s="4">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -3565,13 +3575,13 @@
     </row>
     <row r="100" ht="17" customHeight="1">
       <c r="A100" t="s" s="4">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s" s="5">
         <v>19</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -3581,13 +3591,13 @@
     </row>
     <row r="101" ht="17" customHeight="1">
       <c r="A101" t="s" s="4">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -3597,13 +3607,13 @@
     </row>
     <row r="102" ht="17" customHeight="1">
       <c r="A102" t="s" s="4">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -3613,13 +3623,13 @@
     </row>
     <row r="103" ht="17" customHeight="1">
       <c r="A103" t="s" s="4">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -3629,13 +3639,13 @@
     </row>
     <row r="104" ht="17" customHeight="1">
       <c r="A104" t="s" s="4">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -3645,13 +3655,13 @@
     </row>
     <row r="105" ht="17" customHeight="1">
       <c r="A105" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -3661,13 +3671,13 @@
     </row>
     <row r="106" ht="17" customHeight="1">
       <c r="A106" t="s" s="4">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -3677,13 +3687,13 @@
     </row>
     <row r="107" ht="17" customHeight="1">
       <c r="A107" t="s" s="4">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -3693,13 +3703,13 @@
     </row>
     <row r="108" ht="17" customHeight="1">
       <c r="A108" t="s" s="4">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -3709,13 +3719,13 @@
     </row>
     <row r="109" ht="17" customHeight="1">
       <c r="A109" t="s" s="4">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -3725,13 +3735,13 @@
     </row>
     <row r="110" ht="17" customHeight="1">
       <c r="A110" t="s" s="4">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B110" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -3741,13 +3751,13 @@
     </row>
     <row r="111" ht="17" customHeight="1">
       <c r="A111" t="s" s="4">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -3757,13 +3767,13 @@
     </row>
     <row r="112" ht="17" customHeight="1">
       <c r="A112" t="s" s="4">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
@@ -3773,15 +3783,17 @@
     </row>
     <row r="113" ht="17" customHeight="1">
       <c r="A113" t="s" s="4">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>228</v>
-      </c>
-      <c r="D113" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0.57</v>
+      </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -3789,13 +3801,13 @@
     </row>
     <row r="114" ht="17" customHeight="1">
       <c r="A114" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B114" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -3805,13 +3817,13 @@
     </row>
     <row r="115" ht="17" customHeight="1">
       <c r="A115" t="s" s="4">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -3821,13 +3833,13 @@
     </row>
     <row r="116" ht="17" customHeight="1">
       <c r="A116" t="s" s="4">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
@@ -3837,13 +3849,13 @@
     </row>
     <row r="117" ht="17" customHeight="1">
       <c r="A117" t="s" s="4">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B117" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
@@ -3853,13 +3865,13 @@
     </row>
     <row r="118" ht="17" customHeight="1">
       <c r="A118" t="s" s="4">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -3869,13 +3881,13 @@
     </row>
     <row r="119" ht="17" customHeight="1">
       <c r="A119" t="s" s="4">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
@@ -3885,13 +3897,13 @@
     </row>
     <row r="120" ht="17" customHeight="1">
       <c r="A120" t="s" s="4">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B120" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
@@ -3901,67 +3913,19 @@
     </row>
     <row r="121" ht="17" customHeight="1">
       <c r="A121" t="s" s="4">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
-    </row>
-    <row r="122" ht="17" customHeight="1">
-      <c r="A122" t="s" s="4">
-        <v>245</v>
-      </c>
-      <c r="B122" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="C122" t="s" s="5">
-        <v>246</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" ht="17" customHeight="1">
-      <c r="A123" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="B123" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="C123" t="s" s="5">
-        <v>248</v>
-      </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" ht="17" customHeight="1">
-      <c r="A124" t="s" s="4">
-        <v>249</v>
-      </c>
-      <c r="B124" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="C124" t="s" s="5">
-        <v>250</v>
-      </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -2843,7 +2843,9 @@
       <c r="C54" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="7">
+        <v>0.64</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -3069,7 +3071,9 @@
       <c r="C68" t="s" s="5">
         <v>143</v>
       </c>
-      <c r="D68" s="6"/>
+      <c r="D68" s="7">
+        <v>0.4</v>
+      </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -3873,7 +3877,9 @@
       <c r="C118" t="s" s="5">
         <v>241</v>
       </c>
-      <c r="D118" s="6"/>
+      <c r="D118" s="7">
+        <v>0.55</v>
+      </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -619,7 +619,7 @@
     <t>H200348G</t>
   </si>
   <si>
-    <t>NHAPATA</t>
+    <t>Nhapata</t>
   </si>
   <si>
     <t>H200284Y</t>
@@ -2305,7 +2305,9 @@
       <c r="C21" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="7">
+        <v>0.62</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3249,7 +3251,9 @@
       <c r="C79" t="s" s="5">
         <v>165</v>
       </c>
-      <c r="D79" s="6"/>
+      <c r="D79" s="7">
+        <v>0.59</v>
+      </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -3571,7 +3575,9 @@
       <c r="C99" t="s" s="5">
         <v>203</v>
       </c>
-      <c r="D99" s="6"/>
+      <c r="D99" s="7">
+        <v>0.59</v>
+      </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -848,10 +848,10 @@
     <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1949,7 +1949,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1999,11 +1999,13 @@
       <c r="C2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="4">
@@ -2015,11 +2017,13 @@
       <c r="C3" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="s" s="4">
@@ -2031,11 +2035,13 @@
       <c r="C4" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="4">
@@ -2047,11 +2053,11 @@
       <c r="C5" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="4">
@@ -2063,11 +2069,13 @@
       <c r="C6" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="4">
@@ -2079,11 +2087,13 @@
       <c r="C7" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s" s="4">
@@ -2095,11 +2105,13 @@
       <c r="C8" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="6">
+        <v>0.57</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" t="s" s="4">
@@ -2111,11 +2123,11 @@
       <c r="C9" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" t="s" s="4">
@@ -2127,11 +2139,11 @@
       <c r="C10" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="4">
@@ -2143,11 +2155,13 @@
       <c r="C11" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" ht="17" customHeight="1">
       <c r="A12" t="s" s="4">
@@ -2159,11 +2173,13 @@
       <c r="C12" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" t="s" s="4">
@@ -2175,13 +2191,13 @@
       <c r="C13" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="4">
@@ -2193,11 +2209,11 @@
       <c r="C14" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="4">
@@ -2209,11 +2225,13 @@
       <c r="C15" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" t="s" s="4">
@@ -2225,11 +2243,13 @@
       <c r="C16" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" ht="17" customHeight="1">
       <c r="A17" t="s" s="4">
@@ -2241,11 +2261,13 @@
       <c r="C17" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" t="s" s="4">
@@ -2257,11 +2279,13 @@
       <c r="C18" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" ht="17" customHeight="1">
       <c r="A19" t="s" s="4">
@@ -2273,11 +2297,11 @@
       <c r="C19" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" ht="17" customHeight="1">
       <c r="A20" t="s" s="4">
@@ -2289,11 +2313,11 @@
       <c r="C20" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" t="s" s="4">
@@ -2305,13 +2329,13 @@
       <c r="C21" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>0.62</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" t="s" s="4">
@@ -2323,11 +2347,11 @@
       <c r="C22" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" ht="17" customHeight="1">
       <c r="A23" t="s" s="4">
@@ -2339,11 +2363,11 @@
       <c r="C23" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" t="s" s="4">
@@ -2355,11 +2379,11 @@
       <c r="C24" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" ht="17" customHeight="1">
       <c r="A25" t="s" s="4">
@@ -2371,11 +2395,11 @@
       <c r="C25" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" ht="17" customHeight="1">
       <c r="A26" t="s" s="4">
@@ -2387,11 +2411,11 @@
       <c r="C26" t="s" s="5">
         <v>60</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" ht="17" customHeight="1">
       <c r="A27" t="s" s="4">
@@ -2403,11 +2427,11 @@
       <c r="C27" t="s" s="5">
         <v>62</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" ht="17" customHeight="1">
       <c r="A28" t="s" s="4">
@@ -2419,13 +2443,13 @@
       <c r="C28" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>0.59</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" ht="17" customHeight="1">
       <c r="A29" t="s" s="4">
@@ -2437,11 +2461,11 @@
       <c r="C29" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" ht="17" customHeight="1">
       <c r="A30" t="s" s="4">
@@ -2453,11 +2477,11 @@
       <c r="C30" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" ht="17" customHeight="1">
       <c r="A31" t="s" s="4">
@@ -2469,13 +2493,13 @@
       <c r="C31" t="s" s="5">
         <v>70</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>0</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" t="s" s="4">
@@ -2487,11 +2511,11 @@
       <c r="C32" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" ht="17" customHeight="1">
       <c r="A33" t="s" s="4">
@@ -2503,11 +2527,13 @@
       <c r="C33" t="s" s="5">
         <v>74</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="D33" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" ht="17" customHeight="1">
       <c r="A34" t="s" s="4">
@@ -2519,11 +2545,11 @@
       <c r="C34" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" ht="17" customHeight="1">
       <c r="A35" t="s" s="4">
@@ -2535,13 +2561,13 @@
       <c r="C35" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>0.64</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" t="s" s="4">
@@ -2553,11 +2579,11 @@
       <c r="C36" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" ht="17" customHeight="1">
       <c r="A37" t="s" s="4">
@@ -2569,11 +2595,11 @@
       <c r="C37" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" ht="17" customHeight="1">
       <c r="A38" t="s" s="4">
@@ -2585,11 +2611,11 @@
       <c r="C38" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" ht="17" customHeight="1">
       <c r="A39" t="s" s="4">
@@ -2601,11 +2627,13 @@
       <c r="C39" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="D39" s="6">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" ht="17" customHeight="1">
       <c r="A40" t="s" s="4">
@@ -2617,11 +2645,13 @@
       <c r="C40" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="D40" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" ht="17" customHeight="1">
       <c r="A41" t="s" s="4">
@@ -2633,11 +2663,11 @@
       <c r="C41" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" ht="17" customHeight="1">
       <c r="A42" t="s" s="4">
@@ -2649,11 +2679,13 @@
       <c r="C42" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="D42" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" ht="17" customHeight="1">
       <c r="A43" t="s" s="4">
@@ -2665,11 +2697,11 @@
       <c r="C43" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" ht="17" customHeight="1">
       <c r="A44" t="s" s="4">
@@ -2681,11 +2713,11 @@
       <c r="C44" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" ht="17" customHeight="1">
       <c r="A45" t="s" s="4">
@@ -2697,11 +2729,11 @@
       <c r="C45" t="s" s="5">
         <v>98</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s" s="4">
@@ -2713,11 +2745,13 @@
       <c r="C46" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="D46" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" ht="17" customHeight="1">
       <c r="A47" t="s" s="4">
@@ -2729,11 +2763,11 @@
       <c r="C47" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" ht="17" customHeight="1">
       <c r="A48" t="s" s="4">
@@ -2745,11 +2779,11 @@
       <c r="C48" t="s" s="5">
         <v>104</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" ht="17" customHeight="1">
       <c r="A49" t="s" s="4">
@@ -2761,13 +2795,13 @@
       <c r="C49" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>0.57</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" ht="17" customHeight="1">
       <c r="A50" t="s" s="4">
@@ -2779,13 +2813,13 @@
       <c r="C50" t="s" s="5">
         <v>108</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>0.72</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" ht="17" customHeight="1">
       <c r="A51" t="s" s="4">
@@ -2797,11 +2831,11 @@
       <c r="C51" t="s" s="5">
         <v>110</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" ht="17" customHeight="1">
       <c r="A52" t="s" s="4">
@@ -2813,11 +2847,11 @@
       <c r="C52" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" ht="17" customHeight="1">
       <c r="A53" t="s" s="4">
@@ -2829,11 +2863,11 @@
       <c r="C53" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" ht="17" customHeight="1">
       <c r="A54" t="s" s="4">
@@ -2845,13 +2879,13 @@
       <c r="C54" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>0.64</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" ht="17" customHeight="1">
       <c r="A55" t="s" s="4">
@@ -2863,11 +2897,11 @@
       <c r="C55" t="s" s="5">
         <v>117</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" ht="17" customHeight="1">
       <c r="A56" t="s" s="4">
@@ -2879,11 +2913,11 @@
       <c r="C56" t="s" s="5">
         <v>119</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" t="s" s="4">
@@ -2895,11 +2929,11 @@
       <c r="C57" t="s" s="5">
         <v>121</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" ht="17" customHeight="1">
       <c r="A58" t="s" s="4">
@@ -2911,11 +2945,11 @@
       <c r="C58" t="s" s="5">
         <v>123</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" ht="17" customHeight="1">
       <c r="A59" t="s" s="4">
@@ -2927,11 +2961,13 @@
       <c r="C59" t="s" s="5">
         <v>125</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="D59" s="6">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" ht="17" customHeight="1">
       <c r="A60" t="s" s="4">
@@ -2943,11 +2979,11 @@
       <c r="C60" t="s" s="5">
         <v>127</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" ht="17" customHeight="1">
       <c r="A61" t="s" s="4">
@@ -2959,11 +2995,11 @@
       <c r="C61" t="s" s="5">
         <v>129</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" ht="17" customHeight="1">
       <c r="A62" t="s" s="4">
@@ -2975,11 +3011,11 @@
       <c r="C62" t="s" s="5">
         <v>131</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" ht="17" customHeight="1">
       <c r="A63" t="s" s="4">
@@ -2991,11 +3027,11 @@
       <c r="C63" t="s" s="5">
         <v>133</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" ht="17" customHeight="1">
       <c r="A64" t="s" s="4">
@@ -3007,11 +3043,11 @@
       <c r="C64" t="s" s="5">
         <v>135</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" ht="17" customHeight="1">
       <c r="A65" t="s" s="4">
@@ -3023,11 +3059,11 @@
       <c r="C65" t="s" s="5">
         <v>137</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" ht="17" customHeight="1">
       <c r="A66" t="s" s="4">
@@ -3039,13 +3075,13 @@
       <c r="C66" t="s" s="5">
         <v>139</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>0.71</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" ht="17" customHeight="1">
       <c r="A67" t="s" s="4">
@@ -3057,11 +3093,13 @@
       <c r="C67" t="s" s="5">
         <v>141</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="D67" s="6">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" ht="17" customHeight="1">
       <c r="A68" t="s" s="4">
@@ -3073,13 +3111,13 @@
       <c r="C68" t="s" s="5">
         <v>143</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>0.4</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" ht="17" customHeight="1">
       <c r="A69" t="s" s="4">
@@ -3091,11 +3129,11 @@
       <c r="C69" t="s" s="5">
         <v>145</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" ht="17" customHeight="1">
       <c r="A70" t="s" s="4">
@@ -3107,11 +3145,13 @@
       <c r="C70" t="s" s="5">
         <v>147</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="D70" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" ht="17" customHeight="1">
       <c r="A71" t="s" s="4">
@@ -3123,11 +3163,11 @@
       <c r="C71" t="s" s="5">
         <v>149</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" ht="17" customHeight="1">
       <c r="A72" t="s" s="4">
@@ -3139,11 +3179,11 @@
       <c r="C72" t="s" s="5">
         <v>151</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" ht="17" customHeight="1">
       <c r="A73" t="s" s="4">
@@ -3155,11 +3195,11 @@
       <c r="C73" t="s" s="5">
         <v>153</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" ht="17" customHeight="1">
       <c r="A74" t="s" s="4">
@@ -3171,11 +3211,11 @@
       <c r="C74" t="s" s="5">
         <v>155</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" ht="17" customHeight="1">
       <c r="A75" t="s" s="4">
@@ -3187,11 +3227,11 @@
       <c r="C75" t="s" s="5">
         <v>157</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" ht="17" customHeight="1">
       <c r="A76" t="s" s="4">
@@ -3203,11 +3243,11 @@
       <c r="C76" t="s" s="5">
         <v>159</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" ht="17" customHeight="1">
       <c r="A77" t="s" s="4">
@@ -3219,11 +3259,11 @@
       <c r="C77" t="s" s="5">
         <v>161</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" ht="17" customHeight="1">
       <c r="A78" t="s" s="4">
@@ -3235,11 +3275,11 @@
       <c r="C78" t="s" s="5">
         <v>163</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" ht="17" customHeight="1">
       <c r="A79" t="s" s="4">
@@ -3251,13 +3291,13 @@
       <c r="C79" t="s" s="5">
         <v>165</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <v>0.59</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" ht="17" customHeight="1">
       <c r="A80" t="s" s="4">
@@ -3269,11 +3309,11 @@
       <c r="C80" t="s" s="5">
         <v>167</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" ht="17" customHeight="1">
       <c r="A81" t="s" s="4">
@@ -3285,11 +3325,13 @@
       <c r="C81" t="s" s="5">
         <v>169</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="D81" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" ht="17" customHeight="1">
       <c r="A82" t="s" s="4">
@@ -3301,11 +3343,13 @@
       <c r="C82" t="s" s="5">
         <v>171</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="D82" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" ht="17" customHeight="1">
       <c r="A83" t="s" s="4">
@@ -3317,11 +3361,13 @@
       <c r="C83" t="s" s="5">
         <v>173</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="D83" s="6">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" ht="17" customHeight="1">
       <c r="A84" t="s" s="4">
@@ -3333,11 +3379,11 @@
       <c r="C84" t="s" s="5">
         <v>175</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" ht="17" customHeight="1">
       <c r="A85" t="s" s="4">
@@ -3349,11 +3395,11 @@
       <c r="C85" t="s" s="5">
         <v>177</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" ht="17" customHeight="1">
       <c r="A86" t="s" s="4">
@@ -3365,13 +3411,13 @@
       <c r="C86" t="s" s="5">
         <v>179</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <v>0</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" ht="17" customHeight="1">
       <c r="A87" t="s" s="4">
@@ -3383,11 +3429,13 @@
       <c r="C87" t="s" s="5">
         <v>181</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="D87" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" ht="17" customHeight="1">
       <c r="A88" t="s" s="4">
@@ -3399,11 +3447,11 @@
       <c r="C88" t="s" s="5">
         <v>183</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" ht="17" customHeight="1">
       <c r="A89" t="s" s="4">
@@ -3415,11 +3463,11 @@
       <c r="C89" t="s" s="5">
         <v>185</v>
       </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" ht="17" customHeight="1">
       <c r="A90" t="s" s="4">
@@ -3431,513 +3479,515 @@
       <c r="C90" t="s" s="5">
         <v>187</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="D90" s="6">
+        <v>0.57</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" ht="17" customHeight="1">
       <c r="A91" t="s" s="4">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>187</v>
-      </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+        <v>189</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" ht="17" customHeight="1">
       <c r="A92" t="s" s="4">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
+        <v>191</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" ht="17" customHeight="1">
       <c r="A93" t="s" s="4">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>191</v>
-      </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" ht="17" customHeight="1">
       <c r="A94" t="s" s="4">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>193</v>
-      </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
     </row>
     <row r="95" ht="17" customHeight="1">
       <c r="A95" t="s" s="4">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s" s="5">
         <v>16</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>195</v>
-      </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" ht="17" customHeight="1">
       <c r="A96" t="s" s="4">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>197</v>
-      </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" ht="17" customHeight="1">
       <c r="A97" t="s" s="4">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>199</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" ht="17" customHeight="1">
       <c r="A98" t="s" s="4">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>201</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
     </row>
     <row r="99" ht="17" customHeight="1">
       <c r="A99" t="s" s="4">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B99" t="s" s="5">
         <v>19</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>203</v>
-      </c>
-      <c r="D99" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="D99" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
     </row>
     <row r="100" ht="17" customHeight="1">
       <c r="A100" t="s" s="4">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>205</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
     </row>
     <row r="101" ht="17" customHeight="1">
       <c r="A101" t="s" s="4">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>207</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
     </row>
     <row r="102" ht="17" customHeight="1">
       <c r="A102" t="s" s="4">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B102" t="s" s="5">
         <v>16</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>209</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
     </row>
     <row r="103" ht="17" customHeight="1">
       <c r="A103" t="s" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>211</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
     </row>
     <row r="104" ht="17" customHeight="1">
       <c r="A104" t="s" s="4">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>213</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" ht="17" customHeight="1">
       <c r="A105" t="s" s="4">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>215</v>
-      </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="D105" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
     </row>
     <row r="106" ht="17" customHeight="1">
       <c r="A106" t="s" s="4">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>217</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
     </row>
     <row r="107" ht="17" customHeight="1">
       <c r="A107" t="s" s="4">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>219</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
     </row>
     <row r="108" ht="17" customHeight="1">
       <c r="A108" t="s" s="4">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>221</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
     </row>
     <row r="109" ht="17" customHeight="1">
       <c r="A109" t="s" s="4">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B109" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>223</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
+        <v>225</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
     </row>
     <row r="110" ht="17" customHeight="1">
       <c r="A110" t="s" s="4">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B110" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>225</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
+        <v>227</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
     </row>
     <row r="111" ht="17" customHeight="1">
       <c r="A111" t="s" s="4">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>227</v>
-      </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
     </row>
     <row r="112" ht="17" customHeight="1">
       <c r="A112" t="s" s="4">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B112" t="s" s="5">
         <v>16</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>229</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="D112" s="6">
+        <v>0.57</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
     </row>
     <row r="113" ht="17" customHeight="1">
       <c r="A113" t="s" s="4">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>231</v>
-      </c>
-      <c r="D113" s="7">
-        <v>0.57</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+        <v>233</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
     </row>
     <row r="114" ht="17" customHeight="1">
       <c r="A114" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B114" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>233</v>
-      </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
+        <v>235</v>
+      </c>
+      <c r="D114" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
     </row>
     <row r="115" ht="17" customHeight="1">
       <c r="A115" t="s" s="4">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B115" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>235</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+        <v>237</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
     </row>
     <row r="116" ht="17" customHeight="1">
       <c r="A116" t="s" s="4">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B116" t="s" s="5">
         <v>9</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>237</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="D116" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
     </row>
     <row r="117" ht="17" customHeight="1">
       <c r="A117" t="s" s="4">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>239</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
     </row>
     <row r="118" ht="17" customHeight="1">
       <c r="A118" t="s" s="4">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B118" t="s" s="5">
         <v>19</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>241</v>
-      </c>
-      <c r="D118" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
+        <v>243</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" ht="17" customHeight="1">
       <c r="A119" t="s" s="4">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>243</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
     </row>
     <row r="120" ht="17" customHeight="1">
       <c r="A120" t="s" s="4">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>245</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" ht="17" customHeight="1">
-      <c r="A121" t="s" s="4">
-        <v>246</v>
-      </c>
-      <c r="B121" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="C121" t="s" s="5">
         <v>247</v>
       </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">H200709E </t>
   </si>
   <si>
-    <t>CHIGIYA</t>
+    <t>Chigiya</t>
   </si>
   <si>
     <t>ICS</t>
@@ -2053,7 +2053,9 @@
       <c r="C5" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6">
+        <v>0.64</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2209,7 +2211,9 @@
       <c r="C14" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2297,7 +2301,9 @@
       <c r="C19" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6">
+        <v>0.64</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -2379,7 +2385,9 @@
       <c r="C24" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6">
+        <v>0.66</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -2395,7 +2403,9 @@
       <c r="C25" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="6">
+        <v>0.62</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -2411,7 +2421,9 @@
       <c r="C26" t="s" s="5">
         <v>60</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="6">
+        <v>0.52</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -2579,7 +2591,9 @@
       <c r="C36" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="6">
+        <v>0.48</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -2663,7 +2677,9 @@
       <c r="C41" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="6">
+        <v>0.38</v>
+      </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -2713,7 +2729,9 @@
       <c r="C44" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="6">
+        <v>0.66</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -2763,7 +2781,9 @@
       <c r="C47" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="6">
+        <v>0.67</v>
+      </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -2897,7 +2917,9 @@
       <c r="C55" t="s" s="5">
         <v>117</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="6">
+        <v>0.52</v>
+      </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -2945,7 +2967,9 @@
       <c r="C58" t="s" s="5">
         <v>123</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="6">
+        <v>0.74</v>
+      </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -3011,7 +3035,9 @@
       <c r="C62" t="s" s="5">
         <v>131</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="6">
+        <v>0.6</v>
+      </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -3043,7 +3069,9 @@
       <c r="C64" t="s" s="5">
         <v>135</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="6">
+        <v>0.53</v>
+      </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -3195,7 +3223,9 @@
       <c r="C73" t="s" s="5">
         <v>153</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="6">
+        <v>0.79</v>
+      </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -3259,7 +3289,9 @@
       <c r="C77" t="s" s="5">
         <v>161</v>
       </c>
-      <c r="D77" s="7"/>
+      <c r="D77" s="6">
+        <v>0.57</v>
+      </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -3447,7 +3479,9 @@
       <c r="C88" t="s" s="5">
         <v>183</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="6">
+        <v>0.72</v>
+      </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -3497,7 +3531,9 @@
       <c r="C91" t="s" s="5">
         <v>189</v>
       </c>
-      <c r="D91" s="7"/>
+      <c r="D91" s="6">
+        <v>0.43</v>
+      </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -3513,7 +3549,9 @@
       <c r="C92" t="s" s="5">
         <v>191</v>
       </c>
-      <c r="D92" s="7"/>
+      <c r="D92" s="6">
+        <v>0.6</v>
+      </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -3563,7 +3601,9 @@
       <c r="C95" t="s" s="5">
         <v>197</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="6">
+        <v>0.45</v>
+      </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -3713,7 +3753,9 @@
       <c r="C104" t="s" s="5">
         <v>215</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="6">
+        <v>0.62</v>
+      </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -3967,7 +4009,9 @@
       <c r="C119" t="s" s="5">
         <v>245</v>
       </c>
-      <c r="D119" s="7"/>
+      <c r="D119" s="6">
+        <v>0.52</v>
+      </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -709,7 +709,7 @@
     <t>H200987Z</t>
   </si>
   <si>
-    <t>SHANA</t>
+    <t>Shana</t>
   </si>
   <si>
     <t>H200803X</t>
@@ -2125,7 +2125,9 @@
       <c r="C9" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6">
+        <v>0.57</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2386,7 +2388,7 @@
         <v>56</v>
       </c>
       <c r="D24" s="6">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -2489,7 +2491,9 @@
       <c r="C30" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6">
+        <v>0.55</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -2609,7 +2613,9 @@
       <c r="C37" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="6">
+        <v>0.41</v>
+      </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2625,7 +2631,9 @@
       <c r="C38" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="6">
+        <v>0.52</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -2713,7 +2721,9 @@
       <c r="C43" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="6">
+        <v>0.29</v>
+      </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2747,7 +2757,9 @@
       <c r="C45" t="s" s="5">
         <v>98</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="6">
+        <v>0.24</v>
+      </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2799,7 +2811,9 @@
       <c r="C48" t="s" s="5">
         <v>104</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="6">
+        <v>0.66</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -2851,7 +2865,9 @@
       <c r="C51" t="s" s="5">
         <v>110</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="6">
+        <v>0.6</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -2867,7 +2883,9 @@
       <c r="C52" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="6">
+        <v>0.48</v>
+      </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -3003,7 +3021,9 @@
       <c r="C60" t="s" s="5">
         <v>127</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="6">
+        <v>0.53</v>
+      </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -3019,7 +3039,9 @@
       <c r="C61" t="s" s="5">
         <v>129</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="6">
+        <v>0.55</v>
+      </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -3087,7 +3109,9 @@
       <c r="C65" t="s" s="5">
         <v>137</v>
       </c>
-      <c r="D65" s="7"/>
+      <c r="D65" s="6">
+        <v>0.72</v>
+      </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -3157,7 +3181,9 @@
       <c r="C69" t="s" s="5">
         <v>145</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="6">
+        <v>0.62</v>
+      </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -3307,7 +3333,9 @@
       <c r="C78" t="s" s="5">
         <v>163</v>
       </c>
-      <c r="D78" s="7"/>
+      <c r="D78" s="6">
+        <v>0.57</v>
+      </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -3427,7 +3455,9 @@
       <c r="C85" t="s" s="5">
         <v>177</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="6">
+        <v>0.57</v>
+      </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -3550,7 +3580,7 @@
         <v>191</v>
       </c>
       <c r="D92" s="6">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -3637,7 +3667,9 @@
       <c r="C97" t="s" s="5">
         <v>201</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="6">
+        <v>0.78</v>
+      </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
@@ -3705,7 +3737,9 @@
       <c r="C101" t="s" s="5">
         <v>209</v>
       </c>
-      <c r="D101" s="7"/>
+      <c r="D101" s="6">
+        <v>0.66</v>
+      </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
@@ -3857,7 +3891,9 @@
       <c r="C110" t="s" s="5">
         <v>227</v>
       </c>
-      <c r="D110" s="7"/>
+      <c r="D110" s="6">
+        <v>0.52</v>
+      </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -3907,7 +3943,9 @@
       <c r="C113" t="s" s="5">
         <v>233</v>
       </c>
-      <c r="D113" s="7"/>
+      <c r="D113" s="6">
+        <v>0.38</v>
+      </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -379,7 +379,7 @@
     <t>H200648F</t>
   </si>
   <si>
-    <t>MASIYAMBIRI</t>
+    <t>Masiyambiri</t>
   </si>
   <si>
     <t>H200690T</t>
@@ -761,8 +761,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="# ###/###"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -829,7 +830,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -852,6 +853,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2143,7 +2147,9 @@
       <c r="C10" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="8">
+        <v>0.6551724137931034</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2321,7 +2327,9 @@
       <c r="C20" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="8">
+        <v>0.603448275862069</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -2355,7 +2363,9 @@
       <c r="C22" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="8">
+        <v>0.7068965517241379</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -2371,7 +2381,9 @@
       <c r="C23" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="8">
+        <v>0.5862068965517241</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2441,7 +2453,9 @@
       <c r="C27" t="s" s="5">
         <v>62</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="8">
+        <v>0.5517241379310345</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -2475,7 +2489,9 @@
       <c r="C29" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8">
+        <v>0.6206896551724138</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2527,7 +2543,9 @@
       <c r="C32" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="8">
+        <v>0.5172413793103449</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2561,7 +2579,9 @@
       <c r="C34" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="8">
+        <v>0.5517241379310345</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -2901,7 +2921,9 @@
       <c r="C53" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="8">
+        <v>0.6206896551724138</v>
+      </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -2953,7 +2975,9 @@
       <c r="C56" t="s" s="5">
         <v>119</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="8">
+        <v>0.7068965517241379</v>
+      </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -2969,7 +2993,9 @@
       <c r="C57" t="s" s="5">
         <v>121</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="8">
+        <v>0.7413793103448276</v>
+      </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -3075,7 +3101,9 @@
       <c r="C63" t="s" s="5">
         <v>133</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="8">
+        <v>0.293103448275862</v>
+      </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -3217,7 +3245,9 @@
       <c r="C71" t="s" s="5">
         <v>149</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="8">
+        <v>0.603448275862069</v>
+      </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
@@ -3233,7 +3263,9 @@
       <c r="C72" t="s" s="5">
         <v>151</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="8">
+        <v>0.6896551724137931</v>
+      </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
@@ -3267,7 +3299,9 @@
       <c r="C74" t="s" s="5">
         <v>155</v>
       </c>
-      <c r="D74" s="7"/>
+      <c r="D74" s="8">
+        <v>0.7413793103448276</v>
+      </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -3283,7 +3317,9 @@
       <c r="C75" t="s" s="5">
         <v>157</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="8">
+        <v>0.9482758620689655</v>
+      </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -3299,7 +3335,9 @@
       <c r="C76" t="s" s="5">
         <v>159</v>
       </c>
-      <c r="D76" s="7"/>
+      <c r="D76" s="8">
+        <v>0.5689655172413793</v>
+      </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -3369,7 +3407,9 @@
       <c r="C80" t="s" s="5">
         <v>167</v>
       </c>
-      <c r="D80" s="7"/>
+      <c r="D80" s="8">
+        <v>0.7068965517241379</v>
+      </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -3439,7 +3479,9 @@
       <c r="C84" t="s" s="5">
         <v>175</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="6">
+        <v>0</v>
+      </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -3527,7 +3569,9 @@
       <c r="C89" t="s" s="5">
         <v>185</v>
       </c>
-      <c r="D89" s="7"/>
+      <c r="D89" s="8">
+        <v>0.6896551724137931</v>
+      </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
@@ -3597,7 +3641,9 @@
       <c r="C93" t="s" s="5">
         <v>193</v>
       </c>
-      <c r="D93" s="7"/>
+      <c r="D93" s="8">
+        <v>0.4482758620689655</v>
+      </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -3721,7 +3767,9 @@
       <c r="C100" t="s" s="5">
         <v>207</v>
       </c>
-      <c r="D100" s="7"/>
+      <c r="D100" s="8">
+        <v>0.4827586206896552</v>
+      </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -3755,7 +3803,9 @@
       <c r="C102" t="s" s="5">
         <v>211</v>
       </c>
-      <c r="D102" s="7"/>
+      <c r="D102" s="8">
+        <v>0.7758620689655172</v>
+      </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -3771,7 +3821,9 @@
       <c r="C103" t="s" s="5">
         <v>213</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="8">
+        <v>0.5517241379310345</v>
+      </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
@@ -3841,7 +3893,9 @@
       <c r="C107" t="s" s="5">
         <v>221</v>
       </c>
-      <c r="D107" s="7"/>
+      <c r="D107" s="8">
+        <v>0.4827586206896552</v>
+      </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
@@ -3857,7 +3911,9 @@
       <c r="C108" t="s" s="5">
         <v>223</v>
       </c>
-      <c r="D108" s="7"/>
+      <c r="D108" s="8">
+        <v>0.4137931034482759</v>
+      </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -3909,7 +3965,9 @@
       <c r="C111" t="s" s="5">
         <v>229</v>
       </c>
-      <c r="D111" s="7"/>
+      <c r="D111" s="8">
+        <v>0.5689655172413793</v>
+      </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -3979,7 +4037,9 @@
       <c r="C115" t="s" s="5">
         <v>237</v>
       </c>
-      <c r="D115" s="7"/>
+      <c r="D115" s="8">
+        <v>0.5862068965517241</v>
+      </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
@@ -4031,7 +4091,9 @@
       <c r="C118" t="s" s="5">
         <v>243</v>
       </c>
-      <c r="D118" s="7"/>
+      <c r="D118" s="8">
+        <v>0.7931034482758621</v>
+      </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -4065,7 +4127,9 @@
       <c r="C120" t="s" s="5">
         <v>247</v>
       </c>
-      <c r="D120" s="7"/>
+      <c r="D120" s="8">
+        <v>0.8448275862068966</v>
+      </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>Surname</t>
   </si>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>H200071N</t>
+  </si>
+  <si>
+    <t>Saunyama</t>
+  </si>
+  <si>
+    <t>H190782H</t>
   </si>
   <si>
     <t>Shambare</t>
@@ -2002,7 +2008,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -4269,11 +4275,11 @@
         <v>233</v>
       </c>
       <c r="D113" s="10">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -4283,13 +4289,13 @@
         <v>234</v>
       </c>
       <c r="B114" t="s" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s" s="9">
         <v>235</v>
       </c>
       <c r="D114" s="10">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="12">
@@ -4309,11 +4315,11 @@
         <v>237</v>
       </c>
       <c r="D115" s="10">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -4328,12 +4334,12 @@
       <c r="C116" t="s" s="9">
         <v>239</v>
       </c>
-      <c r="D116" s="12">
-        <v>0.5862068965517241</v>
+      <c r="D116" s="10">
+        <v>0.55</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="12">
-        <v>0.918918918918919</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -4348,12 +4354,12 @@
       <c r="C117" t="s" s="9">
         <v>241</v>
       </c>
-      <c r="D117" s="10">
-        <v>0.41</v>
+      <c r="D117" s="12">
+        <v>0.5862068965517241</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -4363,17 +4369,17 @@
         <v>242</v>
       </c>
       <c r="B118" t="s" s="9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s" s="9">
         <v>243</v>
       </c>
       <c r="D118" s="10">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="12">
-        <v>0.6216216216216216</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -4388,12 +4394,12 @@
       <c r="C119" t="s" s="9">
         <v>245</v>
       </c>
-      <c r="D119" s="12">
-        <v>0.7931034482758621</v>
+      <c r="D119" s="10">
+        <v>0.55</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="12">
-        <v>0.918918918918919</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -4403,17 +4409,17 @@
         <v>246</v>
       </c>
       <c r="B120" t="s" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s" s="9">
         <v>247</v>
       </c>
-      <c r="D120" s="10">
-        <v>0.52</v>
+      <c r="D120" s="12">
+        <v>0.7931034482758621</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -4423,20 +4429,40 @@
         <v>248</v>
       </c>
       <c r="B121" t="s" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s" s="9">
         <v>249</v>
       </c>
-      <c r="D121" s="12">
-        <v>0.8448275862068966</v>
+      <c r="D121" s="10">
+        <v>0.52</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
+    </row>
+    <row r="122" ht="16.35" customHeight="1">
+      <c r="A122" t="s" s="8">
+        <v>250</v>
+      </c>
+      <c r="B122" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s" s="9">
+        <v>251</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="F122" s="12">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
   <si>
     <t>Surname</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>H200649Z</t>
+  </si>
+  <si>
+    <t>Matanga</t>
+  </si>
+  <si>
+    <t>H180617H</t>
   </si>
   <si>
     <t>Matoi</t>
@@ -2008,7 +2014,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -2417,7 +2423,9 @@
       <c r="D20" s="10">
         <v>0.64</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="12">
+        <v>0.5087719298245614</v>
+      </c>
       <c r="F20" s="12">
         <v>0.6216216216216216</v>
       </c>
@@ -2437,7 +2445,9 @@
       <c r="D21" s="12">
         <v>0.603448275862069</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="12">
+        <v>0.7192982456140351</v>
+      </c>
       <c r="F21" s="12">
         <v>0.6216216216216216</v>
       </c>
@@ -2637,7 +2647,9 @@
       <c r="D31" s="10">
         <v>0.55</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="12">
+        <v>0.5789473684210527</v>
+      </c>
       <c r="F31" s="12">
         <v>0.8918918918918919</v>
       </c>
@@ -2677,7 +2689,9 @@
       <c r="D33" s="12">
         <v>0.5172413793103449</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="12">
+        <v>0.6842105263157895</v>
+      </c>
       <c r="F33" s="12">
         <v>0.7837837837837838</v>
       </c>
@@ -2717,7 +2731,9 @@
       <c r="D35" s="12">
         <v>0.5517241379310345</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="12">
+        <v>0.4912280701754386</v>
+      </c>
       <c r="F35" s="12">
         <v>0.6756756756756757</v>
       </c>
@@ -2977,7 +2993,9 @@
       <c r="D48" s="10">
         <v>0.67</v>
       </c>
-      <c r="E48" s="11"/>
+      <c r="E48" s="12">
+        <v>0.9122807017543859</v>
+      </c>
       <c r="F48" s="12">
         <v>0.9459459459459459</v>
       </c>
@@ -3117,7 +3135,9 @@
       <c r="D55" s="10">
         <v>0.64</v>
       </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="12">
+        <v>0.8947368421052632</v>
+      </c>
       <c r="F55" s="12">
         <v>0.8108108108108109</v>
       </c>
@@ -3197,7 +3217,9 @@
       <c r="D59" s="10">
         <v>0.74</v>
       </c>
-      <c r="E59" s="11"/>
+      <c r="E59" s="12">
+        <v>0.7017543859649122</v>
+      </c>
       <c r="F59" s="12">
         <v>0.7837837837837838</v>
       </c>
@@ -3255,12 +3277,12 @@
         <v>131</v>
       </c>
       <c r="D62" s="10">
-        <v>0.55</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="10">
         <v>0</v>
       </c>
+      <c r="E62" s="12">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
     </row>
@@ -3269,17 +3291,17 @@
         <v>132</v>
       </c>
       <c r="B63" t="s" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s" s="9">
         <v>133</v>
       </c>
       <c r="D63" s="10">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="E63" s="11"/>
-      <c r="F63" s="12">
-        <v>0.8918918918918919</v>
+      <c r="F63" s="10">
+        <v>0</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -3294,12 +3316,12 @@
       <c r="C64" t="s" s="9">
         <v>135</v>
       </c>
-      <c r="D64" s="12">
-        <v>0.293103448275862</v>
+      <c r="D64" s="10">
+        <v>0.6</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -3309,17 +3331,19 @@
         <v>136</v>
       </c>
       <c r="B65" t="s" s="9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s" s="9">
         <v>137</v>
       </c>
-      <c r="D65" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="E65" s="11"/>
+      <c r="D65" s="12">
+        <v>0.293103448275862</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0.3157894736842105</v>
+      </c>
       <c r="F65" s="12">
-        <v>0.5945945945945946</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -3329,17 +3353,19 @@
         <v>138</v>
       </c>
       <c r="B66" t="s" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s" s="9">
         <v>139</v>
       </c>
       <c r="D66" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="E66" s="11"/>
+        <v>0.53</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0.6140350877192983</v>
+      </c>
       <c r="F66" s="12">
-        <v>0.918918918918919</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -3355,11 +3381,11 @@
         <v>141</v>
       </c>
       <c r="D67" s="10">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3369,17 +3395,19 @@
         <v>142</v>
       </c>
       <c r="B68" t="s" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s" s="9">
         <v>143</v>
       </c>
       <c r="D68" s="10">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="10">
-        <v>0</v>
+        <v>0.71</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0.9459459459459459</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -3389,17 +3417,17 @@
         <v>144</v>
       </c>
       <c r="B69" t="s" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s" s="9">
         <v>145</v>
       </c>
       <c r="D69" s="10">
-        <v>0.4</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E69" s="11"/>
-      <c r="F69" s="12">
-        <v>0.8918918918918919</v>
+      <c r="F69" s="10">
+        <v>0</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -3409,17 +3437,17 @@
         <v>146</v>
       </c>
       <c r="B70" t="s" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s" s="9">
         <v>147</v>
       </c>
       <c r="D70" s="10">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -3435,11 +3463,11 @@
         <v>149</v>
       </c>
       <c r="D71" s="10">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -3449,17 +3477,17 @@
         <v>150</v>
       </c>
       <c r="B72" t="s" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s" s="9">
         <v>151</v>
       </c>
-      <c r="D72" s="12">
-        <v>0.603448275862069</v>
+      <c r="D72" s="10">
+        <v>0.53</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="12">
-        <v>0.6216216216216216</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -3469,17 +3497,19 @@
         <v>152</v>
       </c>
       <c r="B73" t="s" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s" s="9">
         <v>153</v>
       </c>
       <c r="D73" s="12">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="E73" s="11"/>
+        <v>0.603448275862069</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0.4912280701754386</v>
+      </c>
       <c r="F73" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -3494,12 +3524,14 @@
       <c r="C74" t="s" s="9">
         <v>155</v>
       </c>
-      <c r="D74" s="10">
-        <v>0.79</v>
-      </c>
-      <c r="E74" s="11"/>
+      <c r="D74" s="12">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0.6491228070175439</v>
+      </c>
       <c r="F74" s="12">
-        <v>0.7297297297297297</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -3514,12 +3546,12 @@
       <c r="C75" t="s" s="9">
         <v>157</v>
       </c>
-      <c r="D75" s="12">
-        <v>0.7413793103448276</v>
+      <c r="D75" s="10">
+        <v>0.79</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -3535,11 +3567,11 @@
         <v>159</v>
       </c>
       <c r="D76" s="12">
-        <v>0.9482758620689655</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="12">
-        <v>0.972972972972973</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -3549,17 +3581,19 @@
         <v>160</v>
       </c>
       <c r="B77" t="s" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s" s="9">
         <v>161</v>
       </c>
       <c r="D77" s="12">
-        <v>0.5689655172413793</v>
-      </c>
-      <c r="E77" s="11"/>
+        <v>0.9482758620689655</v>
+      </c>
+      <c r="E77" s="12">
+        <v>0.8947368421052632</v>
+      </c>
       <c r="F77" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -3569,17 +3603,19 @@
         <v>162</v>
       </c>
       <c r="B78" t="s" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s" s="9">
         <v>163</v>
       </c>
-      <c r="D78" s="10">
-        <v>0.57</v>
-      </c>
-      <c r="E78" s="11"/>
+      <c r="D78" s="12">
+        <v>0.5689655172413793</v>
+      </c>
+      <c r="E78" s="12">
+        <v>0.543859649122807</v>
+      </c>
       <c r="F78" s="12">
-        <v>0.918918918918919</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -3599,7 +3635,7 @@
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="12">
-        <v>0.7297297297297297</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -3609,17 +3645,17 @@
         <v>166</v>
       </c>
       <c r="B80" t="s" s="9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s" s="9">
         <v>167</v>
       </c>
       <c r="D80" s="10">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -3634,12 +3670,12 @@
       <c r="C81" t="s" s="9">
         <v>169</v>
       </c>
-      <c r="D81" s="12">
-        <v>0.7068965517241379</v>
+      <c r="D81" s="10">
+        <v>0.59</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -3649,17 +3685,19 @@
         <v>170</v>
       </c>
       <c r="B82" t="s" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s" s="9">
         <v>171</v>
       </c>
-      <c r="D82" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="E82" s="11"/>
+      <c r="D82" s="12">
+        <v>0.7068965517241379</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0.8070175438596491</v>
+      </c>
       <c r="F82" s="12">
-        <v>0.918918918918919</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -3675,7 +3713,7 @@
         <v>173</v>
       </c>
       <c r="D83" s="10">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="12">
@@ -3695,11 +3733,11 @@
         <v>175</v>
       </c>
       <c r="D84" s="10">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -3709,17 +3747,17 @@
         <v>176</v>
       </c>
       <c r="B85" t="s" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s" s="9">
         <v>177</v>
       </c>
       <c r="D85" s="10">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E85" s="11"/>
-      <c r="F85" s="10">
-        <v>0</v>
+      <c r="F85" s="12">
+        <v>0.8648648648648649</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -3735,11 +3773,11 @@
         <v>179</v>
       </c>
       <c r="D86" s="10">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="E86" s="11"/>
-      <c r="F86" s="12">
-        <v>0.9459459459459459</v>
+      <c r="F86" s="10">
+        <v>0</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -3749,17 +3787,17 @@
         <v>180</v>
       </c>
       <c r="B87" t="s" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s" s="9">
         <v>181</v>
       </c>
       <c r="D87" s="10">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="E87" s="11"/>
-      <c r="F87" s="10">
-        <v>0</v>
+      <c r="F87" s="12">
+        <v>0.9459459459459459</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -3769,17 +3807,17 @@
         <v>182</v>
       </c>
       <c r="B88" t="s" s="9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s" s="9">
         <v>183</v>
       </c>
       <c r="D88" s="10">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="E88" s="11"/>
-      <c r="F88" s="12">
-        <v>0.8918918918918919</v>
+      <c r="F88" s="10">
+        <v>0</v>
       </c>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
@@ -3789,17 +3827,17 @@
         <v>184</v>
       </c>
       <c r="B89" t="s" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s" s="9">
         <v>185</v>
       </c>
       <c r="D89" s="10">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="12">
-        <v>0.8378378378378378</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -3814,12 +3852,12 @@
       <c r="C90" t="s" s="9">
         <v>187</v>
       </c>
-      <c r="D90" s="12">
-        <v>0.6896551724137931</v>
+      <c r="D90" s="10">
+        <v>0.72</v>
       </c>
       <c r="E90" s="11"/>
-      <c r="F90" s="10">
-        <v>0</v>
+      <c r="F90" s="12">
+        <v>0.8378378378378378</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -3834,12 +3872,12 @@
       <c r="C91" t="s" s="9">
         <v>189</v>
       </c>
-      <c r="D91" s="10">
-        <v>0.57</v>
+      <c r="D91" s="12">
+        <v>0.6896551724137931</v>
       </c>
       <c r="E91" s="11"/>
-      <c r="F91" s="12">
-        <v>0.8918918918918919</v>
+      <c r="F91" s="10">
+        <v>0</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -3849,13 +3887,13 @@
         <v>190</v>
       </c>
       <c r="B92" t="s" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s" s="9">
         <v>191</v>
       </c>
       <c r="D92" s="10">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="12">
@@ -3875,11 +3913,13 @@
         <v>193</v>
       </c>
       <c r="D93" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="E93" s="11"/>
+        <v>0.43</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="F93" s="12">
-        <v>0.918918918918919</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -3894,12 +3934,12 @@
       <c r="C94" t="s" s="9">
         <v>195</v>
       </c>
-      <c r="D94" s="12">
-        <v>0.4482758620689655</v>
+      <c r="D94" s="10">
+        <v>0.66</v>
       </c>
       <c r="E94" s="11"/>
-      <c r="F94" s="10">
-        <v>0</v>
+      <c r="F94" s="12">
+        <v>0.918918918918919</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
@@ -3909,17 +3949,19 @@
         <v>196</v>
       </c>
       <c r="B95" t="s" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s" s="9">
         <v>197</v>
       </c>
-      <c r="D95" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="E95" s="11"/>
-      <c r="F95" s="12">
-        <v>0.8108108108108109</v>
+      <c r="D95" s="12">
+        <v>0.4482758620689655</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="F95" s="10">
+        <v>0</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
@@ -3935,11 +3977,11 @@
         <v>199</v>
       </c>
       <c r="D96" s="10">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="12">
-        <v>0.5675675675675675</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
@@ -3949,17 +3991,17 @@
         <v>200</v>
       </c>
       <c r="B97" t="s" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s" s="9">
         <v>201</v>
       </c>
       <c r="D97" s="10">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="12">
-        <v>0.6216216216216216</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -3969,7 +4011,7 @@
         <v>202</v>
       </c>
       <c r="B98" t="s" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s" s="9">
         <v>203</v>
@@ -3977,9 +4019,11 @@
       <c r="D98" s="10">
         <v>0.78</v>
       </c>
-      <c r="E98" s="11"/>
+      <c r="E98" s="12">
+        <v>0.8771929824561403</v>
+      </c>
       <c r="F98" s="12">
-        <v>0.7567567567567568</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -3989,17 +4033,17 @@
         <v>204</v>
       </c>
       <c r="B99" t="s" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s" s="9">
         <v>205</v>
       </c>
       <c r="D99" s="10">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -4015,11 +4059,11 @@
         <v>207</v>
       </c>
       <c r="D100" s="10">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -4029,17 +4073,17 @@
         <v>208</v>
       </c>
       <c r="B101" t="s" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s" s="9">
         <v>209</v>
       </c>
-      <c r="D101" s="12">
-        <v>0.4827586206896552</v>
+      <c r="D101" s="10">
+        <v>0.62</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="12">
-        <v>0.8378378378378378</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -4049,17 +4093,19 @@
         <v>210</v>
       </c>
       <c r="B102" t="s" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s" s="9">
         <v>211</v>
       </c>
-      <c r="D102" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="10">
-        <v>0</v>
+      <c r="D102" s="12">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="F102" s="12">
+        <v>0.8378378378378378</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -4074,12 +4120,12 @@
       <c r="C103" t="s" s="9">
         <v>213</v>
       </c>
-      <c r="D103" s="12">
-        <v>0.7758620689655172</v>
+      <c r="D103" s="10">
+        <v>0.66</v>
       </c>
       <c r="E103" s="11"/>
-      <c r="F103" s="12">
-        <v>0.918918918918919</v>
+      <c r="F103" s="10">
+        <v>0</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -4089,17 +4135,17 @@
         <v>214</v>
       </c>
       <c r="B104" t="s" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s" s="9">
         <v>215</v>
       </c>
       <c r="D104" s="12">
-        <v>0.5517241379310345</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -4109,17 +4155,17 @@
         <v>216</v>
       </c>
       <c r="B105" t="s" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s" s="9">
         <v>217</v>
       </c>
-      <c r="D105" s="10">
-        <v>0.62</v>
+      <c r="D105" s="12">
+        <v>0.5517241379310345</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="12">
-        <v>0.6486486486486487</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -4129,17 +4175,17 @@
         <v>218</v>
       </c>
       <c r="B106" t="s" s="9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s" s="9">
         <v>219</v>
       </c>
       <c r="D106" s="10">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="12">
-        <v>0.7567567567567568</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
@@ -4149,17 +4195,17 @@
         <v>220</v>
       </c>
       <c r="B107" t="s" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s" s="9">
         <v>221</v>
       </c>
       <c r="D107" s="10">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -4169,17 +4215,17 @@
         <v>222</v>
       </c>
       <c r="B108" t="s" s="9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s" s="9">
         <v>223</v>
       </c>
-      <c r="D108" s="12">
-        <v>0.4827586206896552</v>
+      <c r="D108" s="10">
+        <v>0.67</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -4189,15 +4235,17 @@
         <v>224</v>
       </c>
       <c r="B109" t="s" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s" s="9">
         <v>225</v>
       </c>
       <c r="D109" s="12">
-        <v>0.4137931034482759</v>
-      </c>
-      <c r="E109" s="11"/>
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0.3684210526315789</v>
+      </c>
       <c r="F109" s="12">
         <v>0.8108108108108109</v>
       </c>
@@ -4214,12 +4262,12 @@
       <c r="C110" t="s" s="9">
         <v>227</v>
       </c>
-      <c r="D110" s="10">
-        <v>0.53</v>
+      <c r="D110" s="12">
+        <v>0.4137931034482759</v>
       </c>
       <c r="E110" s="11"/>
-      <c r="F110" s="10">
-        <v>0</v>
+      <c r="F110" s="12">
+        <v>0.8108108108108109</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
@@ -4235,11 +4283,11 @@
         <v>229</v>
       </c>
       <c r="D111" s="10">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E111" s="11"/>
-      <c r="F111" s="12">
-        <v>0.9459459459459459</v>
+      <c r="F111" s="10">
+        <v>0</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -4249,17 +4297,17 @@
         <v>230</v>
       </c>
       <c r="B112" t="s" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s" s="9">
         <v>231</v>
       </c>
-      <c r="D112" s="12">
-        <v>0.5689655172413793</v>
+      <c r="D112" s="10">
+        <v>0.52</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -4274,12 +4322,14 @@
       <c r="C113" t="s" s="9">
         <v>233</v>
       </c>
-      <c r="D113" s="10">
-        <v>0</v>
-      </c>
-      <c r="E113" s="11"/>
+      <c r="D113" s="12">
+        <v>0.5689655172413793</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0.4912280701754386</v>
+      </c>
       <c r="F113" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -4295,11 +4345,11 @@
         <v>235</v>
       </c>
       <c r="D114" s="10">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -4309,13 +4359,13 @@
         <v>236</v>
       </c>
       <c r="B115" t="s" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s" s="9">
         <v>237</v>
       </c>
       <c r="D115" s="10">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="12">
@@ -4335,11 +4385,11 @@
         <v>239</v>
       </c>
       <c r="D116" s="10">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -4354,12 +4404,12 @@
       <c r="C117" t="s" s="9">
         <v>241</v>
       </c>
-      <c r="D117" s="12">
-        <v>0.5862068965517241</v>
+      <c r="D117" s="10">
+        <v>0.55</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="12">
-        <v>0.918918918918919</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -4374,12 +4424,12 @@
       <c r="C118" t="s" s="9">
         <v>243</v>
       </c>
-      <c r="D118" s="10">
-        <v>0.41</v>
+      <c r="D118" s="12">
+        <v>0.5862068965517241</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -4389,17 +4439,17 @@
         <v>244</v>
       </c>
       <c r="B119" t="s" s="9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s" s="9">
         <v>245</v>
       </c>
       <c r="D119" s="10">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="12">
-        <v>0.6216216216216216</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -4414,12 +4464,12 @@
       <c r="C120" t="s" s="9">
         <v>247</v>
       </c>
-      <c r="D120" s="12">
-        <v>0.7931034482758621</v>
+      <c r="D120" s="10">
+        <v>0.55</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="12">
-        <v>0.918918918918919</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -4429,17 +4479,17 @@
         <v>248</v>
       </c>
       <c r="B121" t="s" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s" s="9">
         <v>249</v>
       </c>
-      <c r="D121" s="10">
-        <v>0.52</v>
+      <c r="D121" s="12">
+        <v>0.7931034482758621</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
@@ -4449,20 +4499,40 @@
         <v>250</v>
       </c>
       <c r="B122" t="s" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s" s="9">
         <v>251</v>
       </c>
-      <c r="D122" s="12">
-        <v>0.8448275862068966</v>
+      <c r="D122" s="10">
+        <v>0.52</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
+    </row>
+    <row r="123" ht="16.35" customHeight="1">
+      <c r="A123" t="s" s="8">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s" s="9">
+        <v>253</v>
+      </c>
+      <c r="D123" s="12">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="12">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -742,7 +742,7 @@
     <t>Silver</t>
   </si>
   <si>
-    <t>H200156E</t>
+    <t>H200156W</t>
   </si>
   <si>
     <t>Tafirenyika</t>
@@ -2023,7 +2023,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.55" customHeight="1">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -2125,7 +2125,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12">
-        <v>0.6216216216216216</v>
+        <v>0.621621621621622</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12">
-        <v>0.7027027027027027</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="12">
-        <v>0.7027027027027027</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -2241,11 +2241,11 @@
         <v>30</v>
       </c>
       <c r="D11" s="12">
-        <v>0.6551724137931034</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="12">
-        <v>0.6756756756756757</v>
+        <v>0.675675675675676</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2283,7 +2283,9 @@
       <c r="D13" s="10">
         <v>0.45</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="12">
+        <v>0.421052631578947</v>
+      </c>
       <c r="F13" s="12">
         <v>0.918918918918919</v>
       </c>
@@ -2323,9 +2325,11 @@
       <c r="D15" s="10">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12">
+        <v>0.754385964912281</v>
+      </c>
       <c r="F15" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2383,7 +2387,9 @@
       <c r="D18" s="10">
         <v>0.59</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="12">
+        <v>0.631578947368421</v>
+      </c>
       <c r="F18" s="10">
         <v>0</v>
       </c>
@@ -2403,9 +2409,11 @@
       <c r="D19" s="10">
         <v>0.6</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="12">
+        <v>0.929824561403509</v>
+      </c>
       <c r="F19" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2424,10 +2432,10 @@
         <v>0.64</v>
       </c>
       <c r="E20" s="12">
-        <v>0.5087719298245614</v>
+        <v>0.508771929824561</v>
       </c>
       <c r="F20" s="12">
-        <v>0.6216216216216216</v>
+        <v>0.621621621621622</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2446,10 +2454,10 @@
         <v>0.603448275862069</v>
       </c>
       <c r="E21" s="12">
-        <v>0.7192982456140351</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F21" s="12">
-        <v>0.6216216216216216</v>
+        <v>0.621621621621622</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2469,7 +2477,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2485,7 +2493,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="12">
-        <v>0.7068965517241379</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="12">
@@ -2505,11 +2513,11 @@
         <v>56</v>
       </c>
       <c r="D24" s="12">
-        <v>0.5862068965517241</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2529,7 +2537,7 @@
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2549,7 +2557,7 @@
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2569,7 +2577,7 @@
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2585,11 +2593,11 @@
         <v>64</v>
       </c>
       <c r="D28" s="12">
-        <v>0.5517241379310345</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2609,7 +2617,7 @@
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2625,11 +2633,13 @@
         <v>68</v>
       </c>
       <c r="D30" s="12">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>0.620689655172414</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.666666666666667</v>
+      </c>
       <c r="F30" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2648,10 +2658,10 @@
         <v>0.55</v>
       </c>
       <c r="E31" s="12">
-        <v>0.5789473684210527</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="F31" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -2687,13 +2697,13 @@
         <v>74</v>
       </c>
       <c r="D33" s="12">
-        <v>0.5172413793103449</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="E33" s="12">
-        <v>0.6842105263157895</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F33" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -2713,7 +2723,7 @@
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="12">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -2729,13 +2739,13 @@
         <v>78</v>
       </c>
       <c r="D35" s="12">
-        <v>0.5517241379310345</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="E35" s="12">
-        <v>0.4912280701754386</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="F35" s="12">
-        <v>0.6756756756756757</v>
+        <v>0.675675675675676</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -2755,7 +2765,7 @@
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -2775,7 +2785,7 @@
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -2815,7 +2825,7 @@
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -2855,7 +2865,7 @@
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -2875,7 +2885,7 @@
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2915,7 +2925,7 @@
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="12">
-        <v>0.5945945945945946</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2935,7 +2945,7 @@
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2955,7 +2965,7 @@
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2975,7 +2985,7 @@
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2994,10 +3004,10 @@
         <v>0.67</v>
       </c>
       <c r="E48" s="12">
-        <v>0.9122807017543859</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="F48" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -3017,7 +3027,7 @@
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -3037,7 +3047,7 @@
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -3057,7 +3067,7 @@
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -3097,7 +3107,7 @@
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -3113,9 +3123,11 @@
         <v>116</v>
       </c>
       <c r="D54" s="12">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="E54" s="11"/>
+        <v>0.620689655172414</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.263157894736842</v>
+      </c>
       <c r="F54" s="10">
         <v>0</v>
       </c>
@@ -3136,10 +3148,10 @@
         <v>0.64</v>
       </c>
       <c r="E55" s="12">
-        <v>0.8947368421052632</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="F55" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -3159,7 +3171,7 @@
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -3175,11 +3187,13 @@
         <v>121</v>
       </c>
       <c r="D57" s="12">
-        <v>0.7068965517241379</v>
-      </c>
-      <c r="E57" s="11"/>
+        <v>0.706896551724138</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.9649122807017541</v>
+      </c>
       <c r="F57" s="12">
-        <v>0.7567567567567568</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -3195,11 +3209,13 @@
         <v>123</v>
       </c>
       <c r="D58" s="12">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="E58" s="11"/>
+        <v>0.741379310344828</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.666666666666667</v>
+      </c>
       <c r="F58" s="12">
-        <v>0.6756756756756757</v>
+        <v>0.675675675675676</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -3218,10 +3234,10 @@
         <v>0.74</v>
       </c>
       <c r="E59" s="12">
-        <v>0.7017543859649122</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F59" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -3241,7 +3257,7 @@
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -3261,7 +3277,7 @@
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -3280,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="12">
-        <v>0.3684210526315789</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -3299,7 +3315,9 @@
       <c r="D63" s="10">
         <v>0.55</v>
       </c>
-      <c r="E63" s="11"/>
+      <c r="E63" s="12">
+        <v>0.56140350877193</v>
+      </c>
       <c r="F63" s="10">
         <v>0</v>
       </c>
@@ -3321,7 +3339,7 @@
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -3340,10 +3358,10 @@
         <v>0.293103448275862</v>
       </c>
       <c r="E65" s="12">
-        <v>0.3157894736842105</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="F65" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -3362,10 +3380,10 @@
         <v>0.53</v>
       </c>
       <c r="E66" s="12">
-        <v>0.6140350877192983</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F66" s="12">
-        <v>0.5945945945945946</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -3404,10 +3422,10 @@
         <v>0.71</v>
       </c>
       <c r="E68" s="12">
-        <v>0.6842105263157895</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F68" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -3447,7 +3465,7 @@
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -3467,7 +3485,7 @@
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -3487,7 +3505,7 @@
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -3506,10 +3524,10 @@
         <v>0.603448275862069</v>
       </c>
       <c r="E73" s="12">
-        <v>0.4912280701754386</v>
+        <v>0.508771929824561</v>
       </c>
       <c r="F73" s="12">
-        <v>0.6216216216216216</v>
+        <v>0.621621621621622</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -3525,13 +3543,13 @@
         <v>155</v>
       </c>
       <c r="D74" s="12">
-        <v>0.6896551724137931</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="E74" s="12">
-        <v>0.6491228070175439</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="F74" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -3551,7 +3569,7 @@
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="12">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -3567,11 +3585,11 @@
         <v>159</v>
       </c>
       <c r="D76" s="12">
-        <v>0.7413793103448276</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -3587,10 +3605,10 @@
         <v>161</v>
       </c>
       <c r="D77" s="12">
-        <v>0.9482758620689655</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="E77" s="12">
-        <v>0.8947368421052632</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="F77" s="12">
         <v>0.972972972972973</v>
@@ -3609,13 +3627,13 @@
         <v>163</v>
       </c>
       <c r="D78" s="12">
-        <v>0.5689655172413793</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="E78" s="12">
-        <v>0.543859649122807</v>
+        <v>0.56140350877193</v>
       </c>
       <c r="F78" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -3655,7 +3673,7 @@
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="12">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -3675,7 +3693,7 @@
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -3691,13 +3709,13 @@
         <v>171</v>
       </c>
       <c r="D82" s="12">
-        <v>0.7068965517241379</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="E82" s="12">
-        <v>0.8070175438596491</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F82" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -3757,7 +3775,7 @@
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -3797,7 +3815,7 @@
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -3837,7 +3855,7 @@
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -3857,7 +3875,7 @@
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="12">
-        <v>0.8378378378378378</v>
+        <v>0.8378378378378381</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -3873,7 +3891,7 @@
         <v>189</v>
       </c>
       <c r="D91" s="12">
-        <v>0.6896551724137931</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="10">
@@ -3897,7 +3915,7 @@
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -3916,10 +3934,10 @@
         <v>0.43</v>
       </c>
       <c r="E93" s="12">
-        <v>0.3333333333333333</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="F93" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -3955,10 +3973,10 @@
         <v>197</v>
       </c>
       <c r="D95" s="12">
-        <v>0.4482758620689655</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="E95" s="12">
-        <v>0.3684210526315789</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="F95" s="10">
         <v>0</v>
@@ -3981,7 +3999,7 @@
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
@@ -4001,7 +4019,7 @@
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="12">
-        <v>0.5675675675675675</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -4020,10 +4038,10 @@
         <v>0.78</v>
       </c>
       <c r="E98" s="12">
-        <v>0.8771929824561403</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F98" s="12">
-        <v>0.6216216216216216</v>
+        <v>0.621621621621622</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -4041,9 +4059,11 @@
       <c r="D99" s="10">
         <v>0.78</v>
       </c>
-      <c r="E99" s="11"/>
+      <c r="E99" s="12">
+        <v>0.8245614035087721</v>
+      </c>
       <c r="F99" s="12">
-        <v>0.7567567567567568</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -4063,7 +4083,7 @@
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -4083,7 +4103,7 @@
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -4099,13 +4119,13 @@
         <v>211</v>
       </c>
       <c r="D102" s="12">
-        <v>0.4827586206896552</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="E102" s="12">
-        <v>0.5263157894736842</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="F102" s="12">
-        <v>0.8378378378378378</v>
+        <v>0.8378378378378381</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -4141,7 +4161,7 @@
         <v>215</v>
       </c>
       <c r="D104" s="12">
-        <v>0.7758620689655172</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="12">
@@ -4161,11 +4181,11 @@
         <v>217</v>
       </c>
       <c r="D105" s="12">
-        <v>0.5517241379310345</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -4185,7 +4205,7 @@
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="12">
-        <v>0.6486486486486487</v>
+        <v>0.648648648648649</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
@@ -4205,7 +4225,7 @@
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="12">
-        <v>0.7567567567567568</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -4225,7 +4245,7 @@
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="12">
-        <v>0.8648648648648649</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -4241,13 +4261,13 @@
         <v>225</v>
       </c>
       <c r="D109" s="12">
-        <v>0.4827586206896552</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="E109" s="12">
-        <v>0.3684210526315789</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="F109" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -4263,11 +4283,11 @@
         <v>227</v>
       </c>
       <c r="D110" s="12">
-        <v>0.4137931034482759</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
@@ -4305,9 +4325,11 @@
       <c r="D112" s="10">
         <v>0.52</v>
       </c>
-      <c r="E112" s="11"/>
+      <c r="E112" s="12">
+        <v>0.543859649122807</v>
+      </c>
       <c r="F112" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -4323,13 +4345,13 @@
         <v>233</v>
       </c>
       <c r="D113" s="12">
-        <v>0.5689655172413793</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="E113" s="12">
-        <v>0.4912280701754386</v>
+        <v>0.508771929824561</v>
       </c>
       <c r="F113" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -4349,7 +4371,7 @@
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -4369,7 +4391,7 @@
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -4389,7 +4411,7 @@
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="12">
-        <v>0.8108108108108109</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -4409,7 +4431,7 @@
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -4425,9 +4447,11 @@
         <v>243</v>
       </c>
       <c r="D118" s="12">
-        <v>0.5862068965517241</v>
-      </c>
-      <c r="E118" s="11"/>
+        <v>0.586206896551724</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0.719298245614035</v>
+      </c>
       <c r="F118" s="12">
         <v>0.918918918918919</v>
       </c>
@@ -4449,7 +4473,7 @@
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="12">
-        <v>0.9459459459459459</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -4469,7 +4493,7 @@
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="12">
-        <v>0.6216216216216216</v>
+        <v>0.621621621621622</v>
       </c>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -4485,7 +4509,7 @@
         <v>249</v>
       </c>
       <c r="D121" s="12">
-        <v>0.7931034482758621</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="12">
@@ -4509,7 +4533,7 @@
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="12">
-        <v>0.8918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
@@ -4525,11 +4549,11 @@
         <v>253</v>
       </c>
       <c r="D123" s="12">
-        <v>0.8448275862068966</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="12">
-        <v>0.7837837837837838</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -2183,7 +2183,9 @@
       <c r="D8" s="10">
         <v>0.52</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="12">
+        <v>0.578947368421053</v>
+      </c>
       <c r="F8" s="12">
         <v>0.702702702702703</v>
       </c>
@@ -2203,7 +2205,9 @@
       <c r="D9" s="10">
         <v>0.57</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12">
+        <v>0.719298245614035</v>
+      </c>
       <c r="F9" s="12">
         <v>0.918918918918919</v>
       </c>
@@ -2305,7 +2309,9 @@
       <c r="D14" s="10">
         <v>0</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="12">
+        <v>0.87719298245614</v>
+      </c>
       <c r="F14" s="10">
         <v>0</v>
       </c>
@@ -3045,7 +3051,9 @@
       <c r="D50" s="10">
         <v>0.57</v>
       </c>
-      <c r="E50" s="11"/>
+      <c r="E50" s="12">
+        <v>0.56140350877193</v>
+      </c>
       <c r="F50" s="12">
         <v>0.9459459459459461</v>
       </c>
@@ -3483,7 +3491,9 @@
       <c r="D71" s="10">
         <v>0.62</v>
       </c>
-      <c r="E71" s="11"/>
+      <c r="E71" s="12">
+        <v>0.56140350877193</v>
+      </c>
       <c r="F71" s="12">
         <v>0.9459459459459461</v>
       </c>
@@ -4389,7 +4399,9 @@
       <c r="D115" s="10">
         <v>0.57</v>
       </c>
-      <c r="E115" s="11"/>
+      <c r="E115" s="12">
+        <v>0.719298245614035</v>
+      </c>
       <c r="F115" s="12">
         <v>0.810810810810811</v>
       </c>
@@ -4471,7 +4483,9 @@
       <c r="D119" s="10">
         <v>0.41</v>
       </c>
-      <c r="E119" s="11"/>
+      <c r="E119" s="12">
+        <v>0.543859649122807</v>
+      </c>
       <c r="F119" s="12">
         <v>0.9459459459459461</v>
       </c>
@@ -4511,7 +4525,9 @@
       <c r="D121" s="12">
         <v>0.793103448275862</v>
       </c>
-      <c r="E121" s="11"/>
+      <c r="E121" s="12">
+        <v>0.842105263157895</v>
+      </c>
       <c r="F121" s="12">
         <v>0.918918918918919</v>
       </c>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -2501,7 +2501,9 @@
       <c r="D23" s="12">
         <v>0.706896551724138</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="12">
+        <v>0.649122807017544</v>
+      </c>
       <c r="F23" s="12">
         <v>1</v>
       </c>
@@ -2809,7 +2811,9 @@
       <c r="D38" s="10">
         <v>0.41</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="12">
+        <v>0.333333333333333</v>
+      </c>
       <c r="F38" s="10">
         <v>0</v>
       </c>
@@ -2829,7 +2833,9 @@
       <c r="D39" s="10">
         <v>0.52</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="12">
+        <v>0.578947368421053</v>
+      </c>
       <c r="F39" s="12">
         <v>0.810810810810811</v>
       </c>
@@ -2869,7 +2875,9 @@
       <c r="D41" s="10">
         <v>0.67</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="12">
+        <v>0.789473684210526</v>
+      </c>
       <c r="F41" s="12">
         <v>0.9459459459459461</v>
       </c>
@@ -2949,7 +2957,9 @@
       <c r="D45" s="10">
         <v>0.66</v>
       </c>
-      <c r="E45" s="11"/>
+      <c r="E45" s="12">
+        <v>0.684210526315789</v>
+      </c>
       <c r="F45" s="12">
         <v>0.891891891891892</v>
       </c>
@@ -3263,7 +3273,9 @@
       <c r="D60" s="10">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E60" s="11"/>
+      <c r="E60" s="12">
+        <v>0.789473684210526</v>
+      </c>
       <c r="F60" s="12">
         <v>0.783783783783784</v>
       </c>
@@ -3283,7 +3295,9 @@
       <c r="D61" s="10">
         <v>0.53</v>
       </c>
-      <c r="E61" s="11"/>
+      <c r="E61" s="12">
+        <v>0.754385964912281</v>
+      </c>
       <c r="F61" s="12">
         <v>0.810810810810811</v>
       </c>
@@ -3681,7 +3695,9 @@
       <c r="D80" s="10">
         <v>0.57</v>
       </c>
-      <c r="E80" s="11"/>
+      <c r="E80" s="12">
+        <v>0.526315789473684</v>
+      </c>
       <c r="F80" s="12">
         <v>0.72972972972973</v>
       </c>
@@ -3903,7 +3919,9 @@
       <c r="D91" s="12">
         <v>0.689655172413793</v>
       </c>
-      <c r="E91" s="11"/>
+      <c r="E91" s="12">
+        <v>0.754385964912281</v>
+      </c>
       <c r="F91" s="10">
         <v>0</v>
       </c>
@@ -3923,7 +3941,9 @@
       <c r="D92" s="10">
         <v>0.57</v>
       </c>
-      <c r="E92" s="11"/>
+      <c r="E92" s="12">
+        <v>0.456140350877193</v>
+      </c>
       <c r="F92" s="12">
         <v>0.891891891891892</v>
       </c>
@@ -3965,7 +3985,9 @@
       <c r="D94" s="10">
         <v>0.66</v>
       </c>
-      <c r="E94" s="11"/>
+      <c r="E94" s="12">
+        <v>0.771929824561404</v>
+      </c>
       <c r="F94" s="12">
         <v>0.918918918918919</v>
       </c>
@@ -4091,7 +4113,9 @@
       <c r="D100" s="10">
         <v>0.59</v>
       </c>
-      <c r="E100" s="11"/>
+      <c r="E100" s="12">
+        <v>0.87719298245614</v>
+      </c>
       <c r="F100" s="12">
         <v>0.891891891891892</v>
       </c>
@@ -4567,7 +4591,9 @@
       <c r="D123" s="12">
         <v>0.844827586206897</v>
       </c>
-      <c r="E123" s="11"/>
+      <c r="E123" s="12">
+        <v>0.8947368421052631</v>
+      </c>
       <c r="F123" s="12">
         <v>0.783783783783784</v>
       </c>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Chimwamafuku </t>
   </si>
   <si>
-    <t>H20069N</t>
+    <t>H200069N</t>
   </si>
   <si>
     <t>Chinunga</t>
@@ -2143,7 +2143,9 @@
       <c r="D6" s="10">
         <v>0.64</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12">
+        <v>0.719298245614035</v>
+      </c>
       <c r="F6" s="10">
         <v>0</v>
       </c>
@@ -2247,7 +2249,9 @@
       <c r="D11" s="12">
         <v>0.655172413793103</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="12">
+        <v>0.842105263157895</v>
+      </c>
       <c r="F11" s="12">
         <v>0.675675675675676</v>
       </c>
@@ -2603,7 +2607,9 @@
       <c r="D28" s="12">
         <v>0.551724137931034</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="12">
+        <v>0.649122807017544</v>
+      </c>
       <c r="F28" s="12">
         <v>0.864864864864865</v>
       </c>
@@ -2855,7 +2861,9 @@
       <c r="D40" s="10">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="12">
+        <v>0.842105263157895</v>
+      </c>
       <c r="F40" s="10">
         <v>0</v>
       </c>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -878,7 +878,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -898,6 +898,9 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2065,2548 +2068,2590 @@
       <c r="D2" s="6">
         <v>0.31</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7">
+        <v>0.491228070175439</v>
+      </c>
       <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" ht="16.35" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="9">
+      <c r="B3" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>0.52</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="9">
+      <c r="B4" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>0.74</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12">
+      <c r="E4" s="13">
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F4" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="16.35" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="A5" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
         <v>0.621621621621622</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" ht="16.35" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="A6" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="C6" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>0.64</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>0.719298245614035</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" ht="16.35" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="A7" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>0.59</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12">
+      <c r="E7" s="13">
+        <v>0.8245614035087721</v>
+      </c>
+      <c r="F7" s="13">
         <v>0.72972972972973</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" ht="16.35" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="A8" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="9">
+      <c r="B8" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>0.52</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="13">
         <v>0.578947368421053</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>0.702702702702703</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" ht="16.35" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="A9" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="B9" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s" s="9">
+      <c r="B9" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>0.57</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>0.719298245614035</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" ht="16.35" customHeight="1">
-      <c r="A10" t="s" s="8">
+      <c r="A10" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C10" t="s" s="9">
+      <c r="C10" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>0.57</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12">
+      <c r="E10" s="13">
+        <v>0.526315789473684</v>
+      </c>
+      <c r="F10" s="13">
         <v>0.702702702702703</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" ht="16.35" customHeight="1">
-      <c r="A11" t="s" s="8">
+      <c r="A11" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="B11" t="s" s="9">
+      <c r="B11" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="C11" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <v>0.655172413793103</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>0.842105263157895</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="13">
         <v>0.675675675675676</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" ht="16.35" customHeight="1">
-      <c r="A12" t="s" s="8">
+      <c r="A12" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="B12" t="s" s="9">
+      <c r="B12" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="C12" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>0.74</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12">
+      <c r="E12" s="13">
+        <v>0.491228070175439</v>
+      </c>
+      <c r="F12" s="13">
         <v>0.783783783783784</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" ht="16.35" customHeight="1">
-      <c r="A13" t="s" s="8">
+      <c r="A13" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="B13" t="s" s="9">
+      <c r="B13" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C13" t="s" s="9">
+      <c r="C13" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>0.45</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="13">
         <v>0.421052631578947</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" ht="16.35" customHeight="1">
-      <c r="A14" t="s" s="8">
+      <c r="A14" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="B14" t="s" s="9">
+      <c r="B14" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C14" t="s" s="9">
+      <c r="C14" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>0.87719298245614</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" ht="16.35" customHeight="1">
-      <c r="A15" t="s" s="8">
+      <c r="A15" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="B15" t="s" s="9">
+      <c r="B15" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="C15" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <v>0.754385964912281</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="13">
         <v>0.783783783783784</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" ht="16.35" customHeight="1">
-      <c r="A16" t="s" s="8">
+      <c r="A16" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="B16" t="s" s="9">
+      <c r="B16" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C16" t="s" s="9">
+      <c r="C16" t="s" s="10">
         <v>40</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>0.64</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10">
+      <c r="E16" s="12"/>
+      <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" ht="16.35" customHeight="1">
-      <c r="A17" t="s" s="8">
+      <c r="A17" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="B17" t="s" s="9">
+      <c r="B17" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C17" t="s" s="9">
+      <c r="C17" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <v>0.53</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12">
+      <c r="E17" s="13">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="F17" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" ht="16.35" customHeight="1">
-      <c r="A18" t="s" s="8">
+      <c r="A18" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="B18" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s" s="9">
+      <c r="B18" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <v>0.59</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="13">
         <v>0.631578947368421</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>0</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" ht="16.35" customHeight="1">
-      <c r="A19" t="s" s="8">
+      <c r="A19" t="s" s="9">
         <v>45</v>
       </c>
-      <c r="B19" t="s" s="9">
+      <c r="B19" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C19" t="s" s="9">
+      <c r="C19" t="s" s="10">
         <v>46</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <v>0.6</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="13">
         <v>0.929824561403509</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="13">
         <v>0.864864864864865</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" ht="16.35" customHeight="1">
-      <c r="A20" t="s" s="8">
+      <c r="A20" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="B20" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s" s="9">
+      <c r="B20" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s" s="10">
         <v>48</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <v>0.64</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="13">
         <v>0.508771929824561</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="13">
         <v>0.621621621621622</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" ht="16.35" customHeight="1">
-      <c r="A21" t="s" s="8">
+      <c r="A21" t="s" s="9">
         <v>49</v>
       </c>
-      <c r="B21" t="s" s="9">
+      <c r="B21" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C21" t="s" s="9">
+      <c r="C21" t="s" s="10">
         <v>50</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="13">
         <v>0.603448275862069</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="13">
         <v>0.736842105263158</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="13">
         <v>0.621621621621622</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" ht="16.35" customHeight="1">
-      <c r="A22" t="s" s="8">
+      <c r="A22" t="s" s="9">
         <v>51</v>
       </c>
-      <c r="B22" t="s" s="9">
+      <c r="B22" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C22" t="s" s="9">
+      <c r="C22" t="s" s="10">
         <v>52</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <v>0.62</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12">
+      <c r="E22" s="13">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F22" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" ht="16.35" customHeight="1">
-      <c r="A23" t="s" s="8">
+      <c r="A23" t="s" s="9">
         <v>53</v>
       </c>
-      <c r="B23" t="s" s="9">
+      <c r="B23" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C23" t="s" s="9">
+      <c r="C23" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="13">
         <v>0.706896551724138</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="13">
         <v>0.649122807017544</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="13">
         <v>1</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" ht="16.35" customHeight="1">
-      <c r="A24" t="s" s="8">
+      <c r="A24" t="s" s="9">
         <v>55</v>
       </c>
-      <c r="B24" t="s" s="9">
+      <c r="B24" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C24" t="s" s="9">
+      <c r="C24" t="s" s="10">
         <v>56</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="13">
         <v>0.586206896551724</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12">
+      <c r="E24" s="12"/>
+      <c r="F24" s="13">
         <v>0.783783783783784</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" ht="16.35" customHeight="1">
-      <c r="A25" t="s" s="8">
+      <c r="A25" t="s" s="9">
         <v>57</v>
       </c>
-      <c r="B25" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s" s="9">
+      <c r="B25" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="10">
         <v>58</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <v>0.72</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12">
+      <c r="E25" s="12"/>
+      <c r="F25" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" ht="16.35" customHeight="1">
-      <c r="A26" t="s" s="8">
+      <c r="A26" t="s" s="9">
         <v>59</v>
       </c>
-      <c r="B26" t="s" s="9">
+      <c r="B26" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C26" t="s" s="9">
+      <c r="C26" t="s" s="10">
         <v>60</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <v>0.62</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12">
+      <c r="E26" s="12"/>
+      <c r="F26" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" ht="16.35" customHeight="1">
-      <c r="A27" t="s" s="8">
+      <c r="A27" t="s" s="9">
         <v>61</v>
       </c>
-      <c r="B27" t="s" s="9">
+      <c r="B27" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C27" t="s" s="9">
+      <c r="C27" t="s" s="10">
         <v>62</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="11">
         <v>0.52</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12">
+      <c r="E27" s="12"/>
+      <c r="F27" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" ht="16.35" customHeight="1">
-      <c r="A28" t="s" s="8">
+      <c r="A28" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="B28" t="s" s="9">
+      <c r="B28" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C28" t="s" s="9">
+      <c r="C28" t="s" s="10">
         <v>64</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="13">
         <v>0.551724137931034</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="13">
         <v>0.649122807017544</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="13">
         <v>0.864864864864865</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" ht="16.35" customHeight="1">
-      <c r="A29" t="s" s="8">
+      <c r="A29" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="B29" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s" s="9">
+      <c r="B29" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s" s="10">
         <v>66</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="11">
         <v>0.59</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12">
+      <c r="E29" s="13">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="F29" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" ht="16.35" customHeight="1">
-      <c r="A30" t="s" s="8">
+      <c r="A30" t="s" s="9">
         <v>67</v>
       </c>
-      <c r="B30" t="s" s="9">
+      <c r="B30" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C30" t="s" s="9">
+      <c r="C30" t="s" s="10">
         <v>68</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="13">
         <v>0.620689655172414</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="13">
         <v>0.666666666666667</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" ht="16.35" customHeight="1">
-      <c r="A31" t="s" s="8">
+      <c r="A31" t="s" s="9">
         <v>69</v>
       </c>
-      <c r="B31" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s" s="9">
+      <c r="B31" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s" s="10">
         <v>70</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="11">
         <v>0.55</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="13">
         <v>0.578947368421053</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" ht="16.35" customHeight="1">
-      <c r="A32" t="s" s="8">
+      <c r="A32" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="B32" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s" s="9">
+      <c r="B32" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="10">
         <v>72</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="11">
         <v>0</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10">
+      <c r="E32" s="12"/>
+      <c r="F32" s="11">
         <v>0</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" ht="16.35" customHeight="1">
-      <c r="A33" t="s" s="8">
+      <c r="A33" t="s" s="9">
         <v>73</v>
       </c>
-      <c r="B33" t="s" s="9">
+      <c r="B33" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C33" t="s" s="9">
+      <c r="C33" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="13">
         <v>0.517241379310345</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="13">
         <v>0.701754385964912</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="13">
         <v>0.783783783783784</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" ht="16.35" customHeight="1">
-      <c r="A34" t="s" s="8">
+      <c r="A34" t="s" s="9">
         <v>75</v>
       </c>
-      <c r="B34" t="s" s="9">
+      <c r="B34" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C34" t="s" s="9">
+      <c r="C34" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="11">
         <v>0.62</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12">
+      <c r="E34" s="12"/>
+      <c r="F34" s="13">
         <v>0.72972972972973</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" ht="16.35" customHeight="1">
-      <c r="A35" t="s" s="8">
+      <c r="A35" t="s" s="9">
         <v>77</v>
       </c>
-      <c r="B35" t="s" s="9">
+      <c r="B35" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C35" t="s" s="9">
+      <c r="C35" t="s" s="10">
         <v>78</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="13">
         <v>0.551724137931034</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="13">
         <v>0.526315789473684</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="13">
         <v>0.675675675675676</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" ht="16.35" customHeight="1">
-      <c r="A36" t="s" s="8">
+      <c r="A36" t="s" s="9">
         <v>79</v>
       </c>
-      <c r="B36" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s" s="9">
+      <c r="B36" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s" s="10">
         <v>80</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="11">
         <v>0.64</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12">
+      <c r="E36" s="12"/>
+      <c r="F36" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" ht="16.35" customHeight="1">
-      <c r="A37" t="s" s="8">
+      <c r="A37" t="s" s="9">
         <v>81</v>
       </c>
-      <c r="B37" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s" s="9">
+      <c r="B37" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s" s="10">
         <v>82</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="11">
         <v>0.48</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12">
+      <c r="E37" s="13">
+        <v>0.56140350877193</v>
+      </c>
+      <c r="F37" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" ht="16.35" customHeight="1">
-      <c r="A38" t="s" s="8">
+      <c r="A38" t="s" s="9">
         <v>83</v>
       </c>
-      <c r="B38" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s" s="9">
+      <c r="B38" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="11">
         <v>0.41</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="11">
         <v>0</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" ht="16.35" customHeight="1">
-      <c r="A39" t="s" s="8">
+      <c r="A39" t="s" s="9">
         <v>85</v>
       </c>
-      <c r="B39" t="s" s="9">
+      <c r="B39" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C39" t="s" s="9">
+      <c r="C39" t="s" s="10">
         <v>86</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="11">
         <v>0.52</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="13">
         <v>0.578947368421053</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" ht="16.35" customHeight="1">
-      <c r="A40" t="s" s="8">
+      <c r="A40" t="s" s="9">
         <v>87</v>
       </c>
-      <c r="B40" t="s" s="9">
+      <c r="B40" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C40" t="s" s="9">
+      <c r="C40" t="s" s="10">
         <v>88</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="11">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="13">
         <v>0.842105263157895</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="11">
         <v>0</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" ht="16.35" customHeight="1">
-      <c r="A41" t="s" s="8">
+      <c r="A41" t="s" s="9">
         <v>89</v>
       </c>
-      <c r="B41" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s" s="9">
+      <c r="B41" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s" s="10">
         <v>90</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="11">
         <v>0.67</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="13">
         <v>0.789473684210526</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" ht="16.35" customHeight="1">
-      <c r="A42" t="s" s="8">
+      <c r="A42" t="s" s="9">
         <v>91</v>
       </c>
-      <c r="B42" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s" s="9">
+      <c r="B42" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s" s="10">
         <v>92</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="11">
         <v>0.38</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12">
+      <c r="E42" s="13">
+        <v>0.56140350877193</v>
+      </c>
+      <c r="F42" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" ht="16.35" customHeight="1">
-      <c r="A43" t="s" s="8">
+      <c r="A43" t="s" s="9">
         <v>93</v>
       </c>
-      <c r="B43" t="s" s="9">
+      <c r="B43" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C43" t="s" s="9">
+      <c r="C43" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="11">
         <v>0.86</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12">
+      <c r="E43" s="13">
+        <v>0.912280701754386</v>
+      </c>
+      <c r="F43" s="13">
         <v>0.972972972972973</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" ht="16.35" customHeight="1">
-      <c r="A44" t="s" s="8">
+      <c r="A44" t="s" s="9">
         <v>95</v>
       </c>
-      <c r="B44" t="s" s="9">
+      <c r="B44" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C44" t="s" s="9">
+      <c r="C44" t="s" s="10">
         <v>96</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="11">
         <v>0.29</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12">
+      <c r="E44" s="12"/>
+      <c r="F44" s="13">
         <v>0.594594594594595</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" ht="16.35" customHeight="1">
-      <c r="A45" t="s" s="8">
+      <c r="A45" t="s" s="9">
         <v>97</v>
       </c>
-      <c r="B45" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s" s="9">
+      <c r="B45" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s" s="10">
         <v>98</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="11">
         <v>0.66</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="13">
         <v>0.684210526315789</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" ht="16.35" customHeight="1">
-      <c r="A46" t="s" s="8">
+      <c r="A46" t="s" s="9">
         <v>99</v>
       </c>
-      <c r="B46" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s" s="9">
+      <c r="B46" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s" s="10">
         <v>100</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="11">
         <v>0.24</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12">
+      <c r="E46" s="12"/>
+      <c r="F46" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" ht="16.35" customHeight="1">
-      <c r="A47" t="s" s="8">
+      <c r="A47" t="s" s="9">
         <v>101</v>
       </c>
-      <c r="B47" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s" s="9">
+      <c r="B47" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s" s="10">
         <v>102</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="11">
         <v>0.71</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12">
+      <c r="E47" s="12"/>
+      <c r="F47" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" ht="16.35" customHeight="1">
-      <c r="A48" t="s" s="8">
+      <c r="A48" t="s" s="9">
         <v>103</v>
       </c>
-      <c r="B48" t="s" s="9">
+      <c r="B48" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C48" t="s" s="9">
+      <c r="C48" t="s" s="10">
         <v>104</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="11">
         <v>0.67</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="13">
         <v>0.929824561403509</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" ht="16.35" customHeight="1">
-      <c r="A49" t="s" s="8">
+      <c r="A49" t="s" s="9">
         <v>105</v>
       </c>
-      <c r="B49" t="s" s="9">
+      <c r="B49" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C49" t="s" s="9">
+      <c r="C49" t="s" s="10">
         <v>106</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="11">
         <v>0.66</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12">
+      <c r="E49" s="12"/>
+      <c r="F49" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" ht="16.35" customHeight="1">
-      <c r="A50" t="s" s="8">
+      <c r="A50" t="s" s="9">
         <v>107</v>
       </c>
-      <c r="B50" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s" s="9">
+      <c r="B50" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s" s="10">
         <v>108</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="11">
         <v>0.57</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="13">
         <v>0.56140350877193</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" ht="16.35" customHeight="1">
-      <c r="A51" t="s" s="8">
+      <c r="A51" t="s" s="9">
         <v>109</v>
       </c>
-      <c r="B51" t="s" s="9">
+      <c r="B51" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C51" t="s" s="9">
+      <c r="C51" t="s" s="10">
         <v>110</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="11">
         <v>0.72</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12">
+      <c r="E51" s="13">
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F51" s="13">
         <v>0.783783783783784</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" ht="16.35" customHeight="1">
-      <c r="A52" t="s" s="8">
+      <c r="A52" t="s" s="9">
         <v>111</v>
       </c>
-      <c r="B52" t="s" s="9">
+      <c r="B52" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C52" t="s" s="9">
+      <c r="C52" t="s" s="10">
         <v>112</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="11">
         <v>0.6</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="10">
+      <c r="E52" s="12"/>
+      <c r="F52" s="11">
         <v>0</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" ht="16.35" customHeight="1">
-      <c r="A53" t="s" s="8">
+      <c r="A53" t="s" s="9">
         <v>113</v>
       </c>
-      <c r="B53" t="s" s="9">
+      <c r="B53" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C53" t="s" s="9">
+      <c r="C53" t="s" s="10">
         <v>114</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="11">
         <v>0.48</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12">
+      <c r="E53" s="12"/>
+      <c r="F53" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" ht="16.35" customHeight="1">
-      <c r="A54" t="s" s="8">
+      <c r="A54" t="s" s="9">
         <v>115</v>
       </c>
-      <c r="B54" t="s" s="9">
+      <c r="B54" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C54" t="s" s="9">
+      <c r="C54" t="s" s="10">
         <v>116</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="13">
         <v>0.620689655172414</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="13">
         <v>0.263157894736842</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="11">
         <v>0</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" ht="16.35" customHeight="1">
-      <c r="A55" t="s" s="8">
+      <c r="A55" t="s" s="9">
         <v>117</v>
       </c>
-      <c r="B55" t="s" s="9">
+      <c r="B55" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C55" t="s" s="9">
+      <c r="C55" t="s" s="10">
         <v>118</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="11">
         <v>0.64</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="13">
         <v>0.912280701754386</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" ht="16.35" customHeight="1">
-      <c r="A56" t="s" s="8">
+      <c r="A56" t="s" s="9">
         <v>117</v>
       </c>
-      <c r="B56" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s" s="9">
+      <c r="B56" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s" s="10">
         <v>119</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="11">
         <v>0.52</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12">
+      <c r="E56" s="13">
+        <v>0.368421052631579</v>
+      </c>
+      <c r="F56" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" ht="16.35" customHeight="1">
-      <c r="A57" t="s" s="8">
+      <c r="A57" t="s" s="9">
         <v>120</v>
       </c>
-      <c r="B57" t="s" s="9">
+      <c r="B57" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C57" t="s" s="9">
+      <c r="C57" t="s" s="10">
         <v>121</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="13">
         <v>0.706896551724138</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="13">
         <v>0.9649122807017541</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="13">
         <v>0.756756756756757</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" ht="16.35" customHeight="1">
-      <c r="A58" t="s" s="8">
+      <c r="A58" t="s" s="9">
         <v>122</v>
       </c>
-      <c r="B58" t="s" s="9">
+      <c r="B58" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C58" t="s" s="9">
+      <c r="C58" t="s" s="10">
         <v>123</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="13">
         <v>0.741379310344828</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="13">
         <v>0.666666666666667</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="13">
         <v>0.675675675675676</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" ht="16.35" customHeight="1">
-      <c r="A59" t="s" s="8">
+      <c r="A59" t="s" s="9">
         <v>124</v>
       </c>
-      <c r="B59" t="s" s="9">
+      <c r="B59" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C59" t="s" s="9">
+      <c r="C59" t="s" s="10">
         <v>125</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="11">
         <v>0.74</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="13">
         <v>0.719298245614035</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="13">
         <v>0.783783783783784</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" ht="16.35" customHeight="1">
-      <c r="A60" t="s" s="8">
+      <c r="A60" t="s" s="9">
         <v>126</v>
       </c>
-      <c r="B60" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s" s="9">
+      <c r="B60" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s" s="10">
         <v>127</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="11">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="13">
         <v>0.789473684210526</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="13">
         <v>0.783783783783784</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" ht="16.35" customHeight="1">
-      <c r="A61" t="s" s="8">
+      <c r="A61" t="s" s="9">
         <v>128</v>
       </c>
-      <c r="B61" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s" s="9">
+      <c r="B61" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s" s="10">
         <v>129</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="11">
         <v>0.53</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="13">
         <v>0.754385964912281</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" ht="16.35" customHeight="1">
-      <c r="A62" t="s" s="8">
+      <c r="A62" t="s" s="9">
         <v>130</v>
       </c>
-      <c r="B62" t="s" s="9">
+      <c r="B62" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C62" t="s" s="9">
+      <c r="C62" t="s" s="10">
         <v>131</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="11">
         <v>0</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="13">
         <v>0.368421052631579</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" ht="16.35" customHeight="1">
-      <c r="A63" t="s" s="8">
+      <c r="A63" t="s" s="9">
         <v>132</v>
       </c>
-      <c r="B63" t="s" s="9">
+      <c r="B63" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C63" t="s" s="9">
+      <c r="C63" t="s" s="10">
         <v>133</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="11">
         <v>0.55</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="13">
         <v>0.56140350877193</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="11">
         <v>0</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" ht="16.35" customHeight="1">
-      <c r="A64" t="s" s="8">
+      <c r="A64" t="s" s="9">
         <v>134</v>
       </c>
-      <c r="B64" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s" s="9">
+      <c r="B64" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s" s="10">
         <v>135</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="11">
         <v>0.6</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12">
+      <c r="E64" s="12"/>
+      <c r="F64" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" ht="16.35" customHeight="1">
-      <c r="A65" t="s" s="8">
+      <c r="A65" t="s" s="9">
         <v>136</v>
       </c>
-      <c r="B65" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s" s="9">
+      <c r="B65" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s" s="10">
         <v>137</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="13">
         <v>0.293103448275862</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="13">
         <v>0.315789473684211</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" ht="16.35" customHeight="1">
-      <c r="A66" t="s" s="8">
+      <c r="A66" t="s" s="9">
         <v>138</v>
       </c>
-      <c r="B66" t="s" s="9">
+      <c r="B66" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C66" t="s" s="9">
+      <c r="C66" t="s" s="10">
         <v>139</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="11">
         <v>0.53</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="13">
         <v>0.631578947368421</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="13">
         <v>0.594594594594595</v>
       </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" ht="16.35" customHeight="1">
-      <c r="A67" t="s" s="8">
+      <c r="A67" t="s" s="9">
         <v>140</v>
       </c>
-      <c r="B67" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s" s="9">
+      <c r="B67" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s" s="10">
         <v>141</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="11">
         <v>0.72</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12">
+      <c r="E67" s="12"/>
+      <c r="F67" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" ht="16.35" customHeight="1">
-      <c r="A68" t="s" s="8">
+      <c r="A68" t="s" s="9">
         <v>142</v>
       </c>
-      <c r="B68" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s" s="9">
+      <c r="B68" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s" s="10">
         <v>143</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="11">
         <v>0.71</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="13">
         <v>0.701754385964912</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" ht="16.35" customHeight="1">
-      <c r="A69" t="s" s="8">
+      <c r="A69" t="s" s="9">
         <v>144</v>
       </c>
-      <c r="B69" t="s" s="9">
+      <c r="B69" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C69" t="s" s="9">
+      <c r="C69" t="s" s="10">
         <v>145</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="11">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="10">
+      <c r="E69" s="12"/>
+      <c r="F69" s="11">
         <v>0</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" ht="16.35" customHeight="1">
-      <c r="A70" t="s" s="8">
+      <c r="A70" t="s" s="9">
         <v>146</v>
       </c>
-      <c r="B70" t="s" s="9">
+      <c r="B70" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C70" t="s" s="9">
+      <c r="C70" t="s" s="10">
         <v>147</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="11">
         <v>0.4</v>
       </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="12">
+      <c r="E70" s="13">
+        <v>0.491228070175439</v>
+      </c>
+      <c r="F70" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" ht="16.35" customHeight="1">
-      <c r="A71" t="s" s="8">
+      <c r="A71" t="s" s="9">
         <v>148</v>
       </c>
-      <c r="B71" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s" s="9">
+      <c r="B71" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s" s="10">
         <v>149</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="11">
         <v>0.62</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="13">
         <v>0.56140350877193</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" ht="16.35" customHeight="1">
-      <c r="A72" t="s" s="8">
+      <c r="A72" t="s" s="9">
         <v>150</v>
       </c>
-      <c r="B72" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s" s="9">
+      <c r="B72" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s" s="10">
         <v>151</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="11">
         <v>0.53</v>
       </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="12">
+      <c r="E72" s="12"/>
+      <c r="F72" s="13">
         <v>0.864864864864865</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" ht="16.35" customHeight="1">
-      <c r="A73" t="s" s="8">
+      <c r="A73" t="s" s="9">
         <v>152</v>
       </c>
-      <c r="B73" t="s" s="9">
+      <c r="B73" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C73" t="s" s="9">
+      <c r="C73" t="s" s="10">
         <v>153</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="13">
         <v>0.603448275862069</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="13">
         <v>0.508771929824561</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="13">
         <v>0.621621621621622</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" ht="16.35" customHeight="1">
-      <c r="A74" t="s" s="8">
+      <c r="A74" t="s" s="9">
         <v>154</v>
       </c>
-      <c r="B74" t="s" s="9">
+      <c r="B74" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C74" t="s" s="9">
+      <c r="C74" t="s" s="10">
         <v>155</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="13">
         <v>0.689655172413793</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="13">
         <v>0.684210526315789</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" ht="16.35" customHeight="1">
-      <c r="A75" t="s" s="8">
+      <c r="A75" t="s" s="9">
         <v>156</v>
       </c>
-      <c r="B75" t="s" s="9">
+      <c r="B75" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C75" t="s" s="9">
+      <c r="C75" t="s" s="10">
         <v>157</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="11">
         <v>0.79</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="12">
+      <c r="E75" s="12"/>
+      <c r="F75" s="13">
         <v>0.72972972972973</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" ht="16.35" customHeight="1">
-      <c r="A76" t="s" s="8">
+      <c r="A76" t="s" s="9">
         <v>158</v>
       </c>
-      <c r="B76" t="s" s="9">
+      <c r="B76" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C76" t="s" s="9">
+      <c r="C76" t="s" s="10">
         <v>159</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="13">
         <v>0.741379310344828</v>
       </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="12">
+      <c r="E76" s="12"/>
+      <c r="F76" s="13">
         <v>0.864864864864865</v>
       </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" ht="16.35" customHeight="1">
-      <c r="A77" t="s" s="8">
+      <c r="A77" t="s" s="9">
         <v>160</v>
       </c>
-      <c r="B77" t="s" s="9">
+      <c r="B77" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C77" t="s" s="9">
+      <c r="C77" t="s" s="10">
         <v>161</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="13">
         <v>0.948275862068966</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="13">
         <v>0.912280701754386</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="13">
         <v>0.972972972972973</v>
       </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" ht="16.35" customHeight="1">
-      <c r="A78" t="s" s="8">
+      <c r="A78" t="s" s="9">
         <v>162</v>
       </c>
-      <c r="B78" t="s" s="9">
+      <c r="B78" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C78" t="s" s="9">
+      <c r="C78" t="s" s="10">
         <v>163</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="13">
         <v>0.568965517241379</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="13">
         <v>0.56140350877193</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" ht="16.35" customHeight="1">
-      <c r="A79" t="s" s="8">
+      <c r="A79" t="s" s="9">
         <v>164</v>
       </c>
-      <c r="B79" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s" s="9">
+      <c r="B79" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s" s="10">
         <v>165</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="11">
         <v>0.57</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="12">
+      <c r="E79" s="13">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="F79" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" ht="16.35" customHeight="1">
-      <c r="A80" t="s" s="8">
+      <c r="A80" t="s" s="9">
         <v>166</v>
       </c>
-      <c r="B80" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s" s="9">
+      <c r="B80" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s" s="10">
         <v>167</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="11">
         <v>0.57</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="13">
         <v>0.526315789473684</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="13">
         <v>0.72972972972973</v>
       </c>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" ht="16.35" customHeight="1">
-      <c r="A81" t="s" s="8">
+      <c r="A81" t="s" s="9">
         <v>168</v>
       </c>
-      <c r="B81" t="s" s="9">
+      <c r="B81" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C81" t="s" s="9">
+      <c r="C81" t="s" s="10">
         <v>169</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="11">
         <v>0.59</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="12">
+      <c r="E81" s="12"/>
+      <c r="F81" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" ht="16.35" customHeight="1">
-      <c r="A82" t="s" s="8">
+      <c r="A82" t="s" s="9">
         <v>170</v>
       </c>
-      <c r="B82" t="s" s="9">
+      <c r="B82" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C82" t="s" s="9">
+      <c r="C82" t="s" s="10">
         <v>171</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="13">
         <v>0.706896551724138</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="13">
         <v>0.842105263157895</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="13">
         <v>0.864864864864865</v>
       </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" ht="16.35" customHeight="1">
-      <c r="A83" t="s" s="8">
+      <c r="A83" t="s" s="9">
         <v>172</v>
       </c>
-      <c r="B83" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C83" t="s" s="9">
+      <c r="B83" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s" s="10">
         <v>173</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="11">
         <v>0.72</v>
       </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="12">
+      <c r="E83" s="13">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F83" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" ht="16.35" customHeight="1">
-      <c r="A84" t="s" s="8">
+      <c r="A84" t="s" s="9">
         <v>174</v>
       </c>
-      <c r="B84" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C84" t="s" s="9">
+      <c r="B84" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s" s="10">
         <v>175</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="11">
         <v>0.59</v>
       </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="12">
+      <c r="E84" s="12"/>
+      <c r="F84" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" ht="16.35" customHeight="1">
-      <c r="A85" t="s" s="8">
+      <c r="A85" t="s" s="9">
         <v>176</v>
       </c>
-      <c r="B85" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C85" t="s" s="9">
+      <c r="B85" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s" s="10">
         <v>177</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="11">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="12">
+      <c r="E85" s="12"/>
+      <c r="F85" s="13">
         <v>0.864864864864865</v>
       </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" ht="16.35" customHeight="1">
-      <c r="A86" t="s" s="8">
+      <c r="A86" t="s" s="9">
         <v>178</v>
       </c>
-      <c r="B86" t="s" s="9">
+      <c r="B86" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C86" t="s" s="9">
+      <c r="C86" t="s" s="10">
         <v>179</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="11">
         <v>0</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="10">
+      <c r="E86" s="12"/>
+      <c r="F86" s="11">
         <v>0</v>
       </c>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" ht="16.35" customHeight="1">
-      <c r="A87" t="s" s="8">
+      <c r="A87" t="s" s="9">
         <v>180</v>
       </c>
-      <c r="B87" t="s" s="9">
+      <c r="B87" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C87" t="s" s="9">
+      <c r="C87" t="s" s="10">
         <v>181</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="11">
         <v>0.57</v>
       </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="12">
+      <c r="E87" s="12"/>
+      <c r="F87" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" ht="16.35" customHeight="1">
-      <c r="A88" t="s" s="8">
+      <c r="A88" t="s" s="9">
         <v>182</v>
       </c>
-      <c r="B88" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C88" t="s" s="9">
+      <c r="B88" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s" s="10">
         <v>183</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="11">
         <v>0</v>
       </c>
-      <c r="E88" s="11"/>
-      <c r="F88" s="10">
+      <c r="E88" s="12"/>
+      <c r="F88" s="11">
         <v>0</v>
       </c>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" ht="16.35" customHeight="1">
-      <c r="A89" t="s" s="8">
+      <c r="A89" t="s" s="9">
         <v>184</v>
       </c>
-      <c r="B89" t="s" s="9">
+      <c r="B89" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C89" t="s" s="9">
+      <c r="C89" t="s" s="10">
         <v>185</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="11">
         <v>0.55</v>
       </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="12">
+      <c r="E89" s="12"/>
+      <c r="F89" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" ht="16.35" customHeight="1">
-      <c r="A90" t="s" s="8">
+      <c r="A90" t="s" s="9">
         <v>186</v>
       </c>
-      <c r="B90" t="s" s="9">
+      <c r="B90" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C90" t="s" s="9">
+      <c r="C90" t="s" s="10">
         <v>187</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="11">
         <v>0.72</v>
       </c>
-      <c r="E90" s="11"/>
-      <c r="F90" s="12">
+      <c r="E90" s="12"/>
+      <c r="F90" s="13">
         <v>0.8378378378378381</v>
       </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" ht="16.35" customHeight="1">
-      <c r="A91" t="s" s="8">
+      <c r="A91" t="s" s="9">
         <v>188</v>
       </c>
-      <c r="B91" t="s" s="9">
+      <c r="B91" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C91" t="s" s="9">
+      <c r="C91" t="s" s="10">
         <v>189</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="13">
         <v>0.689655172413793</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="13">
         <v>0.754385964912281</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="11">
         <v>0</v>
       </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" ht="16.35" customHeight="1">
-      <c r="A92" t="s" s="8">
+      <c r="A92" t="s" s="9">
         <v>190</v>
       </c>
-      <c r="B92" t="s" s="9">
+      <c r="B92" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C92" t="s" s="9">
+      <c r="C92" t="s" s="10">
         <v>191</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="11">
         <v>0.57</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="13">
         <v>0.456140350877193</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" ht="16.35" customHeight="1">
-      <c r="A93" t="s" s="8">
+      <c r="A93" t="s" s="9">
         <v>192</v>
       </c>
-      <c r="B93" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C93" t="s" s="9">
+      <c r="B93" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s" s="10">
         <v>193</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="11">
         <v>0.43</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E93" s="13">
         <v>0.350877192982456</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F93" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" ht="16.35" customHeight="1">
-      <c r="A94" t="s" s="8">
+      <c r="A94" t="s" s="9">
         <v>194</v>
       </c>
-      <c r="B94" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C94" t="s" s="9">
+      <c r="B94" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s" s="10">
         <v>195</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="11">
         <v>0.66</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="13">
         <v>0.771929824561404</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" ht="16.35" customHeight="1">
-      <c r="A95" t="s" s="8">
+      <c r="A95" t="s" s="9">
         <v>196</v>
       </c>
-      <c r="B95" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s" s="9">
+      <c r="B95" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s" s="10">
         <v>197</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="13">
         <v>0.448275862068966</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="13">
         <v>0.368421052631579</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="11">
         <v>0</v>
       </c>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" ht="16.35" customHeight="1">
-      <c r="A96" t="s" s="8">
+      <c r="A96" t="s" s="9">
         <v>198</v>
       </c>
-      <c r="B96" t="s" s="9">
+      <c r="B96" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C96" t="s" s="9">
+      <c r="C96" t="s" s="10">
         <v>199</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="11">
         <v>0.67</v>
       </c>
-      <c r="E96" s="11"/>
-      <c r="F96" s="12">
+      <c r="E96" s="13">
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F96" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" ht="16.35" customHeight="1">
-      <c r="A97" t="s" s="8">
+      <c r="A97" t="s" s="9">
         <v>200</v>
       </c>
-      <c r="B97" t="s" s="9">
+      <c r="B97" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C97" t="s" s="9">
+      <c r="C97" t="s" s="10">
         <v>201</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="11">
         <v>0.45</v>
       </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="12">
+      <c r="E97" s="12"/>
+      <c r="F97" s="13">
         <v>0.567567567567568</v>
       </c>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" ht="16.35" customHeight="1">
-      <c r="A98" t="s" s="8">
+      <c r="A98" t="s" s="9">
         <v>202</v>
       </c>
-      <c r="B98" t="s" s="9">
+      <c r="B98" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C98" t="s" s="9">
+      <c r="C98" t="s" s="10">
         <v>203</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="11">
         <v>0.78</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="13">
         <v>0.8947368421052631</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="13">
         <v>0.621621621621622</v>
       </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" ht="16.35" customHeight="1">
-      <c r="A99" t="s" s="8">
+      <c r="A99" t="s" s="9">
         <v>204</v>
       </c>
-      <c r="B99" t="s" s="9">
+      <c r="B99" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C99" t="s" s="9">
+      <c r="C99" t="s" s="10">
         <v>205</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="11">
         <v>0.78</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="13">
         <v>0.8245614035087721</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="13">
         <v>0.756756756756757</v>
       </c>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="100" ht="16.35" customHeight="1">
-      <c r="A100" t="s" s="8">
+      <c r="A100" t="s" s="9">
         <v>206</v>
       </c>
-      <c r="B100" t="s" s="9">
+      <c r="B100" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C100" t="s" s="9">
+      <c r="C100" t="s" s="10">
         <v>207</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="11">
         <v>0.59</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="13">
         <v>0.87719298245614</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" ht="16.35" customHeight="1">
-      <c r="A101" t="s" s="8">
+      <c r="A101" t="s" s="9">
         <v>208</v>
       </c>
-      <c r="B101" t="s" s="9">
+      <c r="B101" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C101" t="s" s="9">
+      <c r="C101" t="s" s="10">
         <v>209</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="11">
         <v>0.62</v>
       </c>
-      <c r="E101" s="11"/>
-      <c r="F101" s="12">
+      <c r="E101" s="13">
+        <v>0.526315789473684</v>
+      </c>
+      <c r="F101" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" ht="16.35" customHeight="1">
-      <c r="A102" t="s" s="8">
+      <c r="A102" t="s" s="9">
         <v>210</v>
       </c>
-      <c r="B102" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s" s="9">
+      <c r="B102" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s" s="10">
         <v>211</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="13">
         <v>0.482758620689655</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="13">
         <v>0.543859649122807</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F102" s="13">
         <v>0.8378378378378381</v>
       </c>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" ht="16.35" customHeight="1">
-      <c r="A103" t="s" s="8">
+      <c r="A103" t="s" s="9">
         <v>212</v>
       </c>
-      <c r="B103" t="s" s="9">
+      <c r="B103" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C103" t="s" s="9">
+      <c r="C103" t="s" s="10">
         <v>213</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="11">
         <v>0.66</v>
       </c>
-      <c r="E103" s="11"/>
-      <c r="F103" s="10">
+      <c r="E103" s="12"/>
+      <c r="F103" s="11">
         <v>0</v>
       </c>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" ht="16.35" customHeight="1">
-      <c r="A104" t="s" s="8">
+      <c r="A104" t="s" s="9">
         <v>214</v>
       </c>
-      <c r="B104" t="s" s="9">
+      <c r="B104" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C104" t="s" s="9">
+      <c r="C104" t="s" s="10">
         <v>215</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="13">
         <v>0.775862068965517</v>
       </c>
-      <c r="E104" s="11"/>
-      <c r="F104" s="12">
+      <c r="E104" s="12"/>
+      <c r="F104" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" ht="16.35" customHeight="1">
-      <c r="A105" t="s" s="8">
+      <c r="A105" t="s" s="9">
         <v>216</v>
       </c>
-      <c r="B105" t="s" s="9">
+      <c r="B105" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C105" t="s" s="9">
+      <c r="C105" t="s" s="10">
         <v>217</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="13">
         <v>0.551724137931034</v>
       </c>
-      <c r="E105" s="11"/>
-      <c r="F105" s="12">
+      <c r="E105" s="12"/>
+      <c r="F105" s="13">
         <v>0.783783783783784</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" ht="16.35" customHeight="1">
-      <c r="A106" t="s" s="8">
+      <c r="A106" t="s" s="9">
         <v>218</v>
       </c>
-      <c r="B106" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C106" t="s" s="9">
+      <c r="B106" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s" s="10">
         <v>219</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="11">
         <v>0.62</v>
       </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="12">
+      <c r="E106" s="13">
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F106" s="13">
         <v>0.648648648648649</v>
       </c>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" ht="16.35" customHeight="1">
-      <c r="A107" t="s" s="8">
+      <c r="A107" t="s" s="9">
         <v>220</v>
       </c>
-      <c r="B107" t="s" s="9">
+      <c r="B107" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C107" t="s" s="9">
+      <c r="C107" t="s" s="10">
         <v>221</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="11">
         <v>0.52</v>
       </c>
-      <c r="E107" s="11"/>
-      <c r="F107" s="12">
+      <c r="E107" s="12"/>
+      <c r="F107" s="13">
         <v>0.756756756756757</v>
       </c>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" ht="16.35" customHeight="1">
-      <c r="A108" t="s" s="8">
+      <c r="A108" t="s" s="9">
         <v>222</v>
       </c>
-      <c r="B108" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s" s="9">
+      <c r="B108" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s" s="10">
         <v>223</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="11">
         <v>0.67</v>
       </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="12">
+      <c r="E108" s="12"/>
+      <c r="F108" s="13">
         <v>0.864864864864865</v>
       </c>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" ht="16.35" customHeight="1">
-      <c r="A109" t="s" s="8">
+      <c r="A109" t="s" s="9">
         <v>224</v>
       </c>
-      <c r="B109" t="s" s="9">
+      <c r="B109" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C109" t="s" s="9">
+      <c r="C109" t="s" s="10">
         <v>225</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="13">
         <v>0.482758620689655</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="13">
         <v>0.385964912280702</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" ht="16.35" customHeight="1">
-      <c r="A110" t="s" s="8">
+      <c r="A110" t="s" s="9">
         <v>226</v>
       </c>
-      <c r="B110" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C110" t="s" s="9">
+      <c r="B110" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s" s="10">
         <v>227</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="13">
         <v>0.413793103448276</v>
       </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="12">
+      <c r="E110" s="13">
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F110" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" ht="16.35" customHeight="1">
-      <c r="A111" t="s" s="8">
+      <c r="A111" t="s" s="9">
         <v>228</v>
       </c>
-      <c r="B111" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C111" t="s" s="9">
+      <c r="B111" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s" s="10">
         <v>229</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="11">
         <v>0.53</v>
       </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="10">
+      <c r="E111" s="13">
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F111" s="11">
         <v>0</v>
       </c>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" ht="16.35" customHeight="1">
-      <c r="A112" t="s" s="8">
+      <c r="A112" t="s" s="9">
         <v>230</v>
       </c>
-      <c r="B112" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C112" t="s" s="9">
+      <c r="B112" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s" s="10">
         <v>231</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="11">
         <v>0.52</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="13">
         <v>0.543859649122807</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" ht="16.35" customHeight="1">
-      <c r="A113" t="s" s="8">
+      <c r="A113" t="s" s="9">
         <v>232</v>
       </c>
-      <c r="B113" t="s" s="9">
+      <c r="B113" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C113" t="s" s="9">
+      <c r="C113" t="s" s="10">
         <v>233</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="13">
         <v>0.568965517241379</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E113" s="13">
         <v>0.508771929824561</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F113" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" ht="16.35" customHeight="1">
-      <c r="A114" t="s" s="8">
+      <c r="A114" t="s" s="9">
         <v>234</v>
       </c>
-      <c r="B114" t="s" s="9">
+      <c r="B114" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C114" t="s" s="9">
+      <c r="C114" t="s" s="10">
         <v>235</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="11">
         <v>0</v>
       </c>
-      <c r="E114" s="11"/>
-      <c r="F114" s="12">
+      <c r="E114" s="12"/>
+      <c r="F114" s="13">
         <v>0.783783783783784</v>
       </c>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" ht="16.35" customHeight="1">
-      <c r="A115" t="s" s="8">
+      <c r="A115" t="s" s="9">
         <v>236</v>
       </c>
-      <c r="B115" t="s" s="9">
+      <c r="B115" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C115" t="s" s="9">
+      <c r="C115" t="s" s="10">
         <v>237</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="11">
         <v>0.57</v>
       </c>
-      <c r="E115" s="12">
+      <c r="E115" s="13">
         <v>0.719298245614035</v>
       </c>
-      <c r="F115" s="12">
+      <c r="F115" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" ht="16.35" customHeight="1">
-      <c r="A116" t="s" s="8">
+      <c r="A116" t="s" s="9">
         <v>238</v>
       </c>
-      <c r="B116" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C116" t="s" s="9">
+      <c r="B116" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s" s="10">
         <v>239</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="11">
         <v>0.38</v>
       </c>
-      <c r="E116" s="11"/>
-      <c r="F116" s="12">
+      <c r="E116" s="12"/>
+      <c r="F116" s="13">
         <v>0.810810810810811</v>
       </c>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" ht="16.35" customHeight="1">
-      <c r="A117" t="s" s="8">
+      <c r="A117" t="s" s="9">
         <v>240</v>
       </c>
-      <c r="B117" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C117" t="s" s="9">
+      <c r="B117" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s" s="10">
         <v>241</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="11">
         <v>0.55</v>
       </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="12">
+      <c r="E117" s="12"/>
+      <c r="F117" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" ht="16.35" customHeight="1">
-      <c r="A118" t="s" s="8">
+      <c r="A118" t="s" s="9">
         <v>242</v>
       </c>
-      <c r="B118" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C118" t="s" s="9">
+      <c r="B118" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s" s="10">
         <v>243</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D118" s="13">
         <v>0.586206896551724</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="13">
         <v>0.719298245614035</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F118" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" ht="16.35" customHeight="1">
-      <c r="A119" t="s" s="8">
+      <c r="A119" t="s" s="9">
         <v>244</v>
       </c>
-      <c r="B119" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C119" t="s" s="9">
+      <c r="B119" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s" s="10">
         <v>245</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="11">
         <v>0.41</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E119" s="13">
         <v>0.543859649122807</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F119" s="13">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" ht="16.35" customHeight="1">
-      <c r="A120" t="s" s="8">
+      <c r="A120" t="s" s="9">
         <v>246</v>
       </c>
-      <c r="B120" t="s" s="9">
+      <c r="B120" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C120" t="s" s="9">
+      <c r="C120" t="s" s="10">
         <v>247</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="11">
         <v>0.55</v>
       </c>
-      <c r="E120" s="11"/>
-      <c r="F120" s="12">
+      <c r="E120" s="12"/>
+      <c r="F120" s="13">
         <v>0.621621621621622</v>
       </c>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" ht="16.35" customHeight="1">
-      <c r="A121" t="s" s="8">
+      <c r="A121" t="s" s="9">
         <v>248</v>
       </c>
-      <c r="B121" t="s" s="9">
+      <c r="B121" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C121" t="s" s="9">
+      <c r="C121" t="s" s="10">
         <v>249</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="13">
         <v>0.793103448275862</v>
       </c>
-      <c r="E121" s="12">
+      <c r="E121" s="13">
         <v>0.842105263157895</v>
       </c>
-      <c r="F121" s="12">
+      <c r="F121" s="13">
         <v>0.918918918918919</v>
       </c>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" ht="16.35" customHeight="1">
-      <c r="A122" t="s" s="8">
+      <c r="A122" t="s" s="9">
         <v>250</v>
       </c>
-      <c r="B122" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C122" t="s" s="9">
+      <c r="B122" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s" s="10">
         <v>251</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="11">
         <v>0.52</v>
       </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="12">
+      <c r="E122" s="12"/>
+      <c r="F122" s="13">
         <v>0.891891891891892</v>
       </c>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" ht="16.35" customHeight="1">
-      <c r="A123" t="s" s="8">
+      <c r="A123" t="s" s="9">
         <v>252</v>
       </c>
-      <c r="B123" t="s" s="9">
+      <c r="B123" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C123" t="s" s="9">
+      <c r="C123" t="s" s="10">
         <v>253</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D123" s="13">
         <v>0.844827586206897</v>
       </c>
-      <c r="E123" s="12">
+      <c r="E123" s="13">
         <v>0.8947368421052631</v>
       </c>
-      <c r="F123" s="12">
+      <c r="F123" s="13">
         <v>0.783783783783784</v>
       </c>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>Surname</t>
   </si>
@@ -557,12 +557,6 @@
   </si>
   <si>
     <t>H200048G</t>
-  </si>
-  <si>
-    <t>Musharu</t>
-  </si>
-  <si>
-    <t>H200902V</t>
   </si>
   <si>
     <t>Mushonga</t>
@@ -915,10 +909,10 @@
     <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2017,7 +2011,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -2090,12 +2084,14 @@
       <c r="D3" s="11">
         <v>0.52</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13">
+      <c r="E3" s="12">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F3" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" ht="16.35" customHeight="1">
       <c r="A4" t="s" s="9">
@@ -2110,14 +2106,14 @@
       <c r="D4" s="11">
         <v>0.74</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.807017543859649</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" ht="16.35" customHeight="1">
       <c r="A5" t="s" s="9">
@@ -2129,13 +2125,15 @@
       <c r="C5" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13">
+      <c r="D5" s="13"/>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" ht="16.35" customHeight="1">
       <c r="A6" t="s" s="9">
@@ -2150,14 +2148,14 @@
       <c r="D6" s="11">
         <v>0.64</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>0.719298245614035</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" ht="16.35" customHeight="1">
       <c r="A7" t="s" s="9">
@@ -2172,14 +2170,14 @@
       <c r="D7" s="11">
         <v>0.59</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>0.8245614035087721</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" ht="16.35" customHeight="1">
       <c r="A8" t="s" s="9">
@@ -2194,14 +2192,14 @@
       <c r="D8" s="11">
         <v>0.52</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>0.578947368421053</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>0.702702702702703</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" ht="16.35" customHeight="1">
       <c r="A9" t="s" s="9">
@@ -2216,14 +2214,14 @@
       <c r="D9" s="11">
         <v>0.57</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>0.719298245614035</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" ht="16.35" customHeight="1">
       <c r="A10" t="s" s="9">
@@ -2238,14 +2236,14 @@
       <c r="D10" s="11">
         <v>0.57</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>0.526315789473684</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>0.702702702702703</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" ht="16.35" customHeight="1">
       <c r="A11" t="s" s="9">
@@ -2257,17 +2255,17 @@
       <c r="C11" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>0.655172413793103</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>0.842105263157895</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>0.675675675675676</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" ht="16.35" customHeight="1">
       <c r="A12" t="s" s="9">
@@ -2282,14 +2280,14 @@
       <c r="D12" s="11">
         <v>0.74</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>0.491228070175439</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" ht="16.35" customHeight="1">
       <c r="A13" t="s" s="9">
@@ -2304,14 +2302,14 @@
       <c r="D13" s="11">
         <v>0.45</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>0.421052631578947</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" ht="16.35" customHeight="1">
       <c r="A14" t="s" s="9">
@@ -2326,14 +2324,14 @@
       <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0.87719298245614</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" ht="16.35" customHeight="1">
       <c r="A15" t="s" s="9">
@@ -2348,14 +2346,14 @@
       <c r="D15" s="11">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>0.754385964912281</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" ht="16.35" customHeight="1">
       <c r="A16" t="s" s="9">
@@ -2370,12 +2368,14 @@
       <c r="D16" s="11">
         <v>0.64</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="12">
+        <v>0.491228070175439</v>
+      </c>
       <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" ht="16.35" customHeight="1">
       <c r="A17" t="s" s="9">
@@ -2390,14 +2390,14 @@
       <c r="D17" s="11">
         <v>0.53</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>0.859649122807018</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" ht="16.35" customHeight="1">
       <c r="A18" t="s" s="9">
@@ -2412,14 +2412,14 @@
       <c r="D18" s="11">
         <v>0.59</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>0.631578947368421</v>
       </c>
       <c r="F18" s="11">
         <v>0</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" ht="16.35" customHeight="1">
       <c r="A19" t="s" s="9">
@@ -2434,14 +2434,14 @@
       <c r="D19" s="11">
         <v>0.6</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>0.929824561403509</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" ht="16.35" customHeight="1">
       <c r="A20" t="s" s="9">
@@ -2456,14 +2456,14 @@
       <c r="D20" s="11">
         <v>0.64</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>0.508771929824561</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" ht="16.35" customHeight="1">
       <c r="A21" t="s" s="9">
@@ -2475,17 +2475,17 @@
       <c r="C21" t="s" s="10">
         <v>50</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>0.603448275862069</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>0.736842105263158</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" ht="16.35" customHeight="1">
       <c r="A22" t="s" s="9">
@@ -2500,14 +2500,14 @@
       <c r="D22" s="11">
         <v>0.62</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>0.736842105263158</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" ht="16.35" customHeight="1">
       <c r="A23" t="s" s="9">
@@ -2519,17 +2519,17 @@
       <c r="C23" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>0.706896551724138</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>0.649122807017544</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>1</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" ht="16.35" customHeight="1">
       <c r="A24" t="s" s="9">
@@ -2541,15 +2541,15 @@
       <c r="C24" t="s" s="10">
         <v>56</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>0.586206896551724</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13">
+      <c r="E24" s="13"/>
+      <c r="F24" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" ht="16.35" customHeight="1">
       <c r="A25" t="s" s="9">
@@ -2564,12 +2564,14 @@
       <c r="D25" s="11">
         <v>0.72</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13">
+      <c r="E25" s="12">
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F25" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" ht="16.35" customHeight="1">
       <c r="A26" t="s" s="9">
@@ -2584,12 +2586,14 @@
       <c r="D26" s="11">
         <v>0.62</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13">
+      <c r="E26" s="12">
+        <v>0.8947368421052631</v>
+      </c>
+      <c r="F26" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" ht="16.35" customHeight="1">
       <c r="A27" t="s" s="9">
@@ -2604,12 +2608,14 @@
       <c r="D27" s="11">
         <v>0.52</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13">
+      <c r="E27" s="12">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F27" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" ht="16.35" customHeight="1">
       <c r="A28" t="s" s="9">
@@ -2621,17 +2627,17 @@
       <c r="C28" t="s" s="10">
         <v>64</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>0.551724137931034</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>0.649122807017544</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" ht="16.35" customHeight="1">
       <c r="A29" t="s" s="9">
@@ -2646,14 +2652,14 @@
       <c r="D29" s="11">
         <v>0.59</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>0.859649122807018</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" ht="16.35" customHeight="1">
       <c r="A30" t="s" s="9">
@@ -2665,17 +2671,17 @@
       <c r="C30" t="s" s="10">
         <v>68</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>0.620689655172414</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" ht="16.35" customHeight="1">
       <c r="A31" t="s" s="9">
@@ -2690,14 +2696,14 @@
       <c r="D31" s="11">
         <v>0.55</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>0.578947368421053</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" ht="16.35" customHeight="1">
       <c r="A32" t="s" s="9">
@@ -2712,12 +2718,14 @@
       <c r="D32" s="11">
         <v>0</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
       <c r="F32" s="11">
         <v>0</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" ht="16.35" customHeight="1">
       <c r="A33" t="s" s="9">
@@ -2729,17 +2737,17 @@
       <c r="C33" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>0.517241379310345</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>0.701754385964912</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" ht="16.35" customHeight="1">
       <c r="A34" t="s" s="9">
@@ -2754,12 +2762,14 @@
       <c r="D34" s="11">
         <v>0.62</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13">
+      <c r="E34" s="12">
+        <v>0.526315789473684</v>
+      </c>
+      <c r="F34" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" ht="16.35" customHeight="1">
       <c r="A35" t="s" s="9">
@@ -2771,17 +2781,17 @@
       <c r="C35" t="s" s="10">
         <v>78</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>0.551724137931034</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>0.526315789473684</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>0.675675675675676</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" ht="16.35" customHeight="1">
       <c r="A36" t="s" s="9">
@@ -2796,12 +2806,14 @@
       <c r="D36" s="11">
         <v>0.64</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13">
+      <c r="E36" s="12">
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F36" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" ht="16.35" customHeight="1">
       <c r="A37" t="s" s="9">
@@ -2816,14 +2828,14 @@
       <c r="D37" s="11">
         <v>0.48</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>0.56140350877193</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" ht="16.35" customHeight="1">
       <c r="A38" t="s" s="9">
@@ -2838,14 +2850,14 @@
       <c r="D38" s="11">
         <v>0.41</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>0.333333333333333</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" ht="16.35" customHeight="1">
       <c r="A39" t="s" s="9">
@@ -2860,14 +2872,14 @@
       <c r="D39" s="11">
         <v>0.52</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>0.578947368421053</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" ht="16.35" customHeight="1">
       <c r="A40" t="s" s="9">
@@ -2882,14 +2894,14 @@
       <c r="D40" s="11">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <v>0.842105263157895</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" ht="16.35" customHeight="1">
       <c r="A41" t="s" s="9">
@@ -2904,14 +2916,14 @@
       <c r="D41" s="11">
         <v>0.67</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <v>0.789473684210526</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" ht="16.35" customHeight="1">
       <c r="A42" t="s" s="9">
@@ -2926,14 +2938,14 @@
       <c r="D42" s="11">
         <v>0.38</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>0.56140350877193</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" ht="16.35" customHeight="1">
       <c r="A43" t="s" s="9">
@@ -2948,14 +2960,14 @@
       <c r="D43" s="11">
         <v>0.86</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <v>0.912280701754386</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <v>0.972972972972973</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" ht="16.35" customHeight="1">
       <c r="A44" t="s" s="9">
@@ -2970,12 +2982,14 @@
       <c r="D44" s="11">
         <v>0.29</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13">
+      <c r="E44" s="12">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F44" s="12">
         <v>0.594594594594595</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" ht="16.35" customHeight="1">
       <c r="A45" t="s" s="9">
@@ -2990,14 +3004,14 @@
       <c r="D45" s="11">
         <v>0.66</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <v>0.684210526315789</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" ht="16.35" customHeight="1">
       <c r="A46" t="s" s="9">
@@ -3012,12 +3026,14 @@
       <c r="D46" s="11">
         <v>0.24</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13">
+      <c r="E46" s="12">
+        <v>0.491228070175439</v>
+      </c>
+      <c r="F46" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" ht="16.35" customHeight="1">
       <c r="A47" t="s" s="9">
@@ -3032,12 +3048,12 @@
       <c r="D47" s="11">
         <v>0.71</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13">
+      <c r="E47" s="13"/>
+      <c r="F47" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" ht="16.35" customHeight="1">
       <c r="A48" t="s" s="9">
@@ -3052,14 +3068,14 @@
       <c r="D48" s="11">
         <v>0.67</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <v>0.929824561403509</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" ht="16.35" customHeight="1">
       <c r="A49" t="s" s="9">
@@ -3074,12 +3090,14 @@
       <c r="D49" s="11">
         <v>0.66</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="13">
+      <c r="E49" s="12">
+        <v>0.649122807017544</v>
+      </c>
+      <c r="F49" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" ht="16.35" customHeight="1">
       <c r="A50" t="s" s="9">
@@ -3094,14 +3112,14 @@
       <c r="D50" s="11">
         <v>0.57</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <v>0.56140350877193</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" ht="16.35" customHeight="1">
       <c r="A51" t="s" s="9">
@@ -3116,14 +3134,14 @@
       <c r="D51" s="11">
         <v>0.72</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <v>0.807017543859649</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" ht="16.35" customHeight="1">
       <c r="A52" t="s" s="9">
@@ -3138,12 +3156,12 @@
       <c r="D52" s="11">
         <v>0.6</v>
       </c>
-      <c r="E52" s="12"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="11">
         <v>0</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" ht="16.35" customHeight="1">
       <c r="A53" t="s" s="9">
@@ -3158,12 +3176,14 @@
       <c r="D53" s="11">
         <v>0.48</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13">
+      <c r="E53" s="12">
+        <v>0.245614035087719</v>
+      </c>
+      <c r="F53" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" ht="16.35" customHeight="1">
       <c r="A54" t="s" s="9">
@@ -3175,17 +3195,17 @@
       <c r="C54" t="s" s="10">
         <v>116</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="12">
         <v>0.620689655172414</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="12">
         <v>0.263157894736842</v>
       </c>
       <c r="F54" s="11">
         <v>0</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" ht="16.35" customHeight="1">
       <c r="A55" t="s" s="9">
@@ -3200,14 +3220,14 @@
       <c r="D55" s="11">
         <v>0.64</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="12">
         <v>0.912280701754386</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" ht="16.35" customHeight="1">
       <c r="A56" t="s" s="9">
@@ -3222,14 +3242,14 @@
       <c r="D56" s="11">
         <v>0.52</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="12">
         <v>0.368421052631579</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" ht="16.35" customHeight="1">
       <c r="A57" t="s" s="9">
@@ -3241,17 +3261,17 @@
       <c r="C57" t="s" s="10">
         <v>121</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>0.706896551724138</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <v>0.9649122807017541</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="12">
         <v>0.756756756756757</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" ht="16.35" customHeight="1">
       <c r="A58" t="s" s="9">
@@ -3263,17 +3283,17 @@
       <c r="C58" t="s" s="10">
         <v>123</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="12">
         <v>0.741379310344828</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="12">
         <v>0.675675675675676</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" ht="16.35" customHeight="1">
       <c r="A59" t="s" s="9">
@@ -3288,14 +3308,14 @@
       <c r="D59" s="11">
         <v>0.74</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="12">
         <v>0.719298245614035</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" ht="16.35" customHeight="1">
       <c r="A60" t="s" s="9">
@@ -3310,14 +3330,14 @@
       <c r="D60" s="11">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="12">
         <v>0.789473684210526</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" ht="16.35" customHeight="1">
       <c r="A61" t="s" s="9">
@@ -3332,14 +3352,14 @@
       <c r="D61" s="11">
         <v>0.53</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="12">
         <v>0.754385964912281</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" ht="16.35" customHeight="1">
       <c r="A62" t="s" s="9">
@@ -3354,12 +3374,12 @@
       <c r="D62" s="11">
         <v>0</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="12">
         <v>0.368421052631579</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" ht="16.35" customHeight="1">
       <c r="A63" t="s" s="9">
@@ -3374,14 +3394,14 @@
       <c r="D63" s="11">
         <v>0.55</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="12">
         <v>0.56140350877193</v>
       </c>
       <c r="F63" s="11">
         <v>0</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" ht="16.35" customHeight="1">
       <c r="A64" t="s" s="9">
@@ -3396,12 +3416,14 @@
       <c r="D64" s="11">
         <v>0.6</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="13">
+      <c r="E64" s="12">
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F64" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" ht="16.35" customHeight="1">
       <c r="A65" t="s" s="9">
@@ -3413,17 +3435,17 @@
       <c r="C65" t="s" s="10">
         <v>137</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="12">
         <v>0.293103448275862</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="12">
         <v>0.315789473684211</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
     </row>
     <row r="66" ht="16.35" customHeight="1">
       <c r="A66" t="s" s="9">
@@ -3438,14 +3460,14 @@
       <c r="D66" s="11">
         <v>0.53</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="12">
         <v>0.631578947368421</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="12">
         <v>0.594594594594595</v>
       </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
     </row>
     <row r="67" ht="16.35" customHeight="1">
       <c r="A67" t="s" s="9">
@@ -3460,12 +3482,14 @@
       <c r="D67" s="11">
         <v>0.72</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13">
+      <c r="E67" s="12">
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F67" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" ht="16.35" customHeight="1">
       <c r="A68" t="s" s="9">
@@ -3480,14 +3504,14 @@
       <c r="D68" s="11">
         <v>0.71</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="12">
         <v>0.701754385964912</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" ht="16.35" customHeight="1">
       <c r="A69" t="s" s="9">
@@ -3502,12 +3526,14 @@
       <c r="D69" s="11">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E69" s="12"/>
+      <c r="E69" s="12">
+        <v>0.982456140350877</v>
+      </c>
       <c r="F69" s="11">
         <v>0</v>
       </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" ht="16.35" customHeight="1">
       <c r="A70" t="s" s="9">
@@ -3522,14 +3548,14 @@
       <c r="D70" s="11">
         <v>0.4</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="12">
         <v>0.491228070175439</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" ht="16.35" customHeight="1">
       <c r="A71" t="s" s="9">
@@ -3544,14 +3570,14 @@
       <c r="D71" s="11">
         <v>0.62</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="12">
         <v>0.56140350877193</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" ht="16.35" customHeight="1">
       <c r="A72" t="s" s="9">
@@ -3566,12 +3592,14 @@
       <c r="D72" s="11">
         <v>0.53</v>
       </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13">
+      <c r="E72" s="12">
+        <v>0.543859649122807</v>
+      </c>
+      <c r="F72" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" ht="16.35" customHeight="1">
       <c r="A73" t="s" s="9">
@@ -3583,17 +3611,17 @@
       <c r="C73" t="s" s="10">
         <v>153</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="12">
         <v>0.603448275862069</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="12">
         <v>0.508771929824561</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" ht="16.35" customHeight="1">
       <c r="A74" t="s" s="9">
@@ -3605,17 +3633,17 @@
       <c r="C74" t="s" s="10">
         <v>155</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="12">
         <v>0.689655172413793</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="12">
         <v>0.684210526315789</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" ht="16.35" customHeight="1">
       <c r="A75" t="s" s="9">
@@ -3630,12 +3658,14 @@
       <c r="D75" s="11">
         <v>0.79</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13">
+      <c r="E75" s="12">
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F75" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" ht="16.35" customHeight="1">
       <c r="A76" t="s" s="9">
@@ -3647,15 +3677,17 @@
       <c r="C76" t="s" s="10">
         <v>159</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="12">
         <v>0.741379310344828</v>
       </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13">
+      <c r="E76" s="12">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="F76" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" ht="16.35" customHeight="1">
       <c r="A77" t="s" s="9">
@@ -3667,17 +3699,17 @@
       <c r="C77" t="s" s="10">
         <v>161</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="12">
         <v>0.948275862068966</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="12">
         <v>0.912280701754386</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="12">
         <v>0.972972972972973</v>
       </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" ht="16.35" customHeight="1">
       <c r="A78" t="s" s="9">
@@ -3689,17 +3721,17 @@
       <c r="C78" t="s" s="10">
         <v>163</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="12">
         <v>0.568965517241379</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="12">
         <v>0.56140350877193</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" ht="16.35" customHeight="1">
       <c r="A79" t="s" s="9">
@@ -3714,14 +3746,14 @@
       <c r="D79" s="11">
         <v>0.57</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="12">
         <v>0.631578947368421</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" ht="16.35" customHeight="1">
       <c r="A80" t="s" s="9">
@@ -3736,14 +3768,14 @@
       <c r="D80" s="11">
         <v>0.57</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="12">
         <v>0.526315789473684</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" ht="16.35" customHeight="1">
       <c r="A81" t="s" s="9">
@@ -3758,12 +3790,14 @@
       <c r="D81" s="11">
         <v>0.59</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13">
+      <c r="E81" s="12">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="F81" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" ht="16.35" customHeight="1">
       <c r="A82" t="s" s="9">
@@ -3775,17 +3809,17 @@
       <c r="C82" t="s" s="10">
         <v>171</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="12">
         <v>0.706896551724138</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="12">
         <v>0.842105263157895</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" ht="16.35" customHeight="1">
       <c r="A83" t="s" s="9">
@@ -3800,14 +3834,14 @@
       <c r="D83" s="11">
         <v>0.72</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="12">
         <v>0.736842105263158</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" ht="16.35" customHeight="1">
       <c r="A84" t="s" s="9">
@@ -3822,12 +3856,14 @@
       <c r="D84" s="11">
         <v>0.59</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13">
+      <c r="E84" s="12">
+        <v>0.56140350877193</v>
+      </c>
+      <c r="F84" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" ht="16.35" customHeight="1">
       <c r="A85" t="s" s="9">
@@ -3842,12 +3878,14 @@
       <c r="D85" s="11">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="13">
+      <c r="E85" s="12">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="F85" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" ht="16.35" customHeight="1">
       <c r="A86" t="s" s="9">
@@ -3862,12 +3900,14 @@
       <c r="D86" s="11">
         <v>0</v>
       </c>
-      <c r="E86" s="12"/>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
       <c r="F86" s="11">
         <v>0</v>
       </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" ht="16.35" customHeight="1">
       <c r="A87" t="s" s="9">
@@ -3882,52 +3922,58 @@
       <c r="D87" s="11">
         <v>0.57</v>
       </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="13">
+      <c r="E87" s="12">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F87" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" ht="16.35" customHeight="1">
       <c r="A88" t="s" s="9">
         <v>182</v>
       </c>
       <c r="B88" t="s" s="10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s" s="10">
         <v>183</v>
       </c>
       <c r="D88" s="11">
-        <v>0</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="11">
-        <v>0</v>
-      </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
+        <v>0.55</v>
+      </c>
+      <c r="E88" s="12">
+        <v>0.771929824561404</v>
+      </c>
+      <c r="F88" s="12">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" ht="16.35" customHeight="1">
       <c r="A89" t="s" s="9">
         <v>184</v>
       </c>
       <c r="B89" t="s" s="10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s" s="10">
         <v>185</v>
       </c>
       <c r="D89" s="11">
-        <v>0.55</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="13">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
+        <v>0.72</v>
+      </c>
+      <c r="E89" s="12">
+        <v>0.771929824561404</v>
+      </c>
+      <c r="F89" s="12">
+        <v>0.8378378378378381</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" ht="16.35" customHeight="1">
       <c r="A90" t="s" s="9">
@@ -3939,15 +3985,17 @@
       <c r="C90" t="s" s="10">
         <v>187</v>
       </c>
-      <c r="D90" s="11">
-        <v>0.72</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="13">
-        <v>0.8378378378378381</v>
-      </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
+      <c r="D90" s="12">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="E90" s="12">
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" ht="16.35" customHeight="1">
       <c r="A91" t="s" s="9">
@@ -3959,39 +4007,39 @@
       <c r="C91" t="s" s="10">
         <v>189</v>
       </c>
-      <c r="D91" s="13">
-        <v>0.689655172413793</v>
-      </c>
-      <c r="E91" s="13">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F91" s="11">
-        <v>0</v>
-      </c>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
+      <c r="D91" s="11">
+        <v>0.57</v>
+      </c>
+      <c r="E91" s="12">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="F91" s="12">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" ht="16.35" customHeight="1">
       <c r="A92" t="s" s="9">
         <v>190</v>
       </c>
       <c r="B92" t="s" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s" s="10">
         <v>191</v>
       </c>
       <c r="D92" s="11">
-        <v>0.57</v>
-      </c>
-      <c r="E92" s="13">
-        <v>0.456140350877193</v>
-      </c>
-      <c r="F92" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0.350877192982456</v>
+      </c>
+      <c r="F92" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" ht="16.35" customHeight="1">
       <c r="A93" t="s" s="9">
@@ -4004,16 +4052,16 @@
         <v>193</v>
       </c>
       <c r="D93" s="11">
-        <v>0.43</v>
-      </c>
-      <c r="E93" s="13">
-        <v>0.350877192982456</v>
-      </c>
-      <c r="F93" s="13">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
+        <v>0.66</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0.771929824561404</v>
+      </c>
+      <c r="F93" s="12">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" ht="16.35" customHeight="1">
       <c r="A94" t="s" s="9">
@@ -4025,39 +4073,39 @@
       <c r="C94" t="s" s="10">
         <v>195</v>
       </c>
-      <c r="D94" s="11">
-        <v>0.66</v>
-      </c>
-      <c r="E94" s="13">
-        <v>0.771929824561404</v>
-      </c>
-      <c r="F94" s="13">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
+      <c r="D94" s="12">
+        <v>0.448275862068966</v>
+      </c>
+      <c r="E94" s="12">
+        <v>0.368421052631579</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0</v>
+      </c>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" ht="16.35" customHeight="1">
       <c r="A95" t="s" s="9">
         <v>196</v>
       </c>
       <c r="B95" t="s" s="10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s" s="10">
         <v>197</v>
       </c>
-      <c r="D95" s="13">
-        <v>0.448275862068966</v>
-      </c>
-      <c r="E95" s="13">
-        <v>0.368421052631579</v>
-      </c>
-      <c r="F95" s="11">
-        <v>0</v>
-      </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
+      <c r="D95" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F95" s="12">
+        <v>0.810810810810811</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" ht="16.35" customHeight="1">
       <c r="A96" t="s" s="9">
@@ -4070,43 +4118,45 @@
         <v>199</v>
       </c>
       <c r="D96" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="E96" s="13">
-        <v>0.596491228070175</v>
-      </c>
-      <c r="F96" s="13">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
+        <v>0.45</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F96" s="12">
+        <v>0.567567567567568</v>
+      </c>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" ht="16.35" customHeight="1">
       <c r="A97" t="s" s="9">
         <v>200</v>
       </c>
       <c r="B97" t="s" s="10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s" s="10">
         <v>201</v>
       </c>
       <c r="D97" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="13">
-        <v>0.567567567567568</v>
-      </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
+        <v>0.78</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0.8947368421052631</v>
+      </c>
+      <c r="F97" s="12">
+        <v>0.621621621621622</v>
+      </c>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" ht="16.35" customHeight="1">
       <c r="A98" t="s" s="9">
         <v>202</v>
       </c>
       <c r="B98" t="s" s="10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s" s="10">
         <v>203</v>
@@ -4114,36 +4164,36 @@
       <c r="D98" s="11">
         <v>0.78</v>
       </c>
-      <c r="E98" s="13">
-        <v>0.8947368421052631</v>
-      </c>
-      <c r="F98" s="13">
-        <v>0.621621621621622</v>
-      </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
+      <c r="E98" s="12">
+        <v>0.8245614035087721</v>
+      </c>
+      <c r="F98" s="12">
+        <v>0.756756756756757</v>
+      </c>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" ht="16.35" customHeight="1">
       <c r="A99" t="s" s="9">
         <v>204</v>
       </c>
       <c r="B99" t="s" s="10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s" s="10">
         <v>205</v>
       </c>
       <c r="D99" s="11">
-        <v>0.78</v>
-      </c>
-      <c r="E99" s="13">
-        <v>0.8245614035087721</v>
-      </c>
-      <c r="F99" s="13">
-        <v>0.756756756756757</v>
-      </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
+        <v>0.59</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0.87719298245614</v>
+      </c>
+      <c r="F99" s="12">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100" ht="16.35" customHeight="1">
       <c r="A100" t="s" s="9">
@@ -4156,60 +4206,60 @@
         <v>207</v>
       </c>
       <c r="D100" s="11">
-        <v>0.59</v>
-      </c>
-      <c r="E100" s="13">
-        <v>0.87719298245614</v>
-      </c>
-      <c r="F100" s="13">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
+        <v>0.62</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0.526315789473684</v>
+      </c>
+      <c r="F100" s="12">
+        <v>0.810810810810811</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
     </row>
     <row r="101" ht="16.35" customHeight="1">
       <c r="A101" t="s" s="9">
         <v>208</v>
       </c>
       <c r="B101" t="s" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s" s="10">
         <v>209</v>
       </c>
-      <c r="D101" s="11">
-        <v>0.62</v>
-      </c>
-      <c r="E101" s="13">
-        <v>0.526315789473684</v>
-      </c>
-      <c r="F101" s="13">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
+      <c r="D101" s="12">
+        <v>0.482758620689655</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0.543859649122807</v>
+      </c>
+      <c r="F101" s="12">
+        <v>0.8378378378378381</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
     </row>
     <row r="102" ht="16.35" customHeight="1">
       <c r="A102" t="s" s="9">
         <v>210</v>
       </c>
       <c r="B102" t="s" s="10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s" s="10">
         <v>211</v>
       </c>
-      <c r="D102" s="13">
-        <v>0.482758620689655</v>
-      </c>
-      <c r="E102" s="13">
-        <v>0.543859649122807</v>
-      </c>
-      <c r="F102" s="13">
-        <v>0.8378378378378381</v>
-      </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
+      <c r="D102" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0.491228070175439</v>
+      </c>
+      <c r="F102" s="11">
+        <v>0</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" ht="16.35" customHeight="1">
       <c r="A103" t="s" s="9">
@@ -4221,139 +4271,149 @@
       <c r="C103" t="s" s="10">
         <v>213</v>
       </c>
-      <c r="D103" s="11">
-        <v>0.66</v>
-      </c>
-      <c r="E103" s="12"/>
-      <c r="F103" s="11">
-        <v>0</v>
-      </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
+      <c r="D103" s="12">
+        <v>0.775862068965517</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0.8245614035087721</v>
+      </c>
+      <c r="F103" s="12">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
     </row>
     <row r="104" ht="16.35" customHeight="1">
       <c r="A104" t="s" s="9">
         <v>214</v>
       </c>
       <c r="B104" t="s" s="10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s" s="10">
         <v>215</v>
       </c>
-      <c r="D104" s="13">
-        <v>0.775862068965517</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
+      <c r="D104" s="12">
+        <v>0.551724137931034</v>
+      </c>
+      <c r="E104" s="12">
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F104" s="12">
+        <v>0.783783783783784</v>
+      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" ht="16.35" customHeight="1">
       <c r="A105" t="s" s="9">
         <v>216</v>
       </c>
       <c r="B105" t="s" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s" s="10">
         <v>217</v>
       </c>
-      <c r="D105" s="13">
-        <v>0.551724137931034</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="13">
-        <v>0.783783783783784</v>
-      </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
+      <c r="D105" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F105" s="12">
+        <v>0.648648648648649</v>
+      </c>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" ht="16.35" customHeight="1">
       <c r="A106" t="s" s="9">
         <v>218</v>
       </c>
       <c r="B106" t="s" s="10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s" s="10">
         <v>219</v>
       </c>
       <c r="D106" s="11">
-        <v>0.62</v>
-      </c>
-      <c r="E106" s="13">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F106" s="13">
-        <v>0.648648648648649</v>
-      </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
+        <v>0.52</v>
+      </c>
+      <c r="E106" s="12">
+        <v>0.543859649122807</v>
+      </c>
+      <c r="F106" s="12">
+        <v>0.756756756756757</v>
+      </c>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
     </row>
     <row r="107" ht="16.35" customHeight="1">
       <c r="A107" t="s" s="9">
         <v>220</v>
       </c>
       <c r="B107" t="s" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s" s="10">
         <v>221</v>
       </c>
       <c r="D107" s="11">
-        <v>0.52</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="13">
-        <v>0.756756756756757</v>
-      </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
+        <v>0.67</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0.684210526315789</v>
+      </c>
+      <c r="F107" s="12">
+        <v>0.864864864864865</v>
+      </c>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" ht="16.35" customHeight="1">
       <c r="A108" t="s" s="9">
         <v>222</v>
       </c>
       <c r="B108" t="s" s="10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s" s="10">
         <v>223</v>
       </c>
-      <c r="D108" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="13">
-        <v>0.864864864864865</v>
-      </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
+      <c r="D108" s="12">
+        <v>0.482758620689655</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0.385964912280702</v>
+      </c>
+      <c r="F108" s="12">
+        <v>0.810810810810811</v>
+      </c>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" ht="16.35" customHeight="1">
       <c r="A109" t="s" s="9">
         <v>224</v>
       </c>
       <c r="B109" t="s" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s" s="10">
         <v>225</v>
       </c>
-      <c r="D109" s="13">
-        <v>0.482758620689655</v>
-      </c>
-      <c r="E109" s="13">
-        <v>0.385964912280702</v>
-      </c>
-      <c r="F109" s="13">
+      <c r="D109" s="12">
+        <v>0.413793103448276</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F109" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
     </row>
     <row r="110" ht="16.35" customHeight="1">
       <c r="A110" t="s" s="9">
@@ -4365,17 +4425,17 @@
       <c r="C110" t="s" s="10">
         <v>227</v>
       </c>
-      <c r="D110" s="13">
-        <v>0.413793103448276</v>
-      </c>
-      <c r="E110" s="13">
+      <c r="D110" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="E110" s="12">
         <v>0.789473684210526</v>
       </c>
-      <c r="F110" s="13">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
+      <c r="F110" s="11">
+        <v>0</v>
+      </c>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" ht="16.35" customHeight="1">
       <c r="A111" t="s" s="9">
@@ -4388,38 +4448,38 @@
         <v>229</v>
       </c>
       <c r="D111" s="11">
-        <v>0.53</v>
-      </c>
-      <c r="E111" s="13">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F111" s="11">
-        <v>0</v>
-      </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
+        <v>0.52</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0.543859649122807</v>
+      </c>
+      <c r="F111" s="12">
+        <v>0.9459459459459461</v>
+      </c>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
     </row>
     <row r="112" ht="16.35" customHeight="1">
       <c r="A112" t="s" s="9">
         <v>230</v>
       </c>
       <c r="B112" t="s" s="10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s" s="10">
         <v>231</v>
       </c>
-      <c r="D112" s="11">
-        <v>0.52</v>
-      </c>
-      <c r="E112" s="13">
-        <v>0.543859649122807</v>
-      </c>
-      <c r="F112" s="13">
-        <v>0.9459459459459461</v>
-      </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
+      <c r="D112" s="12">
+        <v>0.568965517241379</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0.508771929824561</v>
+      </c>
+      <c r="F112" s="12">
+        <v>0.810810810810811</v>
+      </c>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" ht="16.35" customHeight="1">
       <c r="A113" t="s" s="9">
@@ -4431,17 +4491,15 @@
       <c r="C113" t="s" s="10">
         <v>233</v>
       </c>
-      <c r="D113" s="13">
-        <v>0.568965517241379</v>
-      </c>
-      <c r="E113" s="13">
-        <v>0.508771929824561</v>
-      </c>
-      <c r="F113" s="13">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
+      <c r="D113" s="11">
+        <v>0</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="12">
+        <v>0.783783783783784</v>
+      </c>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" ht="16.35" customHeight="1">
       <c r="A114" t="s" s="9">
@@ -4454,36 +4512,38 @@
         <v>235</v>
       </c>
       <c r="D114" s="11">
-        <v>0</v>
-      </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="13">
-        <v>0.783783783783784</v>
-      </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
+        <v>0.57</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F114" s="12">
+        <v>0.810810810810811</v>
+      </c>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
     </row>
     <row r="115" ht="16.35" customHeight="1">
       <c r="A115" t="s" s="9">
         <v>236</v>
       </c>
       <c r="B115" t="s" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s" s="10">
         <v>237</v>
       </c>
       <c r="D115" s="11">
-        <v>0.57</v>
-      </c>
-      <c r="E115" s="13">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F115" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0.56140350877193</v>
+      </c>
+      <c r="F115" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
     </row>
     <row r="116" ht="16.35" customHeight="1">
       <c r="A116" t="s" s="9">
@@ -4496,14 +4556,16 @@
         <v>239</v>
       </c>
       <c r="D116" s="11">
-        <v>0.38</v>
-      </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
+        <v>0.55</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F116" s="12">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117" ht="16.35" customHeight="1">
       <c r="A117" t="s" s="9">
@@ -4515,15 +4577,17 @@
       <c r="C117" t="s" s="10">
         <v>241</v>
       </c>
-      <c r="D117" s="11">
-        <v>0.55</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
+      <c r="D117" s="12">
+        <v>0.586206896551724</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F117" s="12">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
     </row>
     <row r="118" ht="16.35" customHeight="1">
       <c r="A118" t="s" s="9">
@@ -4535,39 +4599,39 @@
       <c r="C118" t="s" s="10">
         <v>243</v>
       </c>
-      <c r="D118" s="13">
-        <v>0.586206896551724</v>
-      </c>
-      <c r="E118" s="13">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F118" s="13">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
+      <c r="D118" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0.543859649122807</v>
+      </c>
+      <c r="F118" s="12">
+        <v>0.9459459459459461</v>
+      </c>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" ht="16.35" customHeight="1">
       <c r="A119" t="s" s="9">
         <v>244</v>
       </c>
       <c r="B119" t="s" s="10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s" s="10">
         <v>245</v>
       </c>
       <c r="D119" s="11">
-        <v>0.41</v>
-      </c>
-      <c r="E119" s="13">
-        <v>0.543859649122807</v>
-      </c>
-      <c r="F119" s="13">
-        <v>0.9459459459459461</v>
-      </c>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
+        <v>0.55</v>
+      </c>
+      <c r="E119" s="12">
+        <v>0.491228070175439</v>
+      </c>
+      <c r="F119" s="12">
+        <v>0.621621621621622</v>
+      </c>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" ht="16.35" customHeight="1">
       <c r="A120" t="s" s="9">
@@ -4579,79 +4643,61 @@
       <c r="C120" t="s" s="10">
         <v>247</v>
       </c>
-      <c r="D120" s="11">
-        <v>0.55</v>
-      </c>
-      <c r="E120" s="12"/>
-      <c r="F120" s="13">
-        <v>0.621621621621622</v>
-      </c>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
+      <c r="D120" s="12">
+        <v>0.793103448275862</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0.842105263157895</v>
+      </c>
+      <c r="F120" s="12">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
     </row>
     <row r="121" ht="16.35" customHeight="1">
       <c r="A121" t="s" s="9">
         <v>248</v>
       </c>
       <c r="B121" t="s" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s" s="10">
         <v>249</v>
       </c>
-      <c r="D121" s="13">
-        <v>0.793103448275862</v>
-      </c>
-      <c r="E121" s="13">
-        <v>0.842105263157895</v>
-      </c>
-      <c r="F121" s="13">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
+      <c r="D121" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="E121" s="12">
+        <v>0.637931034482759</v>
+      </c>
+      <c r="F121" s="12">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" ht="16.35" customHeight="1">
       <c r="A122" t="s" s="9">
         <v>250</v>
       </c>
       <c r="B122" t="s" s="10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s" s="10">
         <v>251</v>
       </c>
-      <c r="D122" s="11">
-        <v>0.52</v>
-      </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="13">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-    </row>
-    <row r="123" ht="16.35" customHeight="1">
-      <c r="A123" t="s" s="9">
-        <v>252</v>
-      </c>
-      <c r="B123" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C123" t="s" s="10">
-        <v>253</v>
-      </c>
-      <c r="D123" s="13">
+      <c r="D122" s="12">
         <v>0.844827586206897</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E122" s="12">
         <v>0.8947368421052631</v>
       </c>
-      <c r="F123" s="13">
+      <c r="F122" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -872,7 +872,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -898,7 +898,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -911,6 +911,12 @@
     </xf>
     <xf numFmtId="59" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2019,7 +2025,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.67188" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.2266" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.72656" style="1" customWidth="1"/>
+    <col min="5" max="6" width="7.07812" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.07812" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2042,7 +2054,7 @@
       <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
       <c r="H1" t="s" s="2">
@@ -2069,7 +2081,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="6">
+        <f>(LARGE(D2:G2,1)+LARGE(D2:G2,2)+LARGE(D2:G2,3))/3</f>
+        <v>0.267076023391813</v>
+      </c>
     </row>
     <row r="3" ht="16.35" customHeight="1">
       <c r="A3" t="s" s="9">
@@ -2090,8 +2105,13 @@
       <c r="F3" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="13">
+        <v>0.847826086956522</v>
+      </c>
+      <c r="H3" s="12">
+        <f>(LARGE(D3:G3,1)+LARGE(D3:G3,2)+LARGE(D3:G3,3))/3</f>
+        <v>0.775101188144667</v>
+      </c>
     </row>
     <row r="4" ht="16.35" customHeight="1">
       <c r="A4" t="s" s="9">
@@ -2112,8 +2132,11 @@
       <c r="F4" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="11">
+        <f>(LARGE(D4:G4,1)+LARGE(D4:G4,2)+LARGE(D4:G4,3))/3</f>
+        <v>0.830987829935198</v>
+      </c>
     </row>
     <row r="5" ht="16.35" customHeight="1">
       <c r="A5" t="s" s="9">
@@ -2125,15 +2148,17 @@
       <c r="C5" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15">
+        <f>(LARGE(D5:G5,1)+LARGE(D5:G5,2)+LARGE(D5:G5,3))/3</f>
+      </c>
     </row>
     <row r="6" ht="16.35" customHeight="1">
       <c r="A6" t="s" s="9">
@@ -2154,8 +2179,11 @@
       <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="11">
+        <f>(LARGE(D6:G6,1)+LARGE(D6:G6,2)+LARGE(D6:G6,3))/3</f>
+        <v>0.453099415204678</v>
+      </c>
     </row>
     <row r="7" ht="16.35" customHeight="1">
       <c r="A7" t="s" s="9">
@@ -2176,8 +2204,11 @@
       <c r="F7" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="11">
+        <f>(LARGE(D7:G7,1)+LARGE(D7:G7,2)+LARGE(D7:G7,3))/3</f>
+        <v>0.714763711079501</v>
+      </c>
     </row>
     <row r="8" ht="16.35" customHeight="1">
       <c r="A8" t="s" s="9">
@@ -2198,8 +2229,11 @@
       <c r="F8" s="12">
         <v>0.702702702702703</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="11">
+        <f>(LARGE(D8:G8,1)+LARGE(D8:G8,2)+LARGE(D8:G8,3))/3</f>
+        <v>0.600550023707919</v>
+      </c>
     </row>
     <row r="9" ht="16.35" customHeight="1">
       <c r="A9" t="s" s="9">
@@ -2220,8 +2254,11 @@
       <c r="F9" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="11">
+        <f>(LARGE(D9:G9,1)+LARGE(D9:G9,2)+LARGE(D9:G9,3))/3</f>
+        <v>0.736072388177651</v>
+      </c>
     </row>
     <row r="10" ht="16.35" customHeight="1">
       <c r="A10" t="s" s="9">
@@ -2242,8 +2279,11 @@
       <c r="F10" s="12">
         <v>0.702702702702703</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="11">
+        <f>(LARGE(D10:G10,1)+LARGE(D10:G10,2)+LARGE(D10:G10,3))/3</f>
+        <v>0.599672830725462</v>
+      </c>
     </row>
     <row r="11" ht="16.35" customHeight="1">
       <c r="A11" t="s" s="9">
@@ -2264,8 +2304,13 @@
       <c r="F11" s="12">
         <v>0.675675675675676</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H11" s="12">
+        <f>(LARGE(D11:G11,1)+LARGE(D11:G11,2)+LARGE(D11:G11,3))/3</f>
+        <v>0.752303791205393</v>
+      </c>
     </row>
     <row r="12" ht="16.35" customHeight="1">
       <c r="A12" t="s" s="9">
@@ -2286,8 +2331,11 @@
       <c r="F12" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="11">
+        <f>(LARGE(D12:G12,1)+LARGE(D12:G12,2)+LARGE(D12:G12,3))/3</f>
+        <v>0.671670617986408</v>
+      </c>
     </row>
     <row r="13" ht="16.35" customHeight="1">
       <c r="A13" t="s" s="9">
@@ -2308,8 +2356,11 @@
       <c r="F13" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="11">
+        <f>(LARGE(D13:G13,1)+LARGE(D13:G13,2)+LARGE(D13:G13,3))/3</f>
+        <v>0.596657183499289</v>
+      </c>
     </row>
     <row r="14" ht="16.35" customHeight="1">
       <c r="A14" t="s" s="9">
@@ -2330,8 +2381,13 @@
       <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H14" s="11">
+        <f>(LARGE(D14:G14,1)+LARGE(D14:G14,2)+LARGE(D14:G14,3))/3</f>
+        <v>0.538774472412916</v>
+      </c>
     </row>
     <row r="15" ht="16.35" customHeight="1">
       <c r="A15" t="s" s="9">
@@ -2352,8 +2408,13 @@
       <c r="F15" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="13">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="H15" s="12">
+        <f>(LARGE(D15:G15,1)+LARGE(D15:G15,2)+LARGE(D15:G15,3))/3</f>
+        <v>0.766346437971152</v>
+      </c>
     </row>
     <row r="16" ht="16.35" customHeight="1">
       <c r="A16" t="s" s="9">
@@ -2374,8 +2435,11 @@
       <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="11">
+        <f>(LARGE(D16:G16,1)+LARGE(D16:G16,2)+LARGE(D16:G16,3))/3</f>
+        <v>0.377076023391813</v>
+      </c>
     </row>
     <row r="17" ht="16.35" customHeight="1">
       <c r="A17" t="s" s="9">
@@ -2396,8 +2460,13 @@
       <c r="F17" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H17" s="12">
+        <f>(LARGE(D17:G17,1)+LARGE(D17:G17,2)+LARGE(D17:G17,3))/3</f>
+        <v>0.8392328255028489</v>
+      </c>
     </row>
     <row r="18" ht="16.35" customHeight="1">
       <c r="A18" t="s" s="9">
@@ -2418,8 +2487,11 @@
       <c r="F18" s="11">
         <v>0</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="11">
+        <f>(LARGE(D18:G18,1)+LARGE(D18:G18,2)+LARGE(D18:G18,3))/3</f>
+        <v>0.40719298245614</v>
+      </c>
     </row>
     <row r="19" ht="16.35" customHeight="1">
       <c r="A19" t="s" s="9">
@@ -2440,8 +2512,13 @@
       <c r="F19" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H19" s="12">
+        <f>(LARGE(D19:G19,1)+LARGE(D19:G19,2)+LARGE(D19:G19,3))/3</f>
+        <v>0.844606620350328</v>
+      </c>
     </row>
     <row r="20" ht="16.35" customHeight="1">
       <c r="A20" t="s" s="9">
@@ -2462,8 +2539,11 @@
       <c r="F20" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="11">
+        <f>(LARGE(D20:G20,1)+LARGE(D20:G20,2)+LARGE(D20:G20,3))/3</f>
+        <v>0.590131183815394</v>
+      </c>
     </row>
     <row r="21" ht="16.35" customHeight="1">
       <c r="A21" t="s" s="9">
@@ -2484,8 +2564,11 @@
       <c r="F21" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12">
+        <f>(LARGE(D21:G21,1)+LARGE(D21:G21,2)+LARGE(D21:G21,3))/3</f>
+        <v>0.6539706675822829</v>
+      </c>
     </row>
     <row r="22" ht="16.35" customHeight="1">
       <c r="A22" t="s" s="9">
@@ -2506,8 +2589,11 @@
       <c r="F22" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="11">
+        <f>(LARGE(D22:G22,1)+LARGE(D22:G22,2)+LARGE(D22:G22,3))/3</f>
+        <v>0.767596017069701</v>
+      </c>
     </row>
     <row r="23" ht="16.35" customHeight="1">
       <c r="A23" t="s" s="9">
@@ -2528,8 +2614,11 @@
       <c r="F23" s="12">
         <v>1</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12">
+        <f>(LARGE(D23:G23,1)+LARGE(D23:G23,2)+LARGE(D23:G23,3))/3</f>
+        <v>0.785339786247227</v>
+      </c>
     </row>
     <row r="24" ht="16.35" customHeight="1">
       <c r="A24" t="s" s="9">
@@ -2544,12 +2633,14 @@
       <c r="D24" s="12">
         <v>0.586206896551724</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15">
+        <f>(LARGE(D24:G24,1)+LARGE(D24:G24,2)+LARGE(D24:G24,3))/3</f>
+      </c>
     </row>
     <row r="25" ht="16.35" customHeight="1">
       <c r="A25" t="s" s="9">
@@ -2570,8 +2661,11 @@
       <c r="F25" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="11">
+        <f>(LARGE(D25:G25,1)+LARGE(D25:G25,2)+LARGE(D25:G25,3))/3</f>
+        <v>0.761732258574364</v>
+      </c>
     </row>
     <row r="26" ht="16.35" customHeight="1">
       <c r="A26" t="s" s="9">
@@ -2592,8 +2686,13 @@
       <c r="F26" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="G26" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H26" s="12">
+        <f>(LARGE(D26:G26,1)+LARGE(D26:G26,2)+LARGE(D26:G26,3))/3</f>
+        <v>0.859937740944606</v>
+      </c>
     </row>
     <row r="27" ht="16.35" customHeight="1">
       <c r="A27" t="s" s="9">
@@ -2614,8 +2713,11 @@
       <c r="F27" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="11">
+        <f>(LARGE(D27:G27,1)+LARGE(D27:G27,2)+LARGE(D27:G27,3))/3</f>
+        <v>0.734262683736368</v>
+      </c>
     </row>
     <row r="28" ht="16.35" customHeight="1">
       <c r="A28" t="s" s="9">
@@ -2636,8 +2738,11 @@
       <c r="F28" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="12">
+        <f>(LARGE(D28:G28,1)+LARGE(D28:G28,2)+LARGE(D28:G28,3))/3</f>
+        <v>0.6885706032711481</v>
+      </c>
     </row>
     <row r="29" ht="16.35" customHeight="1">
       <c r="A29" t="s" s="9">
@@ -2658,8 +2763,11 @@
       <c r="F29" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="11">
+        <f>(LARGE(D29:G29,1)+LARGE(D29:G29,2)+LARGE(D29:G29,3))/3</f>
+        <v>0.798531689584321</v>
+      </c>
     </row>
     <row r="30" ht="16.35" customHeight="1">
       <c r="A30" t="s" s="9">
@@ -2680,8 +2788,11 @@
       <c r="F30" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="12">
+        <f>(LARGE(D30:G30,1)+LARGE(D30:G30,2)+LARGE(D30:G30,3))/3</f>
+        <v>0.744434089261676</v>
+      </c>
     </row>
     <row r="31" ht="16.35" customHeight="1">
       <c r="A31" t="s" s="9">
@@ -2702,8 +2813,11 @@
       <c r="F31" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="11">
+        <f>(LARGE(D31:G31,1)+LARGE(D31:G31,2)+LARGE(D31:G31,3))/3</f>
+        <v>0.673613086770982</v>
+      </c>
     </row>
     <row r="32" ht="16.35" customHeight="1">
       <c r="A32" t="s" s="9">
@@ -2724,8 +2838,11 @@
       <c r="F32" s="11">
         <v>0</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="11">
+        <f>(LARGE(D32:G32,1)+LARGE(D32:G32,2)+LARGE(D32:G32,3))/3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" ht="16.35" customHeight="1">
       <c r="A33" t="s" s="9">
@@ -2746,8 +2863,11 @@
       <c r="F33" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="12">
+        <f>(LARGE(D33:G33,1)+LARGE(D33:G33,2)+LARGE(D33:G33,3))/3</f>
+        <v>0.66759318301968</v>
+      </c>
     </row>
     <row r="34" ht="16.35" customHeight="1">
       <c r="A34" t="s" s="9">
@@ -2768,8 +2888,11 @@
       <c r="F34" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="11">
+        <f>(LARGE(D34:G34,1)+LARGE(D34:G34,2)+LARGE(D34:G34,3))/3</f>
+        <v>0.625348506401138</v>
+      </c>
     </row>
     <row r="35" ht="16.35" customHeight="1">
       <c r="A35" t="s" s="9">
@@ -2790,8 +2913,13 @@
       <c r="F35" s="12">
         <v>0.675675675675676</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="G35" s="13">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="H35" s="12">
+        <f>(LARGE(D35:G35,1)+LARGE(D35:G35,2)+LARGE(D35:G35,3))/3</f>
+        <v>0.662756459608034</v>
+      </c>
     </row>
     <row r="36" ht="16.35" customHeight="1">
       <c r="A36" t="s" s="9">
@@ -2812,8 +2940,13 @@
       <c r="F36" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="G36" s="13">
+        <v>0.847826086956522</v>
+      </c>
+      <c r="H36" s="11">
+        <f>(LARGE(D36:G36,1)+LARGE(D36:G36,2)+LARGE(D36:G36,3))/3</f>
+        <v>0.7662122992557781</v>
+      </c>
     </row>
     <row r="37" ht="16.35" customHeight="1">
       <c r="A37" t="s" s="9">
@@ -2834,8 +2967,11 @@
       <c r="F37" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="11">
+        <f>(LARGE(D37:G37,1)+LARGE(D37:G37,2)+LARGE(D37:G37,3))/3</f>
+        <v>0.6624498182392921</v>
+      </c>
     </row>
     <row r="38" ht="16.35" customHeight="1">
       <c r="A38" t="s" s="9">
@@ -2856,8 +2992,11 @@
       <c r="F38" s="11">
         <v>0</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="11">
+        <f>(LARGE(D38:G38,1)+LARGE(D38:G38,2)+LARGE(D38:G38,3))/3</f>
+        <v>0.247777777777778</v>
+      </c>
     </row>
     <row r="39" ht="16.35" customHeight="1">
       <c r="A39" t="s" s="9">
@@ -2878,8 +3017,11 @@
       <c r="F39" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="11">
+        <f>(LARGE(D39:G39,1)+LARGE(D39:G39,2)+LARGE(D39:G39,3))/3</f>
+        <v>0.636586059743955</v>
+      </c>
     </row>
     <row r="40" ht="16.35" customHeight="1">
       <c r="A40" t="s" s="9">
@@ -2900,8 +3042,13 @@
       <c r="F40" s="11">
         <v>0</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="G40" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H40" s="11">
+        <f>(LARGE(D40:G40,1)+LARGE(D40:G40,2)+LARGE(D40:G40,3))/3</f>
+        <v>0.768093058733791</v>
+      </c>
     </row>
     <row r="41" ht="16.35" customHeight="1">
       <c r="A41" t="s" s="9">
@@ -2922,8 +3069,13 @@
       <c r="F41" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="G41" s="13">
+        <v>0.847826086956522</v>
+      </c>
+      <c r="H41" s="12">
+        <f>(LARGE(D41:G41,1)+LARGE(D41:G41,2)+LARGE(D41:G41,3))/3</f>
+        <v>0.861081905704331</v>
+      </c>
     </row>
     <row r="42" ht="16.35" customHeight="1">
       <c r="A42" t="s" s="9">
@@ -2944,8 +3096,11 @@
       <c r="F42" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="11">
+        <f>(LARGE(D42:G42,1)+LARGE(D42:G42,2)+LARGE(D42:G42,3))/3</f>
+        <v>0.611098466887941</v>
+      </c>
     </row>
     <row r="43" ht="16.35" customHeight="1">
       <c r="A43" t="s" s="9">
@@ -2966,8 +3121,11 @@
       <c r="F43" s="12">
         <v>0.972972972972973</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="11">
+        <f>(LARGE(D43:G43,1)+LARGE(D43:G43,2)+LARGE(D43:G43,3))/3</f>
+        <v>0.915084558242453</v>
+      </c>
     </row>
     <row r="44" ht="16.35" customHeight="1">
       <c r="A44" t="s" s="9">
@@ -2988,8 +3146,11 @@
       <c r="F44" s="12">
         <v>0.594594594594595</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="11">
+        <f>(LARGE(D44:G44,1)+LARGE(D44:G44,2)+LARGE(D44:G44,3))/3</f>
+        <v>0.405975975975976</v>
+      </c>
     </row>
     <row r="45" ht="16.35" customHeight="1">
       <c r="A45" t="s" s="9">
@@ -3010,8 +3171,11 @@
       <c r="F45" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="11">
+        <f>(LARGE(D45:G45,1)+LARGE(D45:G45,2)+LARGE(D45:G45,3))/3</f>
+        <v>0.745367472735894</v>
+      </c>
     </row>
     <row r="46" ht="16.35" customHeight="1">
       <c r="A46" t="s" s="9">
@@ -3032,8 +3196,11 @@
       <c r="F46" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="11">
+        <f>(LARGE(D46:G46,1)+LARGE(D46:G46,2)+LARGE(D46:G46,3))/3</f>
+        <v>0.559058005373795</v>
+      </c>
     </row>
     <row r="47" ht="16.35" customHeight="1">
       <c r="A47" t="s" s="9">
@@ -3048,12 +3215,17 @@
       <c r="D47" s="11">
         <v>0.71</v>
       </c>
-      <c r="E47" s="13"/>
+      <c r="E47" s="12">
+        <v>0.719298245614035</v>
+      </c>
       <c r="F47" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="11">
+        <f>(LARGE(D47:G47,1)+LARGE(D47:G47,2)+LARGE(D47:G47,3))/3</f>
+        <v>0.791748063853327</v>
+      </c>
     </row>
     <row r="48" ht="16.35" customHeight="1">
       <c r="A48" t="s" s="9">
@@ -3074,8 +3246,13 @@
       <c r="F48" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="G48" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H48" s="11">
+        <f>(LARGE(D48:G48,1)+LARGE(D48:G48,2)+LARGE(D48:G48,3))/3</f>
+        <v>0.848590169116485</v>
+      </c>
     </row>
     <row r="49" ht="16.35" customHeight="1">
       <c r="A49" t="s" s="9">
@@ -3096,8 +3273,11 @@
       <c r="F49" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="11">
+        <f>(LARGE(D49:G49,1)+LARGE(D49:G49,2)+LARGE(D49:G49,3))/3</f>
+        <v>0.733671566303145</v>
+      </c>
     </row>
     <row r="50" ht="16.35" customHeight="1">
       <c r="A50" t="s" s="9">
@@ -3118,8 +3298,13 @@
       <c r="F50" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="G50" s="13">
+        <v>0.847826086956522</v>
+      </c>
+      <c r="H50" s="11">
+        <f>(LARGE(D50:G50,1)+LARGE(D50:G50,2)+LARGE(D50:G50,3))/3</f>
+        <v>0.787924010967489</v>
+      </c>
     </row>
     <row r="51" ht="16.35" customHeight="1">
       <c r="A51" t="s" s="9">
@@ -3140,8 +3325,13 @@
       <c r="F51" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="G51" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H51" s="12">
+        <f>(LARGE(D51:G51,1)+LARGE(D51:G51,2)+LARGE(D51:G51,3))/3</f>
+        <v>0.7766439208086811</v>
+      </c>
     </row>
     <row r="52" ht="16.35" customHeight="1">
       <c r="A52" t="s" s="9">
@@ -3156,12 +3346,14 @@
       <c r="D52" s="11">
         <v>0.6</v>
       </c>
-      <c r="E52" s="13"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="11">
         <v>0</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15">
+        <f>(LARGE(D52:G52,1)+LARGE(D52:G52,2)+LARGE(D52:G52,3))/3</f>
+      </c>
     </row>
     <row r="53" ht="16.35" customHeight="1">
       <c r="A53" t="s" s="9">
@@ -3182,8 +3374,11 @@
       <c r="F53" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="11">
+        <f>(LARGE(D53:G53,1)+LARGE(D53:G53,2)+LARGE(D53:G53,3))/3</f>
+        <v>0.51214161529951</v>
+      </c>
     </row>
     <row r="54" ht="16.35" customHeight="1">
       <c r="A54" t="s" s="9">
@@ -3204,8 +3399,11 @@
       <c r="F54" s="11">
         <v>0</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="11">
+        <f>(LARGE(D54:G54,1)+LARGE(D54:G54,2)+LARGE(D54:G54,3))/3</f>
+        <v>0.294615849969752</v>
+      </c>
     </row>
     <row r="55" ht="16.35" customHeight="1">
       <c r="A55" t="s" s="9">
@@ -3226,8 +3424,11 @@
       <c r="F55" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="11">
+        <f>(LARGE(D55:G55,1)+LARGE(D55:G55,2)+LARGE(D55:G55,3))/3</f>
+        <v>0.787697170855066</v>
+      </c>
     </row>
     <row r="56" ht="16.35" customHeight="1">
       <c r="A56" t="s" s="9">
@@ -3248,8 +3449,11 @@
       <c r="F56" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="11">
+        <f>(LARGE(D56:G56,1)+LARGE(D56:G56,2)+LARGE(D56:G56,3))/3</f>
+        <v>0.611455666192508</v>
+      </c>
     </row>
     <row r="57" ht="16.35" customHeight="1">
       <c r="A57" t="s" s="9">
@@ -3270,8 +3474,11 @@
       <c r="F57" s="12">
         <v>0.756756756756757</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="12">
+        <f>(LARGE(D57:G57,1)+LARGE(D57:G57,2)+LARGE(D57:G57,3))/3</f>
+        <v>0.809521863060883</v>
+      </c>
     </row>
     <row r="58" ht="16.35" customHeight="1">
       <c r="A58" t="s" s="9">
@@ -3292,8 +3499,11 @@
       <c r="F58" s="12">
         <v>0.675675675675676</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="12">
+        <f>(LARGE(D58:G58,1)+LARGE(D58:G58,2)+LARGE(D58:G58,3))/3</f>
+        <v>0.694573884229057</v>
+      </c>
     </row>
     <row r="59" ht="16.35" customHeight="1">
       <c r="A59" t="s" s="9">
@@ -3314,8 +3524,13 @@
       <c r="F59" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+      <c r="G59" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H59" s="11">
+        <f>(LARGE(D59:G59,1)+LARGE(D59:G59,2)+LARGE(D59:G59,3))/3</f>
+        <v>0.754304739522131</v>
+      </c>
     </row>
     <row r="60" ht="16.35" customHeight="1">
       <c r="A60" t="s" s="9">
@@ -3336,8 +3551,11 @@
       <c r="F60" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="11">
+        <f>(LARGE(D60:G60,1)+LARGE(D60:G60,2)+LARGE(D60:G60,3))/3</f>
+        <v>0.7544191559981031</v>
+      </c>
     </row>
     <row r="61" ht="16.35" customHeight="1">
       <c r="A61" t="s" s="9">
@@ -3358,8 +3576,11 @@
       <c r="F61" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="11">
+        <f>(LARGE(D61:G61,1)+LARGE(D61:G61,2)+LARGE(D61:G61,3))/3</f>
+        <v>0.698398925241031</v>
+      </c>
     </row>
     <row r="62" ht="16.35" customHeight="1">
       <c r="A62" t="s" s="9">
@@ -3377,9 +3598,11 @@
       <c r="E62" s="12">
         <v>0.368421052631579</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15">
+        <f>(LARGE(D62:G62,1)+LARGE(D62:G62,2)+LARGE(D62:G62,3))/3</f>
+      </c>
     </row>
     <row r="63" ht="16.35" customHeight="1">
       <c r="A63" t="s" s="9">
@@ -3400,8 +3623,13 @@
       <c r="F63" s="11">
         <v>0</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="G63" s="13">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="H63" s="11">
+        <f>(LARGE(D63:G63,1)+LARGE(D63:G63,2)+LARGE(D63:G63,3))/3</f>
+        <v>0.624091024663107</v>
+      </c>
     </row>
     <row r="64" ht="16.35" customHeight="1">
       <c r="A64" t="s" s="9">
@@ -3422,8 +3650,11 @@
       <c r="F64" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="11">
+        <f>(LARGE(D64:G64,1)+LARGE(D64:G64,2)+LARGE(D64:G64,3))/3</f>
+        <v>0.696127706654022</v>
+      </c>
     </row>
     <row r="65" ht="16.35" customHeight="1">
       <c r="A65" t="s" s="9">
@@ -3444,8 +3675,11 @@
       <c r="F65" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="12">
+        <f>(LARGE(D65:G65,1)+LARGE(D65:G65,2)+LARGE(D65:G65,3))/3</f>
+        <v>0.51827962263534</v>
+      </c>
     </row>
     <row r="66" ht="16.35" customHeight="1">
       <c r="A66" t="s" s="9">
@@ -3466,8 +3700,13 @@
       <c r="F66" s="12">
         <v>0.594594594594595</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
+      <c r="G66" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H66" s="12">
+        <f>(LARGE(D66:G66,1)+LARGE(D66:G66,2)+LARGE(D66:G66,3))/3</f>
+        <v>0.6551013255818749</v>
+      </c>
     </row>
     <row r="67" ht="16.35" customHeight="1">
       <c r="A67" t="s" s="9">
@@ -3488,8 +3727,11 @@
       <c r="F67" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="11">
+        <f>(LARGE(D67:G67,1)+LARGE(D67:G67,2)+LARGE(D67:G67,3))/3</f>
+        <v>0.780224434961277</v>
+      </c>
     </row>
     <row r="68" ht="16.35" customHeight="1">
       <c r="A68" t="s" s="9">
@@ -3510,8 +3752,13 @@
       <c r="F68" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
+      <c r="G68" s="13">
+        <v>0.847826086956522</v>
+      </c>
+      <c r="H68" s="11">
+        <f>(LARGE(D68:G68,1)+LARGE(D68:G68,2)+LARGE(D68:G68,3))/3</f>
+        <v>0.834590677634156</v>
+      </c>
     </row>
     <row r="69" ht="16.35" customHeight="1">
       <c r="A69" t="s" s="9">
@@ -3532,8 +3779,11 @@
       <c r="F69" s="11">
         <v>0</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="11">
+        <f>(LARGE(D69:G69,1)+LARGE(D69:G69,2)+LARGE(D69:G69,3))/3</f>
+        <v>0.597485380116959</v>
+      </c>
     </row>
     <row r="70" ht="16.35" customHeight="1">
       <c r="A70" t="s" s="9">
@@ -3554,8 +3804,13 @@
       <c r="F70" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+      <c r="G70" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H70" s="12">
+        <f>(LARGE(D70:G70,1)+LARGE(D70:G70,2)+LARGE(D70:G70,3))/3</f>
+        <v>0.70741679894998</v>
+      </c>
     </row>
     <row r="71" ht="16.35" customHeight="1">
       <c r="A71" t="s" s="9">
@@ -3576,8 +3831,11 @@
       <c r="F71" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="11">
+        <f>(LARGE(D71:G71,1)+LARGE(D71:G71,2)+LARGE(D71:G71,3))/3</f>
+        <v>0.709116484905959</v>
+      </c>
     </row>
     <row r="72" ht="16.35" customHeight="1">
       <c r="A72" t="s" s="9">
@@ -3598,8 +3856,11 @@
       <c r="F72" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="11">
+        <f>(LARGE(D72:G72,1)+LARGE(D72:G72,2)+LARGE(D72:G72,3))/3</f>
+        <v>0.646241504662557</v>
+      </c>
     </row>
     <row r="73" ht="16.35" customHeight="1">
       <c r="A73" t="s" s="9">
@@ -3620,8 +3881,11 @@
       <c r="F73" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="12">
+        <f>(LARGE(D73:G73,1)+LARGE(D73:G73,2)+LARGE(D73:G73,3))/3</f>
+        <v>0.577947275769417</v>
+      </c>
     </row>
     <row r="74" ht="16.35" customHeight="1">
       <c r="A74" t="s" s="9">
@@ -3642,8 +3906,13 @@
       <c r="F74" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
+      <c r="G74" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H74" s="12">
+        <f>(LARGE(D74:G74,1)+LARGE(D74:G74,2)+LARGE(D74:G74,3))/3</f>
+        <v>0.7915771843807829</v>
+      </c>
     </row>
     <row r="75" ht="16.35" customHeight="1">
       <c r="A75" t="s" s="9">
@@ -3664,8 +3933,13 @@
       <c r="F75" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="G75" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H75" s="11">
+        <f>(LARGE(D75:G75,1)+LARGE(D75:G75,2)+LARGE(D75:G75,3))/3</f>
+        <v>0.775582424529793</v>
+      </c>
     </row>
     <row r="76" ht="16.35" customHeight="1">
       <c r="A76" t="s" s="9">
@@ -3686,8 +3960,11 @@
       <c r="F76" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="12">
+        <f>(LARGE(D76:G76,1)+LARGE(D76:G76,2)+LARGE(D76:G76,3))/3</f>
+        <v>0.821964432672237</v>
+      </c>
     </row>
     <row r="77" ht="16.35" customHeight="1">
       <c r="A77" t="s" s="9">
@@ -3708,8 +3985,13 @@
       <c r="F77" s="12">
         <v>0.972972972972973</v>
       </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
+      <c r="G77" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H77" s="12">
+        <f>(LARGE(D77:G77,1)+LARGE(D77:G77,2)+LARGE(D77:G77,3))/3</f>
+        <v>0.944509845598775</v>
+      </c>
     </row>
     <row r="78" ht="16.35" customHeight="1">
       <c r="A78" t="s" s="9">
@@ -3730,8 +4012,11 @@
       <c r="F78" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="12">
+        <f>(LARGE(D78:G78,1)+LARGE(D78:G78,2)+LARGE(D78:G78,3))/3</f>
+        <v>0.674086972635067</v>
+      </c>
     </row>
     <row r="79" ht="16.35" customHeight="1">
       <c r="A79" t="s" s="9">
@@ -3752,8 +4037,11 @@
       <c r="F79" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="11">
+        <f>(LARGE(D79:G79,1)+LARGE(D79:G79,2)+LARGE(D79:G79,3))/3</f>
+        <v>0.70683262209578</v>
+      </c>
     </row>
     <row r="80" ht="16.35" customHeight="1">
       <c r="A80" t="s" s="9">
@@ -3774,8 +4062,11 @@
       <c r="F80" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="11">
+        <f>(LARGE(D80:G80,1)+LARGE(D80:G80,2)+LARGE(D80:G80,3))/3</f>
+        <v>0.608681839734471</v>
+      </c>
     </row>
     <row r="81" ht="16.35" customHeight="1">
       <c r="A81" t="s" s="9">
@@ -3796,8 +4087,13 @@
       <c r="F81" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
+      <c r="G81" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H81" s="12">
+        <f>(LARGE(D81:G81,1)+LARGE(D81:G81,2)+LARGE(D81:G81,3))/3</f>
+        <v>0.848241834511858</v>
+      </c>
     </row>
     <row r="82" ht="16.35" customHeight="1">
       <c r="A82" t="s" s="9">
@@ -3818,8 +4114,13 @@
       <c r="F82" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
+      <c r="G82" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H82" s="12">
+        <f>(LARGE(D82:G82,1)+LARGE(D82:G82,2)+LARGE(D82:G82,3))/3</f>
+        <v>0.815366854268456</v>
+      </c>
     </row>
     <row r="83" ht="16.35" customHeight="1">
       <c r="A83" t="s" s="9">
@@ -3840,8 +4141,11 @@
       <c r="F83" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="11">
+        <f>(LARGE(D83:G83,1)+LARGE(D83:G83,2)+LARGE(D83:G83,3))/3</f>
+        <v>0.791920341394026</v>
+      </c>
     </row>
     <row r="84" ht="16.35" customHeight="1">
       <c r="A84" t="s" s="9">
@@ -3862,8 +4166,13 @@
       <c r="F84" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="G84" s="13">
+        <v>0.847826086956522</v>
+      </c>
+      <c r="H84" s="11">
+        <f>(LARGE(D84:G84,1)+LARGE(D84:G84,2)+LARGE(D84:G84,3))/3</f>
+        <v>0.785581668625147</v>
+      </c>
     </row>
     <row r="85" ht="16.35" customHeight="1">
       <c r="A85" t="s" s="9">
@@ -3884,8 +4193,11 @@
       <c r="F85" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="11">
+        <f>(LARGE(D85:G85,1)+LARGE(D85:G85,2)+LARGE(D85:G85,3))/3</f>
+        <v>0.804837995890628</v>
+      </c>
     </row>
     <row r="86" ht="16.35" customHeight="1">
       <c r="A86" t="s" s="9">
@@ -3906,8 +4218,11 @@
       <c r="F86" s="11">
         <v>0</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="11">
+        <f>(LARGE(D86:G86,1)+LARGE(D86:G86,2)+LARGE(D86:G86,3))/3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" ht="16.35" customHeight="1">
       <c r="A87" t="s" s="9">
@@ -3928,8 +4243,11 @@
       <c r="F87" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="11">
+        <f>(LARGE(D87:G87,1)+LARGE(D87:G87,2)+LARGE(D87:G87,3))/3</f>
+        <v>0.727537537537538</v>
+      </c>
     </row>
     <row r="88" ht="16.35" customHeight="1">
       <c r="A88" t="s" s="9">
@@ -3950,8 +4268,13 @@
       <c r="F88" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="G88" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H88" s="12">
+        <f>(LARGE(D88:G88,1)+LARGE(D88:G88,2)+LARGE(D88:G88,3))/3</f>
+        <v>0.800984050411968</v>
+      </c>
     </row>
     <row r="89" ht="16.35" customHeight="1">
       <c r="A89" t="s" s="9">
@@ -3972,8 +4295,13 @@
       <c r="F89" s="12">
         <v>0.8378378378378381</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+      <c r="G89" s="13">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="H89" s="12">
+        <f>(LARGE(D89:G89,1)+LARGE(D89:G89,2)+LARGE(D89:G89,3))/3</f>
+        <v>0.790212409205544</v>
+      </c>
     </row>
     <row r="90" ht="16.35" customHeight="1">
       <c r="A90" t="s" s="9">
@@ -3994,8 +4322,13 @@
       <c r="F90" s="11">
         <v>0</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
+      <c r="G90" s="13">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="H90" s="12">
+        <f>(LARGE(D90:G90,1)+LARGE(D90:G90,2)+LARGE(D90:G90,3))/3</f>
+        <v>0.734970234181155</v>
+      </c>
     </row>
     <row r="91" ht="16.35" customHeight="1">
       <c r="A91" t="s" s="9">
@@ -4016,8 +4349,11 @@
       <c r="F91" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="11">
+        <f>(LARGE(D91:G91,1)+LARGE(D91:G91,2)+LARGE(D91:G91,3))/3</f>
+        <v>0.639344080923028</v>
+      </c>
     </row>
     <row r="92" ht="16.35" customHeight="1">
       <c r="A92" t="s" s="9">
@@ -4038,8 +4374,11 @@
       <c r="F92" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="11">
+        <f>(LARGE(D92:G92,1)+LARGE(D92:G92,2)+LARGE(D92:G92,3))/3</f>
+        <v>0.5575896949581159</v>
+      </c>
     </row>
     <row r="93" ht="16.35" customHeight="1">
       <c r="A93" t="s" s="9">
@@ -4060,8 +4399,11 @@
       <c r="F93" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="11">
+        <f>(LARGE(D93:G93,1)+LARGE(D93:G93,2)+LARGE(D93:G93,3))/3</f>
+        <v>0.783616247826774</v>
+      </c>
     </row>
     <row r="94" ht="16.35" customHeight="1">
       <c r="A94" t="s" s="9">
@@ -4082,8 +4424,11 @@
       <c r="F94" s="11">
         <v>0</v>
       </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="11">
+        <f>(LARGE(D94:G94,1)+LARGE(D94:G94,2)+LARGE(D94:G94,3))/3</f>
+        <v>0.272232304900182</v>
+      </c>
     </row>
     <row r="95" ht="16.35" customHeight="1">
       <c r="A95" t="s" s="9">
@@ -4104,8 +4449,11 @@
       <c r="F95" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="11">
+        <f>(LARGE(D95:G95,1)+LARGE(D95:G95,2)+LARGE(D95:G95,3))/3</f>
+        <v>0.692434012960329</v>
+      </c>
     </row>
     <row r="96" ht="16.35" customHeight="1">
       <c r="A96" t="s" s="9">
@@ -4126,8 +4474,11 @@
       <c r="F96" s="12">
         <v>0.567567567567568</v>
       </c>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="11">
+        <f>(LARGE(D96:G96,1)+LARGE(D96:G96,2)+LARGE(D96:G96,3))/3</f>
+        <v>0.4503003003003</v>
+      </c>
     </row>
     <row r="97" ht="16.35" customHeight="1">
       <c r="A97" t="s" s="9">
@@ -4148,8 +4499,13 @@
       <c r="F97" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
+      <c r="G97" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H97" s="11">
+        <f>(LARGE(D97:G97,1)+LARGE(D97:G97,2)+LARGE(D97:G97,3))/3</f>
+        <v>0.775636918382914</v>
+      </c>
     </row>
     <row r="98" ht="16.35" customHeight="1">
       <c r="A98" t="s" s="9">
@@ -4170,8 +4526,11 @@
       <c r="F98" s="12">
         <v>0.756756756756757</v>
       </c>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="11">
+        <f>(LARGE(D98:G98,1)+LARGE(D98:G98,2)+LARGE(D98:G98,3))/3</f>
+        <v>0.787106053421843</v>
+      </c>
     </row>
     <row r="99" ht="16.35" customHeight="1">
       <c r="A99" t="s" s="9">
@@ -4192,8 +4551,13 @@
       <c r="F99" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
+      <c r="G99" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H99" s="12">
+        <f>(LARGE(D99:G99,1)+LARGE(D99:G99,2)+LARGE(D99:G99,3))/3</f>
+        <v>0.807086262463837</v>
+      </c>
     </row>
     <row r="100" ht="16.35" customHeight="1">
       <c r="A100" t="s" s="9">
@@ -4214,8 +4578,11 @@
       <c r="F100" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="11">
+        <f>(LARGE(D100:G100,1)+LARGE(D100:G100,2)+LARGE(D100:G100,3))/3</f>
+        <v>0.652375533428165</v>
+      </c>
     </row>
     <row r="101" ht="16.35" customHeight="1">
       <c r="A101" t="s" s="9">
@@ -4236,8 +4603,11 @@
       <c r="F101" s="12">
         <v>0.8378378378378381</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="12">
+        <f>(LARGE(D101:G101,1)+LARGE(D101:G101,2)+LARGE(D101:G101,3))/3</f>
+        <v>0.621485369216767</v>
+      </c>
     </row>
     <row r="102" ht="16.35" customHeight="1">
       <c r="A102" t="s" s="9">
@@ -4258,8 +4628,11 @@
       <c r="F102" s="11">
         <v>0</v>
       </c>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="11">
+        <f>(LARGE(D102:G102,1)+LARGE(D102:G102,2)+LARGE(D102:G102,3))/3</f>
+        <v>0.38374269005848</v>
+      </c>
     </row>
     <row r="103" ht="16.35" customHeight="1">
       <c r="A103" t="s" s="9">
@@ -4280,8 +4653,13 @@
       <c r="F103" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
+      <c r="G103" s="13">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="H103" s="12">
+        <f>(LARGE(D103:G103,1)+LARGE(D103:G103,2)+LARGE(D103:G103,3))/3</f>
+        <v>0.839780797131069</v>
+      </c>
     </row>
     <row r="104" ht="16.35" customHeight="1">
       <c r="A104" t="s" s="9">
@@ -4302,8 +4680,11 @@
       <c r="F104" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="12">
+        <f>(LARGE(D104:G104,1)+LARGE(D104:G104,2)+LARGE(D104:G104,3))/3</f>
+        <v>0.643999716594998</v>
+      </c>
     </row>
     <row r="105" ht="16.35" customHeight="1">
       <c r="A105" t="s" s="9">
@@ -4324,8 +4705,11 @@
       <c r="F105" s="12">
         <v>0.648648648648649</v>
       </c>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="11">
+        <f>(LARGE(D105:G105,1)+LARGE(D105:G105,2)+LARGE(D105:G105,3))/3</f>
+        <v>0.656801011537854</v>
+      </c>
     </row>
     <row r="106" ht="16.35" customHeight="1">
       <c r="A106" t="s" s="9">
@@ -4346,8 +4730,11 @@
       <c r="F106" s="12">
         <v>0.756756756756757</v>
       </c>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="11">
+        <f>(LARGE(D106:G106,1)+LARGE(D106:G106,2)+LARGE(D106:G106,3))/3</f>
+        <v>0.606872135293188</v>
+      </c>
     </row>
     <row r="107" ht="16.35" customHeight="1">
       <c r="A107" t="s" s="9">
@@ -4368,8 +4755,13 @@
       <c r="F107" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
+      <c r="G107" s="13">
+        <v>0.847826086956522</v>
+      </c>
+      <c r="H107" s="12">
+        <f>(LARGE(D107:G107,1)+LARGE(D107:G107,2)+LARGE(D107:G107,3))/3</f>
+        <v>0.798967159379059</v>
+      </c>
     </row>
     <row r="108" ht="16.35" customHeight="1">
       <c r="A108" t="s" s="9">
@@ -4390,8 +4782,13 @@
       <c r="F108" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
+      <c r="G108" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H108" s="12">
+        <f>(LARGE(D108:G108,1)+LARGE(D108:G108,2)+LARGE(D108:G108,3))/3</f>
+        <v>0.677566622094358</v>
+      </c>
     </row>
     <row r="109" ht="16.35" customHeight="1">
       <c r="A109" t="s" s="9">
@@ -4412,8 +4809,11 @@
       <c r="F109" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="12">
+        <f>(LARGE(D109:G109,1)+LARGE(D109:G109,2)+LARGE(D109:G109,3))/3</f>
+        <v>0.671359199489871</v>
+      </c>
     </row>
     <row r="110" ht="16.35" customHeight="1">
       <c r="A110" t="s" s="9">
@@ -4434,8 +4834,11 @@
       <c r="F110" s="11">
         <v>0</v>
       </c>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="11">
+        <f>(LARGE(D110:G110,1)+LARGE(D110:G110,2)+LARGE(D110:G110,3))/3</f>
+        <v>0.439824561403509</v>
+      </c>
     </row>
     <row r="111" ht="16.35" customHeight="1">
       <c r="A111" t="s" s="9">
@@ -4456,8 +4859,11 @@
       <c r="F111" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="11">
+        <f>(LARGE(D111:G111,1)+LARGE(D111:G111,2)+LARGE(D111:G111,3))/3</f>
+        <v>0.669935198356251</v>
+      </c>
     </row>
     <row r="112" ht="16.35" customHeight="1">
       <c r="A112" t="s" s="9">
@@ -4478,8 +4884,11 @@
       <c r="F112" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="12">
+        <f>(LARGE(D112:G112,1)+LARGE(D112:G112,2)+LARGE(D112:G112,3))/3</f>
+        <v>0.6295160859589169</v>
+      </c>
     </row>
     <row r="113" ht="16.35" customHeight="1">
       <c r="A113" t="s" s="9">
@@ -4494,12 +4903,17 @@
       <c r="D113" s="11">
         <v>0</v>
       </c>
-      <c r="E113" s="13"/>
+      <c r="E113" s="11">
+        <v>0</v>
+      </c>
       <c r="F113" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="11">
+        <f>(LARGE(D113:G113,1)+LARGE(D113:G113,2)+LARGE(D113:G113,3))/3</f>
+        <v>0.261261261261261</v>
+      </c>
     </row>
     <row r="114" ht="16.35" customHeight="1">
       <c r="A114" t="s" s="9">
@@ -4520,8 +4934,11 @@
       <c r="F114" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="11">
+        <f>(LARGE(D114:G114,1)+LARGE(D114:G114,2)+LARGE(D114:G114,3))/3</f>
+        <v>0.700036352141615</v>
+      </c>
     </row>
     <row r="115" ht="16.35" customHeight="1">
       <c r="A115" t="s" s="9">
@@ -4542,8 +4959,11 @@
       <c r="F115" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="11">
+        <f>(LARGE(D115:G115,1)+LARGE(D115:G115,2)+LARGE(D115:G115,3))/3</f>
+        <v>0.584071439860914</v>
+      </c>
     </row>
     <row r="116" ht="16.35" customHeight="1">
       <c r="A116" t="s" s="9">
@@ -4564,8 +4984,11 @@
       <c r="F116" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="11">
+        <f>(LARGE(D116:G116,1)+LARGE(D116:G116,2)+LARGE(D116:G116,3))/3</f>
+        <v>0.679461039987356</v>
+      </c>
     </row>
     <row r="117" ht="16.35" customHeight="1">
       <c r="A117" t="s" s="9">
@@ -4586,8 +5009,11 @@
       <c r="F117" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="12">
+        <f>(LARGE(D117:G117,1)+LARGE(D117:G117,2)+LARGE(D117:G117,3))/3</f>
+        <v>0.7414746870282261</v>
+      </c>
     </row>
     <row r="118" ht="16.35" customHeight="1">
       <c r="A118" t="s" s="9">
@@ -4608,8 +5034,11 @@
       <c r="F118" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="11">
+        <f>(LARGE(D118:G118,1)+LARGE(D118:G118,2)+LARGE(D118:G118,3))/3</f>
+        <v>0.633268531689584</v>
+      </c>
     </row>
     <row r="119" ht="16.35" customHeight="1">
       <c r="A119" t="s" s="9">
@@ -4630,8 +5059,11 @@
       <c r="F119" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="11">
+        <f>(LARGE(D119:G119,1)+LARGE(D119:G119,2)+LARGE(D119:G119,3))/3</f>
+        <v>0.55428323059902</v>
+      </c>
     </row>
     <row r="120" ht="16.35" customHeight="1">
       <c r="A120" t="s" s="9">
@@ -4652,8 +5084,13 @@
       <c r="F120" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
+      <c r="G120" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H120" s="12">
+        <f>(LARGE(D120:G120,1)+LARGE(D120:G120,2)+LARGE(D120:G120,3))/3</f>
+        <v>0.851375876784225</v>
+      </c>
     </row>
     <row r="121" ht="16.35" customHeight="1">
       <c r="A121" t="s" s="9">
@@ -4674,8 +5111,11 @@
       <c r="F121" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="11">
+        <f>(LARGE(D121:G121,1)+LARGE(D121:G121,2)+LARGE(D121:G121,3))/3</f>
+        <v>0.68327430879155</v>
+      </c>
     </row>
     <row r="122" ht="16.35" customHeight="1">
       <c r="A122" t="s" s="9">
@@ -4696,8 +5136,13 @@
       <c r="F122" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
+      <c r="G122" s="13">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="H122" s="12">
+        <f>(LARGE(D122:G122,1)+LARGE(D122:G122,2)+LARGE(D122:G122,3))/3</f>
+        <v>0.841116070698648</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
   <si>
     <t>Surname</t>
   </si>
@@ -545,12 +545,6 @@
   </si>
   <si>
     <t>H200697Z</t>
-  </si>
-  <si>
-    <t>Muriwo</t>
-  </si>
-  <si>
-    <t>H200175P</t>
   </si>
   <si>
     <t>Murombedzi</t>
@@ -897,7 +891,7 @@
     <xf numFmtId="59" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -916,10 +910,10 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2017,7 +2011,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -2080,10 +2074,12 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8">
+        <v>0.7826086956521739</v>
+      </c>
       <c r="H2" s="6">
         <f>(LARGE(D2:G2,1)+LARGE(D2:G2,2)+LARGE(D2:G2,3))/3</f>
-        <v>0.267076023391813</v>
+        <v>0.527945588609204</v>
       </c>
     </row>
     <row r="3" ht="16.35" customHeight="1">
@@ -2132,10 +2128,12 @@
       <c r="F4" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="11">
+      <c r="G4" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H4" s="12">
         <f>(LARGE(D4:G4,1)+LARGE(D4:G4,2)+LARGE(D4:G4,3))/3</f>
-        <v>0.830987829935198</v>
+        <v>0.845190728485923</v>
       </c>
     </row>
     <row r="5" ht="16.35" customHeight="1">
@@ -2148,15 +2146,15 @@
       <c r="C5" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15">
+      <c r="G5" s="15"/>
+      <c r="H5" s="14">
         <f>(LARGE(D5:G5,1)+LARGE(D5:G5,2)+LARGE(D5:G5,3))/3</f>
       </c>
     </row>
@@ -2179,7 +2177,7 @@
       <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="11">
         <f>(LARGE(D6:G6,1)+LARGE(D6:G6,2)+LARGE(D6:G6,3))/3</f>
         <v>0.453099415204678</v>
@@ -2204,7 +2202,7 @@
       <c r="F7" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="11">
         <f>(LARGE(D7:G7,1)+LARGE(D7:G7,2)+LARGE(D7:G7,3))/3</f>
         <v>0.714763711079501</v>
@@ -2229,7 +2227,7 @@
       <c r="F8" s="12">
         <v>0.702702702702703</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="11">
         <f>(LARGE(D8:G8,1)+LARGE(D8:G8,2)+LARGE(D8:G8,3))/3</f>
         <v>0.600550023707919</v>
@@ -2254,10 +2252,12 @@
       <c r="F9" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="11">
+      <c r="G9" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H9" s="12">
         <f>(LARGE(D9:G9,1)+LARGE(D9:G9,2)+LARGE(D9:G9,3))/3</f>
-        <v>0.736072388177651</v>
+        <v>0.806941953395043</v>
       </c>
     </row>
     <row r="10" ht="16.35" customHeight="1">
@@ -2279,10 +2279,12 @@
       <c r="F10" s="12">
         <v>0.702702702702703</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H10" s="11">
         <f>(LARGE(D10:G10,1)+LARGE(D10:G10,2)+LARGE(D10:G10,3))/3</f>
-        <v>0.599672830725462</v>
+        <v>0.670611045828437</v>
       </c>
     </row>
     <row r="11" ht="16.35" customHeight="1">
@@ -2331,7 +2333,7 @@
       <c r="F12" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="11">
         <f>(LARGE(D12:G12,1)+LARGE(D12:G12,2)+LARGE(D12:G12,3))/3</f>
         <v>0.671670617986408</v>
@@ -2356,7 +2358,7 @@
       <c r="F13" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="11">
         <f>(LARGE(D13:G13,1)+LARGE(D13:G13,2)+LARGE(D13:G13,3))/3</f>
         <v>0.596657183499289</v>
@@ -2435,7 +2437,7 @@
       <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="11">
         <f>(LARGE(D16:G16,1)+LARGE(D16:G16,2)+LARGE(D16:G16,3))/3</f>
         <v>0.377076023391813</v>
@@ -2487,7 +2489,7 @@
       <c r="F18" s="11">
         <v>0</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="11">
         <f>(LARGE(D18:G18,1)+LARGE(D18:G18,2)+LARGE(D18:G18,3))/3</f>
         <v>0.40719298245614</v>
@@ -2539,10 +2541,12 @@
       <c r="F20" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="13">
+        <v>0.7826086956521739</v>
+      </c>
       <c r="H20" s="11">
         <f>(LARGE(D20:G20,1)+LARGE(D20:G20,2)+LARGE(D20:G20,3))/3</f>
-        <v>0.590131183815394</v>
+        <v>0.681410105757932</v>
       </c>
     </row>
     <row r="21" ht="16.35" customHeight="1">
@@ -2564,7 +2568,7 @@
       <c r="F21" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="12">
         <f>(LARGE(D21:G21,1)+LARGE(D21:G21,2)+LARGE(D21:G21,3))/3</f>
         <v>0.6539706675822829</v>
@@ -2589,7 +2593,7 @@
       <c r="F22" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="11">
         <f>(LARGE(D22:G22,1)+LARGE(D22:G22,2)+LARGE(D22:G22,3))/3</f>
         <v>0.767596017069701</v>
@@ -2614,10 +2618,12 @@
       <c r="F23" s="12">
         <v>1</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H23" s="12">
         <f>(LARGE(D23:G23,1)+LARGE(D23:G23,2)+LARGE(D23:G23,3))/3</f>
-        <v>0.785339786247227</v>
+        <v>0.815342328835582</v>
       </c>
     </row>
     <row r="24" ht="16.35" customHeight="1">
@@ -2633,12 +2639,12 @@
       <c r="D24" s="12">
         <v>0.586206896551724</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15">
+      <c r="G24" s="15"/>
+      <c r="H24" s="14">
         <f>(LARGE(D24:G24,1)+LARGE(D24:G24,2)+LARGE(D24:G24,3))/3</f>
       </c>
     </row>
@@ -2661,7 +2667,7 @@
       <c r="F25" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="11">
         <f>(LARGE(D25:G25,1)+LARGE(D25:G25,2)+LARGE(D25:G25,3))/3</f>
         <v>0.761732258574364</v>
@@ -2713,10 +2719,12 @@
       <c r="F27" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="11">
+      <c r="G27" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H27" s="12">
         <f>(LARGE(D27:G27,1)+LARGE(D27:G27,2)+LARGE(D27:G27,3))/3</f>
-        <v>0.734262683736368</v>
+        <v>0.807306161997238</v>
       </c>
     </row>
     <row r="28" ht="16.35" customHeight="1">
@@ -2738,7 +2746,7 @@
       <c r="F28" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="12">
         <f>(LARGE(D28:G28,1)+LARGE(D28:G28,2)+LARGE(D28:G28,3))/3</f>
         <v>0.6885706032711481</v>
@@ -2763,7 +2771,7 @@
       <c r="F29" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="11">
         <f>(LARGE(D29:G29,1)+LARGE(D29:G29,2)+LARGE(D29:G29,3))/3</f>
         <v>0.798531689584321</v>
@@ -2788,10 +2796,12 @@
       <c r="F30" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H30" s="12">
         <f>(LARGE(D30:G30,1)+LARGE(D30:G30,2)+LARGE(D30:G30,3))/3</f>
-        <v>0.744434089261676</v>
+        <v>0.783914349131741</v>
       </c>
     </row>
     <row r="31" ht="16.35" customHeight="1">
@@ -2813,7 +2823,7 @@
       <c r="F31" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="11">
         <f>(LARGE(D31:G31,1)+LARGE(D31:G31,2)+LARGE(D31:G31,3))/3</f>
         <v>0.673613086770982</v>
@@ -2838,7 +2848,7 @@
       <c r="F32" s="11">
         <v>0</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="11">
         <f>(LARGE(D32:G32,1)+LARGE(D32:G32,2)+LARGE(D32:G32,3))/3</f>
         <v>0</v>
@@ -2863,7 +2873,7 @@
       <c r="F33" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="12">
         <f>(LARGE(D33:G33,1)+LARGE(D33:G33,2)+LARGE(D33:G33,3))/3</f>
         <v>0.66759318301968</v>
@@ -2888,7 +2898,7 @@
       <c r="F34" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="11">
         <f>(LARGE(D34:G34,1)+LARGE(D34:G34,2)+LARGE(D34:G34,3))/3</f>
         <v>0.625348506401138</v>
@@ -2967,7 +2977,7 @@
       <c r="F37" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G37" s="14"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="11">
         <f>(LARGE(D37:G37,1)+LARGE(D37:G37,2)+LARGE(D37:G37,3))/3</f>
         <v>0.6624498182392921</v>
@@ -2992,7 +3002,7 @@
       <c r="F38" s="11">
         <v>0</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="11">
         <f>(LARGE(D38:G38,1)+LARGE(D38:G38,2)+LARGE(D38:G38,3))/3</f>
         <v>0.247777777777778</v>
@@ -3017,7 +3027,7 @@
       <c r="F39" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="11">
         <f>(LARGE(D39:G39,1)+LARGE(D39:G39,2)+LARGE(D39:G39,3))/3</f>
         <v>0.636586059743955</v>
@@ -3096,7 +3106,7 @@
       <c r="F42" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G42" s="14"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="11">
         <f>(LARGE(D42:G42,1)+LARGE(D42:G42,2)+LARGE(D42:G42,3))/3</f>
         <v>0.611098466887941</v>
@@ -3121,7 +3131,7 @@
       <c r="F43" s="12">
         <v>0.972972972972973</v>
       </c>
-      <c r="G43" s="14"/>
+      <c r="G43" s="15"/>
       <c r="H43" s="11">
         <f>(LARGE(D43:G43,1)+LARGE(D43:G43,2)+LARGE(D43:G43,3))/3</f>
         <v>0.915084558242453</v>
@@ -3146,7 +3156,7 @@
       <c r="F44" s="12">
         <v>0.594594594594595</v>
       </c>
-      <c r="G44" s="14"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="11">
         <f>(LARGE(D44:G44,1)+LARGE(D44:G44,2)+LARGE(D44:G44,3))/3</f>
         <v>0.405975975975976</v>
@@ -3171,10 +3181,12 @@
       <c r="F45" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="11">
+      <c r="G45" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H45" s="12">
         <f>(LARGE(D45:G45,1)+LARGE(D45:G45,2)+LARGE(D45:G45,3))/3</f>
-        <v>0.745367472735894</v>
+        <v>0.786237037953285</v>
       </c>
     </row>
     <row r="46" ht="16.35" customHeight="1">
@@ -3196,7 +3208,7 @@
       <c r="F46" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G46" s="14"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="11">
         <f>(LARGE(D46:G46,1)+LARGE(D46:G46,2)+LARGE(D46:G46,3))/3</f>
         <v>0.559058005373795</v>
@@ -3221,7 +3233,7 @@
       <c r="F47" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G47" s="14"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="11">
         <f>(LARGE(D47:G47,1)+LARGE(D47:G47,2)+LARGE(D47:G47,3))/3</f>
         <v>0.791748063853327</v>
@@ -3273,7 +3285,7 @@
       <c r="F49" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G49" s="14"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="11">
         <f>(LARGE(D49:G49,1)+LARGE(D49:G49,2)+LARGE(D49:G49,3))/3</f>
         <v>0.733671566303145</v>
@@ -3346,12 +3358,12 @@
       <c r="D52" s="11">
         <v>0.6</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="11">
         <v>0</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="15">
+      <c r="G52" s="15"/>
+      <c r="H52" s="14">
         <f>(LARGE(D52:G52,1)+LARGE(D52:G52,2)+LARGE(D52:G52,3))/3</f>
       </c>
     </row>
@@ -3374,7 +3386,7 @@
       <c r="F53" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G53" s="14"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="11">
         <f>(LARGE(D53:G53,1)+LARGE(D53:G53,2)+LARGE(D53:G53,3))/3</f>
         <v>0.51214161529951</v>
@@ -3399,7 +3411,7 @@
       <c r="F54" s="11">
         <v>0</v>
       </c>
-      <c r="G54" s="14"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="11">
         <f>(LARGE(D54:G54,1)+LARGE(D54:G54,2)+LARGE(D54:G54,3))/3</f>
         <v>0.294615849969752</v>
@@ -3424,7 +3436,7 @@
       <c r="F55" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G55" s="14"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="11">
         <f>(LARGE(D55:G55,1)+LARGE(D55:G55,2)+LARGE(D55:G55,3))/3</f>
         <v>0.787697170855066</v>
@@ -3449,7 +3461,7 @@
       <c r="F56" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G56" s="14"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="11">
         <f>(LARGE(D56:G56,1)+LARGE(D56:G56,2)+LARGE(D56:G56,3))/3</f>
         <v>0.611455666192508</v>
@@ -3474,10 +3486,12 @@
       <c r="F57" s="12">
         <v>0.756756756756757</v>
       </c>
-      <c r="G57" s="14"/>
+      <c r="G57" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H57" s="12">
         <f>(LARGE(D57:G57,1)+LARGE(D57:G57,2)+LARGE(D57:G57,3))/3</f>
-        <v>0.809521863060883</v>
+        <v>0.8202664907470399</v>
       </c>
     </row>
     <row r="58" ht="16.35" customHeight="1">
@@ -3499,7 +3513,7 @@
       <c r="F58" s="12">
         <v>0.675675675675676</v>
       </c>
-      <c r="G58" s="14"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="12">
         <f>(LARGE(D58:G58,1)+LARGE(D58:G58,2)+LARGE(D58:G58,3))/3</f>
         <v>0.694573884229057</v>
@@ -3551,7 +3565,7 @@
       <c r="F60" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G60" s="14"/>
+      <c r="G60" s="15"/>
       <c r="H60" s="11">
         <f>(LARGE(D60:G60,1)+LARGE(D60:G60,2)+LARGE(D60:G60,3))/3</f>
         <v>0.7544191559981031</v>
@@ -3576,7 +3590,7 @@
       <c r="F61" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G61" s="14"/>
+      <c r="G61" s="15"/>
       <c r="H61" s="11">
         <f>(LARGE(D61:G61,1)+LARGE(D61:G61,2)+LARGE(D61:G61,3))/3</f>
         <v>0.698398925241031</v>
@@ -3598,9 +3612,9 @@
       <c r="E62" s="12">
         <v>0.368421052631579</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="15">
+      <c r="F62" s="14"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="14">
         <f>(LARGE(D62:G62,1)+LARGE(D62:G62,2)+LARGE(D62:G62,3))/3</f>
       </c>
     </row>
@@ -3650,7 +3664,7 @@
       <c r="F64" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G64" s="14"/>
+      <c r="G64" s="15"/>
       <c r="H64" s="11">
         <f>(LARGE(D64:G64,1)+LARGE(D64:G64,2)+LARGE(D64:G64,3))/3</f>
         <v>0.696127706654022</v>
@@ -3675,7 +3689,7 @@
       <c r="F65" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G65" s="14"/>
+      <c r="G65" s="15"/>
       <c r="H65" s="12">
         <f>(LARGE(D65:G65,1)+LARGE(D65:G65,2)+LARGE(D65:G65,3))/3</f>
         <v>0.51827962263534</v>
@@ -3727,7 +3741,7 @@
       <c r="F67" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G67" s="14"/>
+      <c r="G67" s="15"/>
       <c r="H67" s="11">
         <f>(LARGE(D67:G67,1)+LARGE(D67:G67,2)+LARGE(D67:G67,3))/3</f>
         <v>0.780224434961277</v>
@@ -3779,7 +3793,7 @@
       <c r="F69" s="11">
         <v>0</v>
       </c>
-      <c r="G69" s="14"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="11">
         <f>(LARGE(D69:G69,1)+LARGE(D69:G69,2)+LARGE(D69:G69,3))/3</f>
         <v>0.597485380116959</v>
@@ -3831,7 +3845,7 @@
       <c r="F71" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G71" s="14"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="11">
         <f>(LARGE(D71:G71,1)+LARGE(D71:G71,2)+LARGE(D71:G71,3))/3</f>
         <v>0.709116484905959</v>
@@ -3856,7 +3870,7 @@
       <c r="F72" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G72" s="14"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="11">
         <f>(LARGE(D72:G72,1)+LARGE(D72:G72,2)+LARGE(D72:G72,3))/3</f>
         <v>0.646241504662557</v>
@@ -3881,7 +3895,7 @@
       <c r="F73" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G73" s="14"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="12">
         <f>(LARGE(D73:G73,1)+LARGE(D73:G73,2)+LARGE(D73:G73,3))/3</f>
         <v>0.577947275769417</v>
@@ -3960,7 +3974,7 @@
       <c r="F76" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G76" s="14"/>
+      <c r="G76" s="15"/>
       <c r="H76" s="12">
         <f>(LARGE(D76:G76,1)+LARGE(D76:G76,2)+LARGE(D76:G76,3))/3</f>
         <v>0.821964432672237</v>
@@ -4012,7 +4026,7 @@
       <c r="F78" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G78" s="14"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="12">
         <f>(LARGE(D78:G78,1)+LARGE(D78:G78,2)+LARGE(D78:G78,3))/3</f>
         <v>0.674086972635067</v>
@@ -4037,10 +4051,12 @@
       <c r="F79" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="11">
+      <c r="G79" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H79" s="12">
         <f>(LARGE(D79:G79,1)+LARGE(D79:G79,2)+LARGE(D79:G79,3))/3</f>
-        <v>0.70683262209578</v>
+        <v>0.777702187313171</v>
       </c>
     </row>
     <row r="80" ht="16.35" customHeight="1">
@@ -4062,7 +4078,7 @@
       <c r="F80" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G80" s="14"/>
+      <c r="G80" s="15"/>
       <c r="H80" s="11">
         <f>(LARGE(D80:G80,1)+LARGE(D80:G80,2)+LARGE(D80:G80,3))/3</f>
         <v>0.608681839734471</v>
@@ -4141,7 +4157,7 @@
       <c r="F83" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G83" s="14"/>
+      <c r="G83" s="15"/>
       <c r="H83" s="11">
         <f>(LARGE(D83:G83,1)+LARGE(D83:G83,2)+LARGE(D83:G83,3))/3</f>
         <v>0.791920341394026</v>
@@ -4193,10 +4209,12 @@
       <c r="F85" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G85" s="14"/>
-      <c r="H85" s="11">
+      <c r="G85" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H85" s="12">
         <f>(LARGE(D85:G85,1)+LARGE(D85:G85,2)+LARGE(D85:G85,3))/3</f>
-        <v>0.804837995890628</v>
+        <v>0.835707561108019</v>
       </c>
     </row>
     <row r="86" ht="16.35" customHeight="1">
@@ -4210,18 +4228,20 @@
         <v>179</v>
       </c>
       <c r="D86" s="11">
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <v>0</v>
-      </c>
-      <c r="F86" s="11">
-        <v>0</v>
-      </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="11">
+        <v>0.57</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F86" s="12">
+        <v>0.9459459459459461</v>
+      </c>
+      <c r="G86" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H86" s="12">
         <f>(LARGE(D86:G86,1)+LARGE(D86:G86,2)+LARGE(D86:G86,3))/3</f>
-        <v>0</v>
+        <v>0.783914349131741</v>
       </c>
     </row>
     <row r="87" ht="16.35" customHeight="1">
@@ -4229,24 +4249,26 @@
         <v>180</v>
       </c>
       <c r="B87" t="s" s="10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s" s="10">
         <v>181</v>
       </c>
       <c r="D87" s="11">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="E87" s="12">
-        <v>0.666666666666667</v>
+        <v>0.771929824561404</v>
       </c>
       <c r="F87" s="12">
-        <v>0.9459459459459461</v>
-      </c>
-      <c r="G87" s="14"/>
-      <c r="H87" s="11">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="G87" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H87" s="12">
         <f>(LARGE(D87:G87,1)+LARGE(D87:G87,2)+LARGE(D87:G87,3))/3</f>
-        <v>0.727537537537538</v>
+        <v>0.800984050411968</v>
       </c>
     </row>
     <row r="88" ht="16.35" customHeight="1">
@@ -4254,26 +4276,26 @@
         <v>182</v>
       </c>
       <c r="B88" t="s" s="10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s" s="10">
         <v>183</v>
       </c>
       <c r="D88" s="11">
-        <v>0.55</v>
+        <v>0.72</v>
       </c>
       <c r="E88" s="12">
         <v>0.771929824561404</v>
       </c>
       <c r="F88" s="12">
-        <v>0.891891891891892</v>
+        <v>0.8378378378378381</v>
       </c>
       <c r="G88" s="13">
-        <v>0.739130434782609</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="H88" s="12">
         <f>(LARGE(D88:G88,1)+LARGE(D88:G88,2)+LARGE(D88:G88,3))/3</f>
-        <v>0.800984050411968</v>
+        <v>0.790212409205544</v>
       </c>
     </row>
     <row r="89" ht="16.35" customHeight="1">
@@ -4286,21 +4308,21 @@
       <c r="C89" t="s" s="10">
         <v>185</v>
       </c>
-      <c r="D89" s="11">
-        <v>0.72</v>
+      <c r="D89" s="12">
+        <v>0.689655172413793</v>
       </c>
       <c r="E89" s="12">
-        <v>0.771929824561404</v>
-      </c>
-      <c r="F89" s="12">
-        <v>0.8378378378378381</v>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0</v>
       </c>
       <c r="G89" s="13">
         <v>0.760869565217391</v>
       </c>
       <c r="H89" s="12">
         <f>(LARGE(D89:G89,1)+LARGE(D89:G89,2)+LARGE(D89:G89,3))/3</f>
-        <v>0.790212409205544</v>
+        <v>0.734970234181155</v>
       </c>
     </row>
     <row r="90" ht="16.35" customHeight="1">
@@ -4313,21 +4335,19 @@
       <c r="C90" t="s" s="10">
         <v>187</v>
       </c>
-      <c r="D90" s="12">
-        <v>0.689655172413793</v>
+      <c r="D90" s="11">
+        <v>0.57</v>
       </c>
       <c r="E90" s="12">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F90" s="11">
-        <v>0</v>
-      </c>
-      <c r="G90" s="13">
-        <v>0.760869565217391</v>
-      </c>
-      <c r="H90" s="12">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="F90" s="12">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" s="11">
         <f>(LARGE(D90:G90,1)+LARGE(D90:G90,2)+LARGE(D90:G90,3))/3</f>
-        <v>0.734970234181155</v>
+        <v>0.639344080923028</v>
       </c>
     </row>
     <row r="91" ht="16.35" customHeight="1">
@@ -4335,24 +4355,24 @@
         <v>188</v>
       </c>
       <c r="B91" t="s" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s" s="10">
         <v>189</v>
       </c>
       <c r="D91" s="11">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="E91" s="12">
-        <v>0.456140350877193</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="F91" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G91" s="14"/>
+      <c r="G91" s="15"/>
       <c r="H91" s="11">
         <f>(LARGE(D91:G91,1)+LARGE(D91:G91,2)+LARGE(D91:G91,3))/3</f>
-        <v>0.639344080923028</v>
+        <v>0.5575896949581159</v>
       </c>
     </row>
     <row r="92" ht="16.35" customHeight="1">
@@ -4366,18 +4386,18 @@
         <v>191</v>
       </c>
       <c r="D92" s="11">
-        <v>0.43</v>
+        <v>0.66</v>
       </c>
       <c r="E92" s="12">
-        <v>0.350877192982456</v>
+        <v>0.771929824561404</v>
       </c>
       <c r="F92" s="12">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="G92" s="14"/>
+        <v>0.918918918918919</v>
+      </c>
+      <c r="G92" s="15"/>
       <c r="H92" s="11">
         <f>(LARGE(D92:G92,1)+LARGE(D92:G92,2)+LARGE(D92:G92,3))/3</f>
-        <v>0.5575896949581159</v>
+        <v>0.783616247826774</v>
       </c>
     </row>
     <row r="93" ht="16.35" customHeight="1">
@@ -4390,19 +4410,19 @@
       <c r="C93" t="s" s="10">
         <v>193</v>
       </c>
-      <c r="D93" s="11">
-        <v>0.66</v>
+      <c r="D93" s="12">
+        <v>0.448275862068966</v>
       </c>
       <c r="E93" s="12">
-        <v>0.771929824561404</v>
-      </c>
-      <c r="F93" s="12">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="G93" s="14"/>
+        <v>0.368421052631579</v>
+      </c>
+      <c r="F93" s="11">
+        <v>0</v>
+      </c>
+      <c r="G93" s="15"/>
       <c r="H93" s="11">
         <f>(LARGE(D93:G93,1)+LARGE(D93:G93,2)+LARGE(D93:G93,3))/3</f>
-        <v>0.783616247826774</v>
+        <v>0.272232304900182</v>
       </c>
     </row>
     <row r="94" ht="16.35" customHeight="1">
@@ -4410,24 +4430,24 @@
         <v>194</v>
       </c>
       <c r="B94" t="s" s="10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s" s="10">
         <v>195</v>
       </c>
-      <c r="D94" s="12">
-        <v>0.448275862068966</v>
+      <c r="D94" s="11">
+        <v>0.67</v>
       </c>
       <c r="E94" s="12">
-        <v>0.368421052631579</v>
-      </c>
-      <c r="F94" s="11">
-        <v>0</v>
-      </c>
-      <c r="G94" s="14"/>
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F94" s="12">
+        <v>0.810810810810811</v>
+      </c>
+      <c r="G94" s="15"/>
       <c r="H94" s="11">
         <f>(LARGE(D94:G94,1)+LARGE(D94:G94,2)+LARGE(D94:G94,3))/3</f>
-        <v>0.272232304900182</v>
+        <v>0.692434012960329</v>
       </c>
     </row>
     <row r="95" ht="16.35" customHeight="1">
@@ -4441,18 +4461,18 @@
         <v>197</v>
       </c>
       <c r="D95" s="11">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="E95" s="12">
-        <v>0.596491228070175</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F95" s="12">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G95" s="14"/>
+        <v>0.567567567567568</v>
+      </c>
+      <c r="G95" s="15"/>
       <c r="H95" s="11">
         <f>(LARGE(D95:G95,1)+LARGE(D95:G95,2)+LARGE(D95:G95,3))/3</f>
-        <v>0.692434012960329</v>
+        <v>0.4503003003003</v>
       </c>
     </row>
     <row r="96" ht="16.35" customHeight="1">
@@ -4460,24 +4480,26 @@
         <v>198</v>
       </c>
       <c r="B96" t="s" s="10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s" s="10">
         <v>199</v>
       </c>
       <c r="D96" s="11">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
       <c r="E96" s="12">
-        <v>0.333333333333333</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F96" s="12">
-        <v>0.567567567567568</v>
-      </c>
-      <c r="G96" s="14"/>
+        <v>0.621621621621622</v>
+      </c>
+      <c r="G96" s="13">
+        <v>0.652173913043478</v>
+      </c>
       <c r="H96" s="11">
         <f>(LARGE(D96:G96,1)+LARGE(D96:G96,2)+LARGE(D96:G96,3))/3</f>
-        <v>0.4503003003003</v>
+        <v>0.775636918382914</v>
       </c>
     </row>
     <row r="97" ht="16.35" customHeight="1">
@@ -4485,7 +4507,7 @@
         <v>200</v>
       </c>
       <c r="B97" t="s" s="10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s" s="10">
         <v>201</v>
@@ -4494,17 +4516,17 @@
         <v>0.78</v>
       </c>
       <c r="E97" s="12">
-        <v>0.8947368421052631</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="F97" s="12">
-        <v>0.621621621621622</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="G97" s="13">
-        <v>0.652173913043478</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="H97" s="11">
         <f>(LARGE(D97:G97,1)+LARGE(D97:G97,2)+LARGE(D97:G97,3))/3</f>
-        <v>0.775636918382914</v>
+        <v>0.787106053421843</v>
       </c>
     </row>
     <row r="98" ht="16.35" customHeight="1">
@@ -4512,24 +4534,26 @@
         <v>202</v>
       </c>
       <c r="B98" t="s" s="10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s" s="10">
         <v>203</v>
       </c>
       <c r="D98" s="11">
-        <v>0.78</v>
+        <v>0.59</v>
       </c>
       <c r="E98" s="12">
-        <v>0.8245614035087721</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="F98" s="12">
-        <v>0.756756756756757</v>
-      </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="11">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="G98" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H98" s="12">
         <f>(LARGE(D98:G98,1)+LARGE(D98:G98,2)+LARGE(D98:G98,3))/3</f>
-        <v>0.787106053421843</v>
+        <v>0.807086262463837</v>
       </c>
     </row>
     <row r="99" ht="16.35" customHeight="1">
@@ -4543,20 +4567,18 @@
         <v>205</v>
       </c>
       <c r="D99" s="11">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="E99" s="12">
-        <v>0.87719298245614</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="F99" s="12">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="G99" s="13">
-        <v>0.652173913043478</v>
-      </c>
-      <c r="H99" s="12">
+        <v>0.810810810810811</v>
+      </c>
+      <c r="G99" s="15"/>
+      <c r="H99" s="11">
         <f>(LARGE(D99:G99,1)+LARGE(D99:G99,2)+LARGE(D99:G99,3))/3</f>
-        <v>0.807086262463837</v>
+        <v>0.652375533428165</v>
       </c>
     </row>
     <row r="100" ht="16.35" customHeight="1">
@@ -4564,24 +4586,24 @@
         <v>206</v>
       </c>
       <c r="B100" t="s" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s" s="10">
         <v>207</v>
       </c>
-      <c r="D100" s="11">
-        <v>0.62</v>
+      <c r="D100" s="12">
+        <v>0.482758620689655</v>
       </c>
       <c r="E100" s="12">
-        <v>0.526315789473684</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="F100" s="12">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="11">
+        <v>0.8378378378378381</v>
+      </c>
+      <c r="G100" s="15"/>
+      <c r="H100" s="12">
         <f>(LARGE(D100:G100,1)+LARGE(D100:G100,2)+LARGE(D100:G100,3))/3</f>
-        <v>0.652375533428165</v>
+        <v>0.621485369216767</v>
       </c>
     </row>
     <row r="101" ht="16.35" customHeight="1">
@@ -4589,24 +4611,24 @@
         <v>208</v>
       </c>
       <c r="B101" t="s" s="10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s" s="10">
         <v>209</v>
       </c>
-      <c r="D101" s="12">
-        <v>0.482758620689655</v>
+      <c r="D101" s="11">
+        <v>0.66</v>
       </c>
       <c r="E101" s="12">
-        <v>0.543859649122807</v>
-      </c>
-      <c r="F101" s="12">
-        <v>0.8378378378378381</v>
-      </c>
-      <c r="G101" s="14"/>
-      <c r="H101" s="12">
+        <v>0.491228070175439</v>
+      </c>
+      <c r="F101" s="11">
+        <v>0</v>
+      </c>
+      <c r="G101" s="15"/>
+      <c r="H101" s="11">
         <f>(LARGE(D101:G101,1)+LARGE(D101:G101,2)+LARGE(D101:G101,3))/3</f>
-        <v>0.621485369216767</v>
+        <v>0.38374269005848</v>
       </c>
     </row>
     <row r="102" ht="16.35" customHeight="1">
@@ -4619,19 +4641,21 @@
       <c r="C102" t="s" s="10">
         <v>211</v>
       </c>
-      <c r="D102" s="11">
-        <v>0.66</v>
+      <c r="D102" s="12">
+        <v>0.775862068965517</v>
       </c>
       <c r="E102" s="12">
-        <v>0.491228070175439</v>
-      </c>
-      <c r="F102" s="11">
-        <v>0</v>
-      </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="11">
+        <v>0.8245614035087721</v>
+      </c>
+      <c r="F102" s="12">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="G102" s="13">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="H102" s="12">
         <f>(LARGE(D102:G102,1)+LARGE(D102:G102,2)+LARGE(D102:G102,3))/3</f>
-        <v>0.38374269005848</v>
+        <v>0.839780797131069</v>
       </c>
     </row>
     <row r="103" ht="16.35" customHeight="1">
@@ -4639,26 +4663,24 @@
         <v>212</v>
       </c>
       <c r="B103" t="s" s="10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s" s="10">
         <v>213</v>
       </c>
       <c r="D103" s="12">
-        <v>0.775862068965517</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="E103" s="12">
-        <v>0.8245614035087721</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="F103" s="12">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="G103" s="13">
-        <v>0.760869565217391</v>
-      </c>
+        <v>0.783783783783784</v>
+      </c>
+      <c r="G103" s="15"/>
       <c r="H103" s="12">
         <f>(LARGE(D103:G103,1)+LARGE(D103:G103,2)+LARGE(D103:G103,3))/3</f>
-        <v>0.839780797131069</v>
+        <v>0.643999716594998</v>
       </c>
     </row>
     <row r="104" ht="16.35" customHeight="1">
@@ -4666,24 +4688,24 @@
         <v>214</v>
       </c>
       <c r="B104" t="s" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s" s="10">
         <v>215</v>
       </c>
-      <c r="D104" s="12">
-        <v>0.551724137931034</v>
+      <c r="D104" s="11">
+        <v>0.62</v>
       </c>
       <c r="E104" s="12">
-        <v>0.596491228070175</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F104" s="12">
-        <v>0.783783783783784</v>
-      </c>
-      <c r="G104" s="14"/>
-      <c r="H104" s="12">
+        <v>0.648648648648649</v>
+      </c>
+      <c r="G104" s="15"/>
+      <c r="H104" s="11">
         <f>(LARGE(D104:G104,1)+LARGE(D104:G104,2)+LARGE(D104:G104,3))/3</f>
-        <v>0.643999716594998</v>
+        <v>0.656801011537854</v>
       </c>
     </row>
     <row r="105" ht="16.35" customHeight="1">
@@ -4691,24 +4713,24 @@
         <v>216</v>
       </c>
       <c r="B105" t="s" s="10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s" s="10">
         <v>217</v>
       </c>
       <c r="D105" s="11">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="E105" s="12">
-        <v>0.701754385964912</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="F105" s="12">
-        <v>0.648648648648649</v>
-      </c>
-      <c r="G105" s="14"/>
+        <v>0.756756756756757</v>
+      </c>
+      <c r="G105" s="15"/>
       <c r="H105" s="11">
         <f>(LARGE(D105:G105,1)+LARGE(D105:G105,2)+LARGE(D105:G105,3))/3</f>
-        <v>0.656801011537854</v>
+        <v>0.606872135293188</v>
       </c>
     </row>
     <row r="106" ht="16.35" customHeight="1">
@@ -4716,24 +4738,26 @@
         <v>218</v>
       </c>
       <c r="B106" t="s" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s" s="10">
         <v>219</v>
       </c>
       <c r="D106" s="11">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="E106" s="12">
-        <v>0.543859649122807</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="F106" s="12">
-        <v>0.756756756756757</v>
-      </c>
-      <c r="G106" s="14"/>
-      <c r="H106" s="11">
+        <v>0.864864864864865</v>
+      </c>
+      <c r="G106" s="13">
+        <v>0.847826086956522</v>
+      </c>
+      <c r="H106" s="12">
         <f>(LARGE(D106:G106,1)+LARGE(D106:G106,2)+LARGE(D106:G106,3))/3</f>
-        <v>0.606872135293188</v>
+        <v>0.798967159379059</v>
       </c>
     </row>
     <row r="107" ht="16.35" customHeight="1">
@@ -4741,26 +4765,26 @@
         <v>220</v>
       </c>
       <c r="B107" t="s" s="10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s" s="10">
         <v>221</v>
       </c>
-      <c r="D107" s="11">
-        <v>0.67</v>
+      <c r="D107" s="12">
+        <v>0.482758620689655</v>
       </c>
       <c r="E107" s="12">
-        <v>0.684210526315789</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="F107" s="12">
-        <v>0.864864864864865</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="G107" s="13">
-        <v>0.847826086956522</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="H107" s="12">
         <f>(LARGE(D107:G107,1)+LARGE(D107:G107,2)+LARGE(D107:G107,3))/3</f>
-        <v>0.798967159379059</v>
+        <v>0.677566622094358</v>
       </c>
     </row>
     <row r="108" ht="16.35" customHeight="1">
@@ -4768,26 +4792,24 @@
         <v>222</v>
       </c>
       <c r="B108" t="s" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s" s="10">
         <v>223</v>
       </c>
       <c r="D108" s="12">
-        <v>0.482758620689655</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="E108" s="12">
-        <v>0.385964912280702</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F108" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G108" s="13">
-        <v>0.739130434782609</v>
-      </c>
+      <c r="G108" s="15"/>
       <c r="H108" s="12">
         <f>(LARGE(D108:G108,1)+LARGE(D108:G108,2)+LARGE(D108:G108,3))/3</f>
-        <v>0.677566622094358</v>
+        <v>0.671359199489871</v>
       </c>
     </row>
     <row r="109" ht="16.35" customHeight="1">
@@ -4800,19 +4822,19 @@
       <c r="C109" t="s" s="10">
         <v>225</v>
       </c>
-      <c r="D109" s="12">
-        <v>0.413793103448276</v>
+      <c r="D109" s="11">
+        <v>0.53</v>
       </c>
       <c r="E109" s="12">
         <v>0.789473684210526</v>
       </c>
-      <c r="F109" s="12">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G109" s="14"/>
-      <c r="H109" s="12">
+      <c r="F109" s="11">
+        <v>0</v>
+      </c>
+      <c r="G109" s="15"/>
+      <c r="H109" s="11">
         <f>(LARGE(D109:G109,1)+LARGE(D109:G109,2)+LARGE(D109:G109,3))/3</f>
-        <v>0.671359199489871</v>
+        <v>0.439824561403509</v>
       </c>
     </row>
     <row r="110" ht="16.35" customHeight="1">
@@ -4826,18 +4848,18 @@
         <v>227</v>
       </c>
       <c r="D110" s="11">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="E110" s="12">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F110" s="11">
-        <v>0</v>
-      </c>
-      <c r="G110" s="14"/>
+        <v>0.543859649122807</v>
+      </c>
+      <c r="F110" s="12">
+        <v>0.9459459459459461</v>
+      </c>
+      <c r="G110" s="15"/>
       <c r="H110" s="11">
         <f>(LARGE(D110:G110,1)+LARGE(D110:G110,2)+LARGE(D110:G110,3))/3</f>
-        <v>0.439824561403509</v>
+        <v>0.669935198356251</v>
       </c>
     </row>
     <row r="111" ht="16.35" customHeight="1">
@@ -4845,24 +4867,24 @@
         <v>228</v>
       </c>
       <c r="B111" t="s" s="10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s" s="10">
         <v>229</v>
       </c>
-      <c r="D111" s="11">
-        <v>0.52</v>
+      <c r="D111" s="12">
+        <v>0.568965517241379</v>
       </c>
       <c r="E111" s="12">
-        <v>0.543859649122807</v>
+        <v>0.508771929824561</v>
       </c>
       <c r="F111" s="12">
-        <v>0.9459459459459461</v>
-      </c>
-      <c r="G111" s="14"/>
-      <c r="H111" s="11">
+        <v>0.810810810810811</v>
+      </c>
+      <c r="G111" s="15"/>
+      <c r="H111" s="12">
         <f>(LARGE(D111:G111,1)+LARGE(D111:G111,2)+LARGE(D111:G111,3))/3</f>
-        <v>0.669935198356251</v>
+        <v>0.6295160859589169</v>
       </c>
     </row>
     <row r="112" ht="16.35" customHeight="1">
@@ -4875,19 +4897,19 @@
       <c r="C112" t="s" s="10">
         <v>231</v>
       </c>
-      <c r="D112" s="12">
-        <v>0.568965517241379</v>
-      </c>
-      <c r="E112" s="12">
-        <v>0.508771929824561</v>
+      <c r="D112" s="11">
+        <v>0</v>
+      </c>
+      <c r="E112" s="11">
+        <v>0</v>
       </c>
       <c r="F112" s="12">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G112" s="14"/>
-      <c r="H112" s="12">
+        <v>0.783783783783784</v>
+      </c>
+      <c r="G112" s="15"/>
+      <c r="H112" s="11">
         <f>(LARGE(D112:G112,1)+LARGE(D112:G112,2)+LARGE(D112:G112,3))/3</f>
-        <v>0.6295160859589169</v>
+        <v>0.261261261261261</v>
       </c>
     </row>
     <row r="113" ht="16.35" customHeight="1">
@@ -4901,18 +4923,18 @@
         <v>233</v>
       </c>
       <c r="D113" s="11">
-        <v>0</v>
-      </c>
-      <c r="E113" s="11">
-        <v>0</v>
+        <v>0.57</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0.719298245614035</v>
       </c>
       <c r="F113" s="12">
-        <v>0.783783783783784</v>
-      </c>
-      <c r="G113" s="14"/>
+        <v>0.810810810810811</v>
+      </c>
+      <c r="G113" s="15"/>
       <c r="H113" s="11">
         <f>(LARGE(D113:G113,1)+LARGE(D113:G113,2)+LARGE(D113:G113,3))/3</f>
-        <v>0.261261261261261</v>
+        <v>0.700036352141615</v>
       </c>
     </row>
     <row r="114" ht="16.35" customHeight="1">
@@ -4920,24 +4942,24 @@
         <v>234</v>
       </c>
       <c r="B114" t="s" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s" s="10">
         <v>235</v>
       </c>
       <c r="D114" s="11">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="E114" s="12">
-        <v>0.719298245614035</v>
+        <v>0.56140350877193</v>
       </c>
       <c r="F114" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G114" s="14"/>
+      <c r="G114" s="15"/>
       <c r="H114" s="11">
         <f>(LARGE(D114:G114,1)+LARGE(D114:G114,2)+LARGE(D114:G114,3))/3</f>
-        <v>0.700036352141615</v>
+        <v>0.584071439860914</v>
       </c>
     </row>
     <row r="115" ht="16.35" customHeight="1">
@@ -4951,18 +4973,18 @@
         <v>237</v>
       </c>
       <c r="D115" s="11">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="E115" s="12">
-        <v>0.56140350877193</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="F115" s="12">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G115" s="14"/>
+        <v>0.891891891891892</v>
+      </c>
+      <c r="G115" s="15"/>
       <c r="H115" s="11">
         <f>(LARGE(D115:G115,1)+LARGE(D115:G115,2)+LARGE(D115:G115,3))/3</f>
-        <v>0.584071439860914</v>
+        <v>0.679461039987356</v>
       </c>
     </row>
     <row r="116" ht="16.35" customHeight="1">
@@ -4975,19 +4997,19 @@
       <c r="C116" t="s" s="10">
         <v>239</v>
       </c>
-      <c r="D116" s="11">
-        <v>0.55</v>
+      <c r="D116" s="12">
+        <v>0.586206896551724</v>
       </c>
       <c r="E116" s="12">
-        <v>0.596491228070175</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F116" s="12">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="11">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="G116" s="15"/>
+      <c r="H116" s="12">
         <f>(LARGE(D116:G116,1)+LARGE(D116:G116,2)+LARGE(D116:G116,3))/3</f>
-        <v>0.679461039987356</v>
+        <v>0.7414746870282261</v>
       </c>
     </row>
     <row r="117" ht="16.35" customHeight="1">
@@ -5000,19 +5022,19 @@
       <c r="C117" t="s" s="10">
         <v>241</v>
       </c>
-      <c r="D117" s="12">
-        <v>0.586206896551724</v>
+      <c r="D117" s="11">
+        <v>0.41</v>
       </c>
       <c r="E117" s="12">
-        <v>0.719298245614035</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="F117" s="12">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="G117" s="14"/>
-      <c r="H117" s="12">
+        <v>0.9459459459459461</v>
+      </c>
+      <c r="G117" s="15"/>
+      <c r="H117" s="11">
         <f>(LARGE(D117:G117,1)+LARGE(D117:G117,2)+LARGE(D117:G117,3))/3</f>
-        <v>0.7414746870282261</v>
+        <v>0.633268531689584</v>
       </c>
     </row>
     <row r="118" ht="16.35" customHeight="1">
@@ -5020,24 +5042,24 @@
         <v>242</v>
       </c>
       <c r="B118" t="s" s="10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s" s="10">
         <v>243</v>
       </c>
       <c r="D118" s="11">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="E118" s="12">
-        <v>0.543859649122807</v>
+        <v>0.491228070175439</v>
       </c>
       <c r="F118" s="12">
-        <v>0.9459459459459461</v>
-      </c>
-      <c r="G118" s="14"/>
+        <v>0.621621621621622</v>
+      </c>
+      <c r="G118" s="15"/>
       <c r="H118" s="11">
         <f>(LARGE(D118:G118,1)+LARGE(D118:G118,2)+LARGE(D118:G118,3))/3</f>
-        <v>0.633268531689584</v>
+        <v>0.55428323059902</v>
       </c>
     </row>
     <row r="119" ht="16.35" customHeight="1">
@@ -5050,19 +5072,21 @@
       <c r="C119" t="s" s="10">
         <v>245</v>
       </c>
-      <c r="D119" s="11">
-        <v>0.55</v>
+      <c r="D119" s="12">
+        <v>0.793103448275862</v>
       </c>
       <c r="E119" s="12">
-        <v>0.491228070175439</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F119" s="12">
-        <v>0.621621621621622</v>
-      </c>
-      <c r="G119" s="14"/>
-      <c r="H119" s="11">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="G119" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H119" s="12">
         <f>(LARGE(D119:G119,1)+LARGE(D119:G119,2)+LARGE(D119:G119,3))/3</f>
-        <v>0.55428323059902</v>
+        <v>0.851375876784225</v>
       </c>
     </row>
     <row r="120" ht="16.35" customHeight="1">
@@ -5070,26 +5094,24 @@
         <v>246</v>
       </c>
       <c r="B120" t="s" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s" s="10">
         <v>247</v>
       </c>
-      <c r="D120" s="12">
-        <v>0.793103448275862</v>
+      <c r="D120" s="11">
+        <v>0.52</v>
       </c>
       <c r="E120" s="12">
-        <v>0.842105263157895</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="F120" s="12">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="G120" s="13">
-        <v>0.652173913043478</v>
-      </c>
-      <c r="H120" s="12">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="G120" s="15"/>
+      <c r="H120" s="11">
         <f>(LARGE(D120:G120,1)+LARGE(D120:G120,2)+LARGE(D120:G120,3))/3</f>
-        <v>0.851375876784225</v>
+        <v>0.68327430879155</v>
       </c>
     </row>
     <row r="121" ht="16.35" customHeight="1">
@@ -5097,50 +5119,25 @@
         <v>248</v>
       </c>
       <c r="B121" t="s" s="10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s" s="10">
         <v>249</v>
       </c>
-      <c r="D121" s="11">
-        <v>0.52</v>
+      <c r="D121" s="12">
+        <v>0.844827586206897</v>
       </c>
       <c r="E121" s="12">
-        <v>0.637931034482759</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F121" s="12">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="G121" s="14"/>
-      <c r="H121" s="11">
+        <v>0.783783783783784</v>
+      </c>
+      <c r="G121" s="13">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="H121" s="12">
         <f>(LARGE(D121:G121,1)+LARGE(D121:G121,2)+LARGE(D121:G121,3))/3</f>
-        <v>0.68327430879155</v>
-      </c>
-    </row>
-    <row r="122" ht="16.35" customHeight="1">
-      <c r="A122" t="s" s="9">
-        <v>250</v>
-      </c>
-      <c r="B122" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C122" t="s" s="10">
-        <v>251</v>
-      </c>
-      <c r="D122" s="12">
-        <v>0.844827586206897</v>
-      </c>
-      <c r="E122" s="12">
-        <v>0.8947368421052631</v>
-      </c>
-      <c r="F122" s="12">
-        <v>0.783783783783784</v>
-      </c>
-      <c r="G122" s="13">
-        <v>0.760869565217391</v>
-      </c>
-      <c r="H122" s="12">
-        <f>(LARGE(D122:G122,1)+LARGE(D122:G122,2)+LARGE(D122:G122,3))/3</f>
         <v>0.841116070698648</v>
       </c>
     </row>

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -2175,12 +2175,14 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15"/>
+        <v>0.77</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.7173913043478261</v>
+      </c>
       <c r="H6" s="11">
         <f>(LARGE(D6:G6,1)+LARGE(D6:G6,2)+LARGE(D6:G6,3))/3</f>
-        <v>0.453099415204678</v>
+        <v>0.73556318332062</v>
       </c>
     </row>
     <row r="7" ht="16.35" customHeight="1">
@@ -2227,10 +2229,12 @@
       <c r="F8" s="12">
         <v>0.702702702702703</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="11">
+      <c r="G8" s="13">
+        <v>0.826086956521739</v>
+      </c>
+      <c r="H8" s="12">
         <f>(LARGE(D8:G8,1)+LARGE(D8:G8,2)+LARGE(D8:G8,3))/3</f>
-        <v>0.600550023707919</v>
+        <v>0.702579009215165</v>
       </c>
     </row>
     <row r="9" ht="16.35" customHeight="1">
@@ -2333,10 +2337,12 @@
       <c r="F12" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H12" s="11">
         <f>(LARGE(D12:G12,1)+LARGE(D12:G12,2)+LARGE(D12:G12,3))/3</f>
-        <v>0.671670617986408</v>
+        <v>0.754304739522131</v>
       </c>
     </row>
     <row r="13" ht="16.35" customHeight="1">
@@ -2381,14 +2387,14 @@
         <v>0.87719298245614</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G14" s="13">
         <v>0.739130434782609</v>
       </c>
       <c r="H14" s="11">
         <f>(LARGE(D14:G14,1)+LARGE(D14:G14,2)+LARGE(D14:G14,3))/3</f>
-        <v>0.538774472412916</v>
+        <v>0.755441139079583</v>
       </c>
     </row>
     <row r="15" ht="16.35" customHeight="1">
@@ -2435,12 +2441,14 @@
         <v>0.491228070175439</v>
       </c>
       <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15"/>
+        <v>0.46</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.673913043478261</v>
+      </c>
       <c r="H16" s="11">
         <f>(LARGE(D16:G16,1)+LARGE(D16:G16,2)+LARGE(D16:G16,3))/3</f>
-        <v>0.377076023391813</v>
+        <v>0.601713704551233</v>
       </c>
     </row>
     <row r="17" ht="16.35" customHeight="1">
@@ -2487,12 +2495,14 @@
         <v>0.631578947368421</v>
       </c>
       <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15"/>
+        <v>0.62</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.826086956521739</v>
+      </c>
       <c r="H18" s="11">
         <f>(LARGE(D18:G18,1)+LARGE(D18:G18,2)+LARGE(D18:G18,3))/3</f>
-        <v>0.40719298245614</v>
+        <v>0.69255530129672</v>
       </c>
     </row>
     <row r="19" ht="16.35" customHeight="1">
@@ -2568,10 +2578,12 @@
       <c r="F21" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="13">
+        <v>0.7173913043478261</v>
+      </c>
       <c r="H21" s="12">
         <f>(LARGE(D21:G21,1)+LARGE(D21:G21,2)+LARGE(D21:G21,3))/3</f>
-        <v>0.6539706675822829</v>
+        <v>0.691951677077535</v>
       </c>
     </row>
     <row r="22" ht="16.35" customHeight="1">
@@ -2593,10 +2605,12 @@
       <c r="F22" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="11">
+      <c r="G22" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H22" s="12">
         <f>(LARGE(D22:G22,1)+LARGE(D22:G22,2)+LARGE(D22:G22,3))/3</f>
-        <v>0.767596017069701</v>
+        <v>0.778320654750861</v>
       </c>
     </row>
     <row r="23" ht="16.35" customHeight="1">
@@ -2667,10 +2681,12 @@
       <c r="F25" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="11">
+      <c r="G25" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H25" s="12">
         <f>(LARGE(D25:G25,1)+LARGE(D25:G25,2)+LARGE(D25:G25,3))/3</f>
-        <v>0.761732258574364</v>
+        <v>0.782601823791755</v>
       </c>
     </row>
     <row r="26" ht="16.35" customHeight="1">
@@ -2746,10 +2762,12 @@
       <c r="F28" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="13">
+        <v>0.7173913043478261</v>
+      </c>
       <c r="H28" s="12">
         <f>(LARGE(D28:G28,1)+LARGE(D28:G28,2)+LARGE(D28:G28,3))/3</f>
-        <v>0.6885706032711481</v>
+        <v>0.743792992076745</v>
       </c>
     </row>
     <row r="29" ht="16.35" customHeight="1">
@@ -2771,10 +2789,12 @@
       <c r="F29" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="11">
+      <c r="G29" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H29" s="12">
         <f>(LARGE(D29:G29,1)+LARGE(D29:G29,2)+LARGE(D29:G29,3))/3</f>
-        <v>0.798531689584321</v>
+        <v>0.848241834511858</v>
       </c>
     </row>
     <row r="30" ht="16.35" customHeight="1">
@@ -2823,10 +2843,12 @@
       <c r="F31" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="11">
+      <c r="G31" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H31" s="12">
         <f>(LARGE(D31:G31,1)+LARGE(D31:G31,2)+LARGE(D31:G31,3))/3</f>
-        <v>0.673613086770982</v>
+        <v>0.75114931865504</v>
       </c>
     </row>
     <row r="32" ht="16.35" customHeight="1">
@@ -2873,10 +2895,12 @@
       <c r="F33" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H33" s="12">
         <f>(LARGE(D33:G33,1)+LARGE(D33:G33,2)+LARGE(D33:G33,3))/3</f>
-        <v>0.66759318301968</v>
+        <v>0.741556201510435</v>
       </c>
     </row>
     <row r="34" ht="16.35" customHeight="1">
@@ -2898,10 +2922,12 @@
       <c r="F34" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H34" s="11">
         <f>(LARGE(D34:G34,1)+LARGE(D34:G34,2)+LARGE(D34:G34,3))/3</f>
-        <v>0.625348506401138</v>
+        <v>0.696286721504113</v>
       </c>
     </row>
     <row r="35" ht="16.35" customHeight="1">
@@ -2977,10 +3003,12 @@
       <c r="F37" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="11">
+      <c r="G37" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H37" s="12">
         <f>(LARGE(D37:G37,1)+LARGE(D37:G37,2)+LARGE(D37:G37,3))/3</f>
-        <v>0.6624498182392921</v>
+        <v>0.748826629833495</v>
       </c>
     </row>
     <row r="38" ht="16.35" customHeight="1">
@@ -3000,12 +3028,14 @@
         <v>0.333333333333333</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="15"/>
+        <v>0.46</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H38" s="11">
         <f>(LARGE(D38:G38,1)+LARGE(D38:G38,2)+LARGE(D38:G38,3))/3</f>
-        <v>0.247777777777778</v>
+        <v>0.536376811594203</v>
       </c>
     </row>
     <row r="39" ht="16.35" customHeight="1">
@@ -3050,7 +3080,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="G40" s="13">
         <v>0.652173913043478</v>
@@ -3106,10 +3136,12 @@
       <c r="F42" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="11">
+      <c r="G42" s="13">
+        <v>0.826086956521739</v>
+      </c>
+      <c r="H42" s="12">
         <f>(LARGE(D42:G42,1)+LARGE(D42:G42,2)+LARGE(D42:G42,3))/3</f>
-        <v>0.611098466887941</v>
+        <v>0.759794119061854</v>
       </c>
     </row>
     <row r="43" ht="16.35" customHeight="1">
@@ -3156,10 +3188,12 @@
       <c r="F44" s="12">
         <v>0.594594594594595</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="11">
+      <c r="G44" s="13">
+        <v>0.673913043478261</v>
+      </c>
+      <c r="H44" s="12">
         <f>(LARGE(D44:G44,1)+LARGE(D44:G44,2)+LARGE(D44:G44,3))/3</f>
-        <v>0.405975975975976</v>
+        <v>0.53394699046873</v>
       </c>
     </row>
     <row r="45" ht="16.35" customHeight="1">
@@ -3208,10 +3242,12 @@
       <c r="F46" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="11">
+      <c r="G46" s="13">
+        <v>0.7173913043478261</v>
+      </c>
+      <c r="H46" s="12">
         <f>(LARGE(D46:G46,1)+LARGE(D46:G46,2)+LARGE(D46:G46,3))/3</f>
-        <v>0.559058005373795</v>
+        <v>0.718188440156404</v>
       </c>
     </row>
     <row r="47" ht="16.35" customHeight="1">
@@ -3233,10 +3269,12 @@
       <c r="F47" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="11">
+      <c r="G47" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H47" s="12">
         <f>(LARGE(D47:G47,1)+LARGE(D47:G47,2)+LARGE(D47:G47,3))/3</f>
-        <v>0.791748063853327</v>
+        <v>0.815950962404052</v>
       </c>
     </row>
     <row r="48" ht="16.35" customHeight="1">
@@ -3285,10 +3323,12 @@
       <c r="F49" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G49" s="15"/>
+      <c r="G49" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H49" s="11">
         <f>(LARGE(D49:G49,1)+LARGE(D49:G49,2)+LARGE(D49:G49,3))/3</f>
-        <v>0.733671566303145</v>
+        <v>0.7636741088915</v>
       </c>
     </row>
     <row r="50" ht="16.35" customHeight="1">
@@ -3362,9 +3402,12 @@
       <c r="F52" s="11">
         <v>0</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="14">
+      <c r="G52" s="13">
+        <v>0.673913043478261</v>
+      </c>
+      <c r="H52" s="11">
         <f>(LARGE(D52:G52,1)+LARGE(D52:G52,2)+LARGE(D52:G52,3))/3</f>
+        <v>0.42463768115942</v>
       </c>
     </row>
     <row r="53" ht="16.35" customHeight="1">
@@ -3386,10 +3429,12 @@
       <c r="F53" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G53" s="15"/>
+      <c r="G53" s="13">
+        <v>0.7173913043478261</v>
+      </c>
       <c r="H53" s="11">
         <f>(LARGE(D53:G53,1)+LARGE(D53:G53,2)+LARGE(D53:G53,3))/3</f>
-        <v>0.51214161529951</v>
+        <v>0.669400705052879</v>
       </c>
     </row>
     <row r="54" ht="16.35" customHeight="1">
@@ -3409,12 +3454,14 @@
         <v>0.263157894736842</v>
       </c>
       <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="15"/>
+        <v>0.38</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.7173913043478261</v>
+      </c>
       <c r="H54" s="11">
         <f>(LARGE(D54:G54,1)+LARGE(D54:G54,2)+LARGE(D54:G54,3))/3</f>
-        <v>0.294615849969752</v>
+        <v>0.572693653173413</v>
       </c>
     </row>
     <row r="55" ht="16.35" customHeight="1">
@@ -3436,10 +3483,12 @@
       <c r="F55" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="11">
+      <c r="G55" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H55" s="12">
         <f>(LARGE(D55:G55,1)+LARGE(D55:G55,2)+LARGE(D55:G55,3))/3</f>
-        <v>0.787697170855066</v>
+        <v>0.791755141869558</v>
       </c>
     </row>
     <row r="56" ht="16.35" customHeight="1">
@@ -3461,10 +3510,12 @@
       <c r="F56" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="13">
+        <v>0.826086956521739</v>
+      </c>
       <c r="H56" s="11">
         <f>(LARGE(D56:G56,1)+LARGE(D56:G56,2)+LARGE(D56:G56,3))/3</f>
-        <v>0.611455666192508</v>
+        <v>0.764010967489228</v>
       </c>
     </row>
     <row r="57" ht="16.35" customHeight="1">
@@ -3513,10 +3564,12 @@
       <c r="F58" s="12">
         <v>0.675675675675676</v>
       </c>
-      <c r="G58" s="15"/>
+      <c r="G58" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H58" s="12">
         <f>(LARGE(D58:G58,1)+LARGE(D58:G58,2)+LARGE(D58:G58,3))/3</f>
-        <v>0.694573884229057</v>
+        <v>0.718728473601038</v>
       </c>
     </row>
     <row r="59" ht="16.35" customHeight="1">
@@ -3565,10 +3618,12 @@
       <c r="F60" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="11">
+      <c r="G60" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H60" s="12">
         <f>(LARGE(D60:G60,1)+LARGE(D60:G60,2)+LARGE(D60:G60,3))/3</f>
-        <v>0.7544191559981031</v>
+        <v>0.785288721215495</v>
       </c>
     </row>
     <row r="61" ht="16.35" customHeight="1">
@@ -3590,10 +3645,12 @@
       <c r="F61" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="11">
+      <c r="G61" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H61" s="12">
         <f>(LARGE(D61:G61,1)+LARGE(D61:G61,2)+LARGE(D61:G61,3))/3</f>
-        <v>0.698398925241031</v>
+        <v>0.782601823791755</v>
       </c>
     </row>
     <row r="62" ht="16.35" customHeight="1">
@@ -3635,7 +3692,7 @@
         <v>0.56140350877193</v>
       </c>
       <c r="F63" s="11">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G63" s="13">
         <v>0.760869565217391</v>
@@ -3664,10 +3721,12 @@
       <c r="F64" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G64" s="15"/>
+      <c r="G64" s="13">
+        <v>0.7826086956521739</v>
+      </c>
       <c r="H64" s="11">
         <f>(LARGE(D64:G64,1)+LARGE(D64:G64,2)+LARGE(D64:G64,3))/3</f>
-        <v>0.696127706654022</v>
+        <v>0.758166862514689</v>
       </c>
     </row>
     <row r="65" ht="16.35" customHeight="1">
@@ -3689,10 +3748,12 @@
       <c r="F65" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G65" s="15"/>
+      <c r="G65" s="13">
+        <v>0.7826086956521739</v>
+      </c>
       <c r="H65" s="12">
         <f>(LARGE(D65:G65,1)+LARGE(D65:G65,2)+LARGE(D65:G65,3))/3</f>
-        <v>0.51827962263534</v>
+        <v>0.6814480384274439</v>
       </c>
     </row>
     <row r="66" ht="16.35" customHeight="1">
@@ -3741,10 +3802,12 @@
       <c r="F67" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G67" s="15"/>
+      <c r="G67" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H67" s="11">
         <f>(LARGE(D67:G67,1)+LARGE(D67:G67,2)+LARGE(D67:G67,3))/3</f>
-        <v>0.780224434961277</v>
+        <v>0.792683117900509</v>
       </c>
     </row>
     <row r="68" ht="16.35" customHeight="1">
@@ -3793,10 +3856,12 @@
       <c r="F69" s="11">
         <v>0</v>
       </c>
-      <c r="G69" s="15"/>
+      <c r="G69" s="13">
+        <v>0.673913043478261</v>
+      </c>
       <c r="H69" s="11">
         <f>(LARGE(D69:G69,1)+LARGE(D69:G69,2)+LARGE(D69:G69,3))/3</f>
-        <v>0.597485380116959</v>
+        <v>0.822123061276379</v>
       </c>
     </row>
     <row r="70" ht="16.35" customHeight="1">
@@ -3845,10 +3910,12 @@
       <c r="F71" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G71" s="15"/>
+      <c r="G71" s="13">
+        <v>0.7826086956521739</v>
+      </c>
       <c r="H71" s="11">
         <f>(LARGE(D71:G71,1)+LARGE(D71:G71,2)+LARGE(D71:G71,3))/3</f>
-        <v>0.709116484905959</v>
+        <v>0.782851547199373</v>
       </c>
     </row>
     <row r="72" ht="16.35" customHeight="1">
@@ -3870,10 +3937,12 @@
       <c r="F72" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="11">
+      <c r="G72" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H72" s="12">
         <f>(LARGE(D72:G72,1)+LARGE(D72:G72,2)+LARGE(D72:G72,3))/3</f>
-        <v>0.646241504662557</v>
+        <v>0.730444403213282</v>
       </c>
     </row>
     <row r="73" ht="16.35" customHeight="1">
@@ -3974,7 +4043,9 @@
       <c r="F76" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="G76" s="15"/>
+      <c r="G76" s="13">
+        <v>0.652173913043478</v>
+      </c>
       <c r="H76" s="12">
         <f>(LARGE(D76:G76,1)+LARGE(D76:G76,2)+LARGE(D76:G76,3))/3</f>
         <v>0.821964432672237</v>
@@ -4026,10 +4097,12 @@
       <c r="F78" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G78" s="15"/>
+      <c r="G78" s="13">
+        <v>0.673913043478261</v>
+      </c>
       <c r="H78" s="12">
         <f>(LARGE(D78:G78,1)+LARGE(D78:G78,2)+LARGE(D78:G78,3))/3</f>
-        <v>0.674086972635067</v>
+        <v>0.711590150870511</v>
       </c>
     </row>
     <row r="79" ht="16.35" customHeight="1">
@@ -4078,10 +4151,12 @@
       <c r="F80" s="12">
         <v>0.72972972972973</v>
       </c>
-      <c r="G80" s="15"/>
+      <c r="G80" s="13">
+        <v>0.7173913043478261</v>
+      </c>
       <c r="H80" s="11">
         <f>(LARGE(D80:G80,1)+LARGE(D80:G80,2)+LARGE(D80:G80,3))/3</f>
-        <v>0.608681839734471</v>
+        <v>0.672373678025852</v>
       </c>
     </row>
     <row r="81" ht="16.35" customHeight="1">
@@ -4157,10 +4232,12 @@
       <c r="F83" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="11">
+      <c r="G83" s="13">
+        <v>0.826086956521739</v>
+      </c>
+      <c r="H83" s="12">
         <f>(LARGE(D83:G83,1)+LARGE(D83:G83,2)+LARGE(D83:G83,3))/3</f>
-        <v>0.791920341394026</v>
+        <v>0.8272826602346049</v>
       </c>
     </row>
     <row r="84" ht="16.35" customHeight="1">
@@ -4314,8 +4391,8 @@
       <c r="E89" s="12">
         <v>0.754385964912281</v>
       </c>
-      <c r="F89" s="11">
-        <v>0</v>
+      <c r="F89" s="12">
+        <v>0.653846153846154</v>
       </c>
       <c r="G89" s="13">
         <v>0.760869565217391</v>
@@ -4344,10 +4421,12 @@
       <c r="F90" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G90" s="15"/>
+      <c r="G90" s="13">
+        <v>0.673913043478261</v>
+      </c>
       <c r="H90" s="11">
         <f>(LARGE(D90:G90,1)+LARGE(D90:G90,2)+LARGE(D90:G90,3))/3</f>
-        <v>0.639344080923028</v>
+        <v>0.711934978456718</v>
       </c>
     </row>
     <row r="91" ht="16.35" customHeight="1">
@@ -4369,10 +4448,12 @@
       <c r="F91" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G91" s="15"/>
+      <c r="G91" s="13">
+        <v>0.7173913043478261</v>
+      </c>
       <c r="H91" s="11">
         <f>(LARGE(D91:G91,1)+LARGE(D91:G91,2)+LARGE(D91:G91,3))/3</f>
-        <v>0.5575896949581159</v>
+        <v>0.679761065413239</v>
       </c>
     </row>
     <row r="92" ht="16.35" customHeight="1">
@@ -4394,10 +4475,12 @@
       <c r="F92" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G92" s="15"/>
-      <c r="H92" s="11">
+      <c r="G92" s="13">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="H92" s="12">
         <f>(LARGE(D92:G92,1)+LARGE(D92:G92,2)+LARGE(D92:G92,3))/3</f>
-        <v>0.783616247826774</v>
+        <v>0.809993059420977</v>
       </c>
     </row>
     <row r="93" ht="16.35" customHeight="1">
@@ -4417,12 +4500,14 @@
         <v>0.368421052631579</v>
       </c>
       <c r="F93" s="11">
-        <v>0</v>
-      </c>
-      <c r="G93" s="15"/>
-      <c r="H93" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="G93" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H93" s="12">
         <f>(LARGE(D93:G93,1)+LARGE(D93:G93,2)+LARGE(D93:G93,3))/3</f>
-        <v>0.272232304900182</v>
+        <v>0.533101870117573</v>
       </c>
     </row>
     <row r="94" ht="16.35" customHeight="1">
@@ -4444,10 +4529,12 @@
       <c r="F94" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G94" s="15"/>
+      <c r="G94" s="13">
+        <v>0.7173913043478261</v>
+      </c>
       <c r="H94" s="11">
         <f>(LARGE(D94:G94,1)+LARGE(D94:G94,2)+LARGE(D94:G94,3))/3</f>
-        <v>0.692434012960329</v>
+        <v>0.732734038386212</v>
       </c>
     </row>
     <row r="95" ht="16.35" customHeight="1">
@@ -4469,10 +4556,12 @@
       <c r="F95" s="12">
         <v>0.567567567567568</v>
       </c>
-      <c r="G95" s="15"/>
+      <c r="G95" s="13">
+        <v>0.7173913043478261</v>
+      </c>
       <c r="H95" s="11">
         <f>(LARGE(D95:G95,1)+LARGE(D95:G95,2)+LARGE(D95:G95,3))/3</f>
-        <v>0.4503003003003</v>
+        <v>0.578319623971798</v>
       </c>
     </row>
     <row r="96" ht="16.35" customHeight="1">
@@ -4575,10 +4664,12 @@
       <c r="F99" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G99" s="15"/>
+      <c r="G99" s="13">
+        <v>0.652173913043478</v>
+      </c>
       <c r="H99" s="11">
         <f>(LARGE(D99:G99,1)+LARGE(D99:G99,2)+LARGE(D99:G99,3))/3</f>
-        <v>0.652375533428165</v>
+        <v>0.694328241284763</v>
       </c>
     </row>
     <row r="100" ht="16.35" customHeight="1">
@@ -4600,10 +4691,12 @@
       <c r="F100" s="12">
         <v>0.8378378378378381</v>
       </c>
-      <c r="G100" s="15"/>
+      <c r="G100" s="13">
+        <v>0.7826086956521739</v>
+      </c>
       <c r="H100" s="12">
         <f>(LARGE(D100:G100,1)+LARGE(D100:G100,2)+LARGE(D100:G100,3))/3</f>
-        <v>0.621485369216767</v>
+        <v>0.7214353942042731</v>
       </c>
     </row>
     <row r="101" ht="16.35" customHeight="1">
@@ -4623,12 +4716,14 @@
         <v>0.491228070175439</v>
       </c>
       <c r="F101" s="11">
-        <v>0</v>
-      </c>
-      <c r="G101" s="15"/>
+        <v>0.65</v>
+      </c>
+      <c r="G101" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H101" s="11">
         <f>(LARGE(D101:G101,1)+LARGE(D101:G101,2)+LARGE(D101:G101,3))/3</f>
-        <v>0.38374269005848</v>
+        <v>0.68304347826087</v>
       </c>
     </row>
     <row r="102" ht="16.35" customHeight="1">
@@ -4677,10 +4772,12 @@
       <c r="F103" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G103" s="15"/>
+      <c r="G103" s="13">
+        <v>0.652173913043478</v>
+      </c>
       <c r="H103" s="12">
         <f>(LARGE(D103:G103,1)+LARGE(D103:G103,2)+LARGE(D103:G103,3))/3</f>
-        <v>0.643999716594998</v>
+        <v>0.677482974965812</v>
       </c>
     </row>
     <row r="104" ht="16.35" customHeight="1">
@@ -4702,10 +4799,12 @@
       <c r="F104" s="12">
         <v>0.648648648648649</v>
       </c>
-      <c r="G104" s="15"/>
-      <c r="H104" s="11">
+      <c r="G104" s="13">
+        <v>0.826086956521739</v>
+      </c>
+      <c r="H104" s="12">
         <f>(LARGE(D104:G104,1)+LARGE(D104:G104,2)+LARGE(D104:G104,3))/3</f>
-        <v>0.656801011537854</v>
+        <v>0.725496663711767</v>
       </c>
     </row>
     <row r="105" ht="16.35" customHeight="1">
@@ -4727,10 +4826,12 @@
       <c r="F105" s="12">
         <v>0.756756756756757</v>
       </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="11">
+      <c r="G105" s="13">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H105" s="12">
         <f>(LARGE(D105:G105,1)+LARGE(D105:G105,2)+LARGE(D105:G105,3))/3</f>
-        <v>0.606872135293188</v>
+        <v>0.650930106307681</v>
       </c>
     </row>
     <row r="106" ht="16.35" customHeight="1">
@@ -4806,10 +4907,12 @@
       <c r="F108" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G108" s="15"/>
+      <c r="G108" s="13">
+        <v>0.826086956521739</v>
+      </c>
       <c r="H108" s="12">
         <f>(LARGE(D108:G108,1)+LARGE(D108:G108,2)+LARGE(D108:G108,3))/3</f>
-        <v>0.671359199489871</v>
+        <v>0.808790483847692</v>
       </c>
     </row>
     <row r="109" ht="16.35" customHeight="1">
@@ -4829,12 +4932,14 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F109" s="11">
-        <v>0</v>
-      </c>
-      <c r="G109" s="15"/>
+        <v>0.62</v>
+      </c>
+      <c r="G109" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H109" s="11">
         <f>(LARGE(D109:G109,1)+LARGE(D109:G109,2)+LARGE(D109:G109,3))/3</f>
-        <v>0.439824561403509</v>
+        <v>0.716201372997712</v>
       </c>
     </row>
     <row r="110" ht="16.35" customHeight="1">
@@ -4856,10 +4961,12 @@
       <c r="F110" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G110" s="15"/>
-      <c r="H110" s="11">
+      <c r="G110" s="13">
+        <v>0.7173913043478261</v>
+      </c>
+      <c r="H110" s="12">
         <f>(LARGE(D110:G110,1)+LARGE(D110:G110,2)+LARGE(D110:G110,3))/3</f>
-        <v>0.669935198356251</v>
+        <v>0.735732299805526</v>
       </c>
     </row>
     <row r="111" ht="16.35" customHeight="1">
@@ -4881,10 +4988,12 @@
       <c r="F111" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G111" s="15"/>
+      <c r="G111" s="13">
+        <v>0.673913043478261</v>
+      </c>
       <c r="H111" s="12">
         <f>(LARGE(D111:G111,1)+LARGE(D111:G111,2)+LARGE(D111:G111,3))/3</f>
-        <v>0.6295160859589169</v>
+        <v>0.6845631238434839</v>
       </c>
     </row>
     <row r="112" ht="16.35" customHeight="1">
@@ -4906,10 +5015,12 @@
       <c r="F112" s="12">
         <v>0.783783783783784</v>
       </c>
-      <c r="G112" s="15"/>
+      <c r="G112" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H112" s="11">
         <f>(LARGE(D112:G112,1)+LARGE(D112:G112,2)+LARGE(D112:G112,3))/3</f>
-        <v>0.261261261261261</v>
+        <v>0.507638072855464</v>
       </c>
     </row>
     <row r="113" ht="16.35" customHeight="1">
@@ -4931,10 +5042,12 @@
       <c r="F113" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G113" s="15"/>
-      <c r="H113" s="11">
+      <c r="G113" s="13">
+        <v>0.7173913043478261</v>
+      </c>
+      <c r="H113" s="12">
         <f>(LARGE(D113:G113,1)+LARGE(D113:G113,2)+LARGE(D113:G113,3))/3</f>
-        <v>0.700036352141615</v>
+        <v>0.749166786924224</v>
       </c>
     </row>
     <row r="114" ht="16.35" customHeight="1">
@@ -4956,10 +5069,12 @@
       <c r="F114" s="12">
         <v>0.810810810810811</v>
       </c>
-      <c r="G114" s="15"/>
-      <c r="H114" s="11">
+      <c r="G114" s="13">
+        <v>0.7173913043478261</v>
+      </c>
+      <c r="H114" s="12">
         <f>(LARGE(D114:G114,1)+LARGE(D114:G114,2)+LARGE(D114:G114,3))/3</f>
-        <v>0.584071439860914</v>
+        <v>0.696535207976856</v>
       </c>
     </row>
     <row r="115" ht="16.35" customHeight="1">
@@ -4981,10 +5096,12 @@
       <c r="F115" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G115" s="15"/>
-      <c r="H115" s="11">
+      <c r="G115" s="13">
+        <v>0.7173913043478261</v>
+      </c>
+      <c r="H115" s="12">
         <f>(LARGE(D115:G115,1)+LARGE(D115:G115,2)+LARGE(D115:G115,3))/3</f>
-        <v>0.679461039987356</v>
+        <v>0.735258141436631</v>
       </c>
     </row>
     <row r="116" ht="16.35" customHeight="1">
@@ -5006,10 +5123,12 @@
       <c r="F116" s="12">
         <v>0.918918918918919</v>
       </c>
-      <c r="G116" s="15"/>
+      <c r="G116" s="13">
+        <v>0.739130434782609</v>
+      </c>
       <c r="H116" s="12">
         <f>(LARGE(D116:G116,1)+LARGE(D116:G116,2)+LARGE(D116:G116,3))/3</f>
-        <v>0.7414746870282261</v>
+        <v>0.792449199771854</v>
       </c>
     </row>
     <row r="117" ht="16.35" customHeight="1">
@@ -5031,10 +5150,12 @@
       <c r="F117" s="12">
         <v>0.9459459459459461</v>
       </c>
-      <c r="G117" s="15"/>
-      <c r="H117" s="11">
+      <c r="G117" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H117" s="12">
         <f>(LARGE(D117:G117,1)+LARGE(D117:G117,2)+LARGE(D117:G117,3))/3</f>
-        <v>0.633268531689584</v>
+        <v>0.7574714302403091</v>
       </c>
     </row>
     <row r="118" ht="16.35" customHeight="1">
@@ -5108,10 +5229,12 @@
       <c r="F120" s="12">
         <v>0.891891891891892</v>
       </c>
-      <c r="G120" s="15"/>
-      <c r="H120" s="11">
+      <c r="G120" s="13">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H120" s="12">
         <f>(LARGE(D120:G120,1)+LARGE(D120:G120,2)+LARGE(D120:G120,3))/3</f>
-        <v>0.68327430879155</v>
+        <v>0.7708105406756079</v>
       </c>
     </row>
     <row r="121" ht="16.35" customHeight="1">

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -3398,7 +3398,9 @@
       <c r="D52" s="11">
         <v>0.6</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="12">
+        <v>0.684210526315789</v>
+      </c>
       <c r="F52" s="11">
         <v>0</v>
       </c>
@@ -3407,7 +3409,7 @@
       </c>
       <c r="H52" s="11">
         <f>(LARGE(D52:G52,1)+LARGE(D52:G52,2)+LARGE(D52:G52,3))/3</f>
-        <v>0.42463768115942</v>
+        <v>0.652707856598017</v>
       </c>
     </row>
     <row r="53" ht="16.35" customHeight="1">
@@ -5009,8 +5011,8 @@
       <c r="D112" s="11">
         <v>0</v>
       </c>
-      <c r="E112" s="11">
-        <v>0</v>
+      <c r="E112" s="12">
+        <v>0.298245614035088</v>
       </c>
       <c r="F112" s="12">
         <v>0.783783783783784</v>
@@ -5018,9 +5020,9 @@
       <c r="G112" s="13">
         <v>0.739130434782609</v>
       </c>
-      <c r="H112" s="11">
+      <c r="H112" s="12">
         <f>(LARGE(D112:G112,1)+LARGE(D112:G112,2)+LARGE(D112:G112,3))/3</f>
-        <v>0.507638072855464</v>
+        <v>0.607053277533827</v>
       </c>
     </row>
     <row r="113" ht="16.35" customHeight="1">

--- a/1142020cw.xlsx
+++ b/1142020cw.xlsx
@@ -2658,8 +2658,8 @@
         <v>0.783783783783784</v>
       </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="14">
-        <f>(LARGE(D24:G24,1)+LARGE(D24:G24,2)+LARGE(D24:G24,3))/3</f>
+      <c r="H24" s="11">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="25" ht="16.35" customHeight="1">
